--- a/public/assets/Template_Inventory.xlsx
+++ b/public/assets/Template_Inventory.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treinta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1E6C04-D09B-4F41-9C49-3738F28A5B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10E710-EDF5-4CA3-9989-8F7157C32C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="0" windowWidth="28230" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mi inventario" sheetId="1" r:id="rId1"/>
-    <sheet name="-" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
   <si>
     <t>Importación Masiva de Inventario</t>
   </si>
@@ -734,6 +733,36 @@
     <t>Ambientadores</t>
   </si>
   <si>
+    <t xml:space="preserve">*Ingresa el nombre de una bodega ya existente que opera en el marketplace. El nombre debe escribirse tal cual existe y está creado. Se puede validar cómo escribirlo en el portal, en el módulo de inventario </t>
+  </si>
+  <si>
+    <t>Bogotá -Treinta</t>
+  </si>
+  <si>
+    <t>Popayán - Distrijass</t>
+  </si>
+  <si>
+    <t>Bogotá - Tropi</t>
+  </si>
+  <si>
+    <t>Tulua - Distrijass</t>
+  </si>
+  <si>
+    <t>Cali - Distrijass</t>
+  </si>
+  <si>
+    <t>Palmira - Distrijass</t>
+  </si>
+  <si>
+    <t>Popayan - Distrijass</t>
+  </si>
+  <si>
+    <t>Bogota - Treinta</t>
+  </si>
+  <si>
+    <t>Bogota - Tropi</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Instrucciones: </t>
     </r>
@@ -744,42 +773,15 @@
         <color rgb="FF000000"/>
         <rFont val="Nunito Sans"/>
       </rPr>
-      <t xml:space="preserve">Completa esta plantilla con las indicaciones de cada columna. </t>
+      <t>Completa esta plantilla con las indicaciones de cada columna.</t>
     </r>
-  </si>
-  <si>
-    <t>Popayan</t>
-  </si>
-  <si>
-    <t>Treinta Montevideo MU - Bogota</t>
-  </si>
-  <si>
-    <t>Tropi Bodega Norte</t>
-  </si>
-  <si>
-    <t>Tulua</t>
-  </si>
-  <si>
-    <t>Bodega #01 - Bodega Principal Cali-Palmira</t>
-  </si>
-  <si>
-    <t>Palmira</t>
-  </si>
-  <si>
-    <t>Popayán</t>
-  </si>
-  <si>
-    <t>Treinta Montevideo MU - Bogotá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Ingresa el nombre de una bodega ya existente que opera en el marketplace. El nombre debe escribirse tal cual existe y está creado. Se puede validar cómo escribirlo en el portal, en el módulo de inventario </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -903,12 +905,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Nunito Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1105,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1190,8 +1186,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1666,9 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,27 +1680,30 @@
     <col min="14" max="14" width="25.140625" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="30" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="17" max="20" width="14.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:25" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
@@ -1719,30 +1717,32 @@
       <c r="S1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="27"/>
+      <c r="T1" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+    <row r="2" spans="1:25" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
       <c r="O2" s="26" t="s">
         <v>29</v>
       </c>
@@ -1756,34 +1756,36 @@
       <c r="S2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="30" t="s">
@@ -1793,7 +1795,9 @@
       <c r="S3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -1852,7 +1856,9 @@
       <c r="S4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="32"/>
+      <c r="T4" s="33" t="s">
+        <v>166</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1888,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>56</v>
@@ -1911,14 +1917,16 @@
       <c r="S5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="26"/>
+      <c r="T5" s="33" t="s">
+        <v>167</v>
+      </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1970,14 +1978,16 @@
       <c r="S6" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="T6" s="26"/>
+      <c r="T6" s="33" t="s">
+        <v>168</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="25"/>
@@ -1987,7 +1997,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -2001,7 +2011,9 @@
       <c r="S7" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="T7" s="26"/>
+      <c r="T7" s="33" t="s">
+        <v>169</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -2018,7 +2030,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -2028,6 +2040,9 @@
       </c>
       <c r="S8" s="29" t="s">
         <v>105</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2040,7 +2055,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -2050,6 +2065,9 @@
       </c>
       <c r="S9" s="31" t="s">
         <v>161</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2062,7 +2080,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -2084,7 +2102,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -2106,7 +2124,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2128,7 +2146,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2150,7 +2168,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -2172,7 +2190,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2194,7 +2212,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -2216,7 +2234,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2235,7 +2253,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2254,7 +2272,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2273,7 +2291,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2292,7 +2310,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2311,7 +2329,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2330,7 +2348,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -2349,7 +2367,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -2368,7 +2386,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2387,7 +2405,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2406,7 +2424,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2425,7 +2443,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="34"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -2444,7 +2462,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -2463,7 +2481,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2482,7 +2500,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="34"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2501,7 +2519,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="34"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2520,7 +2538,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="34"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2539,7 +2557,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="34"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2558,7 +2576,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="34"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2577,7 +2595,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="34"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -2596,7 +2614,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="34"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2615,7 +2633,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="34"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -2634,7 +2652,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="34"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -2653,7 +2671,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="35"/>
+      <c r="J40" s="34"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -2672,7 +2690,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="34"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -2691,7 +2709,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="34"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2710,7 +2728,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="34"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -2729,7 +2747,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="34"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -2748,7 +2766,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="34"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -2767,7 +2785,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="34"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2786,7 +2804,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="34"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2805,7 +2823,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="34"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2824,7 +2842,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="34"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -2843,7 +2861,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="34"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2862,7 +2880,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="34"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -2881,7 +2899,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="34"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2900,7 +2918,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="34"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -2919,7 +2937,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="34"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -2938,7 +2956,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="34"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -2957,7 +2975,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="34"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -2976,7 +2994,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="34"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -2995,7 +3013,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="34"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -3014,7 +3032,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="35"/>
+      <c r="J59" s="34"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -3033,7 +3051,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="34"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -3052,7 +3070,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="34"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -3071,7 +3089,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="34"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -3090,7 +3108,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="34"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -3109,7 +3127,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="34"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
@@ -3128,7 +3146,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="34"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -3147,7 +3165,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="34"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -3166,7 +3184,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="34"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -3185,7 +3203,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="34"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -3204,7 +3222,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="34"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -3223,7 +3241,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="34"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -3242,7 +3260,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="35"/>
+      <c r="J71" s="34"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -3261,7 +3279,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="35"/>
+      <c r="J72" s="34"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -3280,7 +3298,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="34"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -3299,7 +3317,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="35"/>
+      <c r="J74" s="34"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -3318,7 +3336,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="34"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -3337,7 +3355,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="35"/>
+      <c r="J76" s="34"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -3356,7 +3374,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="34"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -3375,7 +3393,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="34"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -3394,7 +3412,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="35"/>
+      <c r="J79" s="34"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -3413,7 +3431,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="35"/>
+      <c r="J80" s="34"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -3432,7 +3450,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="35"/>
+      <c r="J81" s="34"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -3451,7 +3469,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="35"/>
+      <c r="J82" s="34"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -3470,7 +3488,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="35"/>
+      <c r="J83" s="34"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -3489,7 +3507,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="34"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -3508,7 +3526,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="35"/>
+      <c r="J85" s="34"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -3527,7 +3545,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="35"/>
+      <c r="J86" s="34"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -3546,7 +3564,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="35"/>
+      <c r="J87" s="34"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -3565,7 +3583,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="35"/>
+      <c r="J88" s="34"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -3584,7 +3602,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="35"/>
+      <c r="J89" s="34"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -3603,7 +3621,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="35"/>
+      <c r="J90" s="34"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -3622,7 +3640,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="35"/>
+      <c r="J91" s="34"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -3641,7 +3659,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="35"/>
+      <c r="J92" s="34"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -3660,7 +3678,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="35"/>
+      <c r="J93" s="34"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -3679,7 +3697,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="35"/>
+      <c r="J94" s="34"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -3698,7 +3716,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="35"/>
+      <c r="J95" s="34"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -3717,7 +3735,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="35"/>
+      <c r="J96" s="34"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -3736,7 +3754,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="35"/>
+      <c r="J97" s="34"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -3755,7 +3773,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="35"/>
+      <c r="J98" s="34"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -3774,7 +3792,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="35"/>
+      <c r="J99" s="34"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -3793,7 +3811,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="35"/>
+      <c r="J100" s="34"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -3812,7 +3830,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="35"/>
+      <c r="J101" s="34"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -3831,7 +3849,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="35"/>
+      <c r="J102" s="34"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -3850,7 +3868,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="35"/>
+      <c r="J103" s="34"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
@@ -3869,7 +3887,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="35"/>
+      <c r="J104" s="34"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -3888,7 +3906,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="35"/>
+      <c r="J105" s="34"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
@@ -3907,7 +3925,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="35"/>
+      <c r="J106" s="34"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -3926,7 +3944,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="35"/>
+      <c r="J107" s="34"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
@@ -3945,7 +3963,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="35"/>
+      <c r="J108" s="34"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
@@ -3964,7 +3982,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="35"/>
+      <c r="J109" s="34"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
@@ -3983,7 +4001,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="35"/>
+      <c r="J110" s="34"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
@@ -4002,7 +4020,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="35"/>
+      <c r="J111" s="34"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
@@ -4021,7 +4039,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="35"/>
+      <c r="J112" s="34"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -4040,7 +4058,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="35"/>
+      <c r="J113" s="34"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
@@ -4056,7 +4074,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="35"/>
+      <c r="J114" s="34"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
@@ -4072,7 +4090,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="35"/>
+      <c r="J115" s="34"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
@@ -4088,7 +4106,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="35"/>
+      <c r="J116" s="34"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
@@ -4104,7 +4122,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="35"/>
+      <c r="J117" s="34"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -4120,7 +4138,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="35"/>
+      <c r="J118" s="34"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -4136,7 +4154,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="35"/>
+      <c r="J119" s="34"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
@@ -4152,7 +4170,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="35"/>
+      <c r="J120" s="34"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -4168,7 +4186,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="35"/>
+      <c r="J121" s="34"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -4184,7 +4202,7 @@
       <c r="G122" s="5"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="35"/>
+      <c r="J122" s="34"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -4200,7 +4218,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="35"/>
+      <c r="J123" s="34"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -4216,7 +4234,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="35"/>
+      <c r="J124" s="34"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -4232,7 +4250,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="35"/>
+      <c r="J125" s="34"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -4248,7 +4266,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="35"/>
+      <c r="J126" s="34"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -4264,7 +4282,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="35"/>
+      <c r="J127" s="34"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -4280,7 +4298,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="35"/>
+      <c r="J128" s="34"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -4296,7 +4314,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="35"/>
+      <c r="J129" s="34"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -4312,7 +4330,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="35"/>
+      <c r="J130" s="34"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -4328,7 +4346,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
-      <c r="J131" s="35"/>
+      <c r="J131" s="34"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -4344,7 +4362,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="35"/>
+      <c r="J132" s="34"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -4360,7 +4378,7 @@
       <c r="G133" s="5"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="35"/>
+      <c r="J133" s="34"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
@@ -4376,7 +4394,7 @@
       <c r="G134" s="5"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
-      <c r="J134" s="35"/>
+      <c r="J134" s="34"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
@@ -4392,7 +4410,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
-      <c r="J135" s="35"/>
+      <c r="J135" s="34"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
@@ -4408,7 +4426,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="35"/>
+      <c r="J136" s="34"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
@@ -4424,7 +4442,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="35"/>
+      <c r="J137" s="34"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
@@ -4440,7 +4458,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="35"/>
+      <c r="J138" s="34"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
@@ -4456,7 +4474,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="35"/>
+      <c r="J139" s="34"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
@@ -4472,7 +4490,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="35"/>
+      <c r="J140" s="34"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
@@ -4488,7 +4506,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="35"/>
+      <c r="J141" s="34"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
@@ -4504,7 +4522,7 @@
       <c r="G142" s="5"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="35"/>
+      <c r="J142" s="34"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
@@ -4520,7 +4538,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="35"/>
+      <c r="J143" s="34"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
@@ -4536,7 +4554,7 @@
       <c r="G144" s="5"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="35"/>
+      <c r="J144" s="34"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
@@ -4552,7 +4570,7 @@
       <c r="G145" s="5"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="35"/>
+      <c r="J145" s="34"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
@@ -4568,7 +4586,7 @@
       <c r="G146" s="5"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="35"/>
+      <c r="J146" s="34"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
@@ -4584,7 +4602,7 @@
       <c r="G147" s="5"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
-      <c r="J147" s="35"/>
+      <c r="J147" s="34"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
@@ -4600,7 +4618,7 @@
       <c r="G148" s="5"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
-      <c r="J148" s="35"/>
+      <c r="J148" s="34"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
@@ -4616,7 +4634,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
-      <c r="J149" s="35"/>
+      <c r="J149" s="34"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
@@ -4632,7 +4650,7 @@
       <c r="G150" s="5"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
-      <c r="J150" s="35"/>
+      <c r="J150" s="34"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
@@ -4648,7 +4666,7 @@
       <c r="G151" s="5"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
-      <c r="J151" s="35"/>
+      <c r="J151" s="34"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
@@ -4664,7 +4682,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
-      <c r="J152" s="35"/>
+      <c r="J152" s="34"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
@@ -4680,7 +4698,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
-      <c r="J153" s="35"/>
+      <c r="J153" s="34"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
@@ -4696,7 +4714,7 @@
       <c r="G154" s="5"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
-      <c r="J154" s="35"/>
+      <c r="J154" s="34"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
@@ -4712,7 +4730,7 @@
       <c r="G155" s="5"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
-      <c r="J155" s="35"/>
+      <c r="J155" s="34"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
@@ -4728,7 +4746,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
-      <c r="J156" s="35"/>
+      <c r="J156" s="34"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
@@ -4744,7 +4762,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
-      <c r="J157" s="35"/>
+      <c r="J157" s="34"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
@@ -4760,7 +4778,7 @@
       <c r="G158" s="5"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
-      <c r="J158" s="35"/>
+      <c r="J158" s="34"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
@@ -4776,7 +4794,7 @@
       <c r="G159" s="5"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
-      <c r="J159" s="35"/>
+      <c r="J159" s="34"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
@@ -4792,7 +4810,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
-      <c r="J160" s="35"/>
+      <c r="J160" s="34"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
@@ -4808,7 +4826,7 @@
       <c r="G161" s="5"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
-      <c r="J161" s="35"/>
+      <c r="J161" s="34"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
@@ -4824,7 +4842,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
-      <c r="J162" s="35"/>
+      <c r="J162" s="34"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
@@ -4840,7 +4858,7 @@
       <c r="G163" s="5"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
-      <c r="J163" s="35"/>
+      <c r="J163" s="34"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
@@ -4856,7 +4874,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
-      <c r="J164" s="35"/>
+      <c r="J164" s="34"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
@@ -4872,7 +4890,7 @@
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
-      <c r="J165" s="35"/>
+      <c r="J165" s="34"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
@@ -4888,7 +4906,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
-      <c r="J166" s="35"/>
+      <c r="J166" s="34"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
@@ -4904,7 +4922,7 @@
       <c r="G167" s="5"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
-      <c r="J167" s="35"/>
+      <c r="J167" s="34"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
@@ -4920,7 +4938,7 @@
       <c r="G168" s="5"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
-      <c r="J168" s="35"/>
+      <c r="J168" s="34"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
@@ -4936,7 +4954,7 @@
       <c r="G169" s="5"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
-      <c r="J169" s="35"/>
+      <c r="J169" s="34"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
@@ -4952,7 +4970,7 @@
       <c r="G170" s="5"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
-      <c r="J170" s="35"/>
+      <c r="J170" s="34"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
@@ -4968,7 +4986,7 @@
       <c r="G171" s="5"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
-      <c r="J171" s="35"/>
+      <c r="J171" s="34"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
@@ -4984,7 +5002,7 @@
       <c r="G172" s="5"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
-      <c r="J172" s="35"/>
+      <c r="J172" s="34"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
@@ -5000,7 +5018,7 @@
       <c r="G173" s="5"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
-      <c r="J173" s="35"/>
+      <c r="J173" s="34"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
@@ -5016,7 +5034,7 @@
       <c r="G174" s="5"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-      <c r="J174" s="35"/>
+      <c r="J174" s="34"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
@@ -5032,7 +5050,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
-      <c r="J175" s="35"/>
+      <c r="J175" s="34"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
@@ -5048,7 +5066,7 @@
       <c r="G176" s="5"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
-      <c r="J176" s="35"/>
+      <c r="J176" s="34"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
@@ -5064,7 +5082,7 @@
       <c r="G177" s="5"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
-      <c r="J177" s="35"/>
+      <c r="J177" s="34"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
@@ -5080,7 +5098,7 @@
       <c r="G178" s="5"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
-      <c r="J178" s="35"/>
+      <c r="J178" s="34"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
@@ -5096,7 +5114,7 @@
       <c r="G179" s="5"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
-      <c r="J179" s="35"/>
+      <c r="J179" s="34"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
@@ -5112,7 +5130,7 @@
       <c r="G180" s="5"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
-      <c r="J180" s="35"/>
+      <c r="J180" s="34"/>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
@@ -5128,7 +5146,7 @@
       <c r="G181" s="5"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-      <c r="J181" s="35"/>
+      <c r="J181" s="34"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
@@ -5144,7 +5162,7 @@
       <c r="G182" s="5"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
-      <c r="J182" s="35"/>
+      <c r="J182" s="34"/>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
@@ -5160,7 +5178,7 @@
       <c r="G183" s="5"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="35"/>
+      <c r="J183" s="34"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
@@ -5176,7 +5194,7 @@
       <c r="G184" s="5"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
-      <c r="J184" s="35"/>
+      <c r="J184" s="34"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
@@ -5192,7 +5210,7 @@
       <c r="G185" s="5"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
-      <c r="J185" s="35"/>
+      <c r="J185" s="34"/>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
@@ -5208,7 +5226,7 @@
       <c r="G186" s="5"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="35"/>
+      <c r="J186" s="34"/>
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
@@ -5224,7 +5242,7 @@
       <c r="G187" s="5"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
-      <c r="J187" s="35"/>
+      <c r="J187" s="34"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
@@ -5240,7 +5258,7 @@
       <c r="G188" s="5"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
-      <c r="J188" s="35"/>
+      <c r="J188" s="34"/>
       <c r="K188" s="5"/>
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
@@ -5256,7 +5274,7 @@
       <c r="G189" s="5"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
-      <c r="J189" s="35"/>
+      <c r="J189" s="34"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
@@ -5272,7 +5290,7 @@
       <c r="G190" s="5"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
-      <c r="J190" s="35"/>
+      <c r="J190" s="34"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
@@ -5288,7 +5306,7 @@
       <c r="G191" s="5"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="35"/>
+      <c r="J191" s="34"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
@@ -5304,7 +5322,7 @@
       <c r="G192" s="5"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-      <c r="J192" s="35"/>
+      <c r="J192" s="34"/>
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
@@ -5320,7 +5338,7 @@
       <c r="G193" s="5"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
-      <c r="J193" s="35"/>
+      <c r="J193" s="34"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
@@ -5336,7 +5354,7 @@
       <c r="G194" s="5"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
-      <c r="J194" s="35"/>
+      <c r="J194" s="34"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
@@ -5352,7 +5370,7 @@
       <c r="G195" s="5"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
-      <c r="J195" s="35"/>
+      <c r="J195" s="34"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
@@ -5368,7 +5386,7 @@
       <c r="G196" s="5"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
-      <c r="J196" s="35"/>
+      <c r="J196" s="34"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
@@ -5384,7 +5402,7 @@
       <c r="G197" s="5"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
-      <c r="J197" s="35"/>
+      <c r="J197" s="34"/>
       <c r="K197" s="5"/>
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
@@ -5400,7 +5418,7 @@
       <c r="G198" s="5"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
-      <c r="J198" s="35"/>
+      <c r="J198" s="34"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
@@ -5416,7 +5434,7 @@
       <c r="G199" s="5"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
-      <c r="J199" s="35"/>
+      <c r="J199" s="34"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
@@ -5432,7 +5450,7 @@
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
-      <c r="J200" s="35"/>
+      <c r="J200" s="34"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
@@ -5448,7 +5466,7 @@
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
-      <c r="J201" s="35"/>
+      <c r="J201" s="34"/>
       <c r="K201" s="5"/>
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
@@ -5464,7 +5482,7 @@
       <c r="G202" s="5"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
-      <c r="J202" s="35"/>
+      <c r="J202" s="34"/>
       <c r="K202" s="5"/>
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
@@ -5480,7 +5498,7 @@
       <c r="G203" s="5"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
-      <c r="J203" s="35"/>
+      <c r="J203" s="34"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
@@ -5496,7 +5514,7 @@
       <c r="G204" s="5"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="35"/>
+      <c r="J204" s="34"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
@@ -5512,7 +5530,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="35"/>
+      <c r="J205" s="34"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
@@ -5528,7 +5546,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="35"/>
+      <c r="J206" s="34"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
@@ -5544,7 +5562,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="35"/>
+      <c r="J207" s="34"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
@@ -5560,7 +5578,7 @@
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="35"/>
+      <c r="J208" s="34"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
@@ -5576,7 +5594,7 @@
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="35"/>
+      <c r="J209" s="34"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
@@ -5592,7 +5610,7 @@
       <c r="G210" s="5"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="35"/>
+      <c r="J210" s="34"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
@@ -5608,7 +5626,7 @@
       <c r="G211" s="5"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
-      <c r="J211" s="35"/>
+      <c r="J211" s="34"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
@@ -5624,7 +5642,7 @@
       <c r="G212" s="5"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
-      <c r="J212" s="35"/>
+      <c r="J212" s="34"/>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
@@ -5640,7 +5658,7 @@
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="35"/>
+      <c r="J213" s="34"/>
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
@@ -5656,7 +5674,7 @@
       <c r="G214" s="5"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
-      <c r="J214" s="35"/>
+      <c r="J214" s="34"/>
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
@@ -5672,7 +5690,7 @@
       <c r="G215" s="5"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
-      <c r="J215" s="35"/>
+      <c r="J215" s="34"/>
       <c r="K215" s="5"/>
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
@@ -5688,7 +5706,7 @@
       <c r="G216" s="5"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
-      <c r="J216" s="35"/>
+      <c r="J216" s="34"/>
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
@@ -5704,7 +5722,7 @@
       <c r="G217" s="5"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
-      <c r="J217" s="35"/>
+      <c r="J217" s="34"/>
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
@@ -5720,7 +5738,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
-      <c r="J218" s="35"/>
+      <c r="J218" s="34"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
@@ -5736,7 +5754,7 @@
       <c r="G219" s="5"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
-      <c r="J219" s="35"/>
+      <c r="J219" s="34"/>
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
@@ -5752,7 +5770,7 @@
       <c r="G220" s="5"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
-      <c r="J220" s="35"/>
+      <c r="J220" s="34"/>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
@@ -5768,7 +5786,7 @@
       <c r="G221" s="5"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
-      <c r="J221" s="35"/>
+      <c r="J221" s="34"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
@@ -5784,7 +5802,7 @@
       <c r="G222" s="5"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
-      <c r="J222" s="35"/>
+      <c r="J222" s="34"/>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
@@ -5800,7 +5818,7 @@
       <c r="G223" s="5"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
-      <c r="J223" s="35"/>
+      <c r="J223" s="34"/>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
@@ -5816,7 +5834,7 @@
       <c r="G224" s="5"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
-      <c r="J224" s="35"/>
+      <c r="J224" s="34"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
@@ -5832,7 +5850,7 @@
       <c r="G225" s="5"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
-      <c r="J225" s="35"/>
+      <c r="J225" s="34"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
@@ -5848,7 +5866,7 @@
       <c r="G226" s="5"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
-      <c r="J226" s="35"/>
+      <c r="J226" s="34"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
@@ -5864,7 +5882,7 @@
       <c r="G227" s="5"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
-      <c r="J227" s="35"/>
+      <c r="J227" s="34"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
@@ -5880,7 +5898,7 @@
       <c r="G228" s="5"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
-      <c r="J228" s="35"/>
+      <c r="J228" s="34"/>
       <c r="K228" s="5"/>
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
@@ -5896,7 +5914,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
-      <c r="J229" s="35"/>
+      <c r="J229" s="34"/>
       <c r="K229" s="5"/>
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
@@ -5912,7 +5930,7 @@
       <c r="G230" s="5"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
-      <c r="J230" s="35"/>
+      <c r="J230" s="34"/>
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
@@ -5928,7 +5946,7 @@
       <c r="G231" s="5"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
-      <c r="J231" s="35"/>
+      <c r="J231" s="34"/>
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
@@ -5944,7 +5962,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
-      <c r="J232" s="35"/>
+      <c r="J232" s="34"/>
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
@@ -5960,7 +5978,7 @@
       <c r="G233" s="5"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
-      <c r="J233" s="35"/>
+      <c r="J233" s="34"/>
       <c r="K233" s="5"/>
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
@@ -5976,7 +5994,7 @@
       <c r="G234" s="5"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
-      <c r="J234" s="35"/>
+      <c r="J234" s="34"/>
       <c r="K234" s="5"/>
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
@@ -5992,7 +6010,7 @@
       <c r="G235" s="5"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
-      <c r="J235" s="35"/>
+      <c r="J235" s="34"/>
       <c r="K235" s="5"/>
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
@@ -6008,7 +6026,7 @@
       <c r="G236" s="5"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
-      <c r="J236" s="35"/>
+      <c r="J236" s="34"/>
       <c r="K236" s="5"/>
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
@@ -6024,7 +6042,7 @@
       <c r="G237" s="5"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
-      <c r="J237" s="35"/>
+      <c r="J237" s="34"/>
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
@@ -6040,7 +6058,7 @@
       <c r="G238" s="5"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
-      <c r="J238" s="35"/>
+      <c r="J238" s="34"/>
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
@@ -6056,7 +6074,7 @@
       <c r="G239" s="5"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
-      <c r="J239" s="35"/>
+      <c r="J239" s="34"/>
       <c r="K239" s="5"/>
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
@@ -6072,7 +6090,7 @@
       <c r="G240" s="5"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
-      <c r="J240" s="35"/>
+      <c r="J240" s="34"/>
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
@@ -6088,7 +6106,7 @@
       <c r="G241" s="5"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
-      <c r="J241" s="35"/>
+      <c r="J241" s="34"/>
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
@@ -6104,7 +6122,7 @@
       <c r="G242" s="5"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
-      <c r="J242" s="35"/>
+      <c r="J242" s="34"/>
       <c r="K242" s="5"/>
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
@@ -6120,7 +6138,7 @@
       <c r="G243" s="5"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
-      <c r="J243" s="35"/>
+      <c r="J243" s="34"/>
       <c r="K243" s="5"/>
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
@@ -6136,7 +6154,7 @@
       <c r="G244" s="5"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
-      <c r="J244" s="35"/>
+      <c r="J244" s="34"/>
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
@@ -6152,7 +6170,7 @@
       <c r="G245" s="5"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
-      <c r="J245" s="35"/>
+      <c r="J245" s="34"/>
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
@@ -6168,7 +6186,7 @@
       <c r="G246" s="5"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
-      <c r="J246" s="35"/>
+      <c r="J246" s="34"/>
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
@@ -6184,7 +6202,7 @@
       <c r="G247" s="5"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
-      <c r="J247" s="35"/>
+      <c r="J247" s="34"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
@@ -6200,7 +6218,7 @@
       <c r="G248" s="5"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
-      <c r="J248" s="35"/>
+      <c r="J248" s="34"/>
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
@@ -6216,7 +6234,7 @@
       <c r="G249" s="5"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
-      <c r="J249" s="35"/>
+      <c r="J249" s="34"/>
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
@@ -6232,7 +6250,7 @@
       <c r="G250" s="5"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
-      <c r="J250" s="35"/>
+      <c r="J250" s="34"/>
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
@@ -6248,7 +6266,7 @@
       <c r="G251" s="5"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
-      <c r="J251" s="35"/>
+      <c r="J251" s="34"/>
       <c r="K251" s="5"/>
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
@@ -6264,7 +6282,7 @@
       <c r="G252" s="5"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
-      <c r="J252" s="35"/>
+      <c r="J252" s="34"/>
       <c r="K252" s="5"/>
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
@@ -6280,7 +6298,7 @@
       <c r="G253" s="5"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
-      <c r="J253" s="35"/>
+      <c r="J253" s="34"/>
       <c r="K253" s="5"/>
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
@@ -6296,7 +6314,7 @@
       <c r="G254" s="5"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
-      <c r="J254" s="35"/>
+      <c r="J254" s="34"/>
       <c r="K254" s="5"/>
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
@@ -6312,7 +6330,7 @@
       <c r="G255" s="5"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
-      <c r="J255" s="35"/>
+      <c r="J255" s="34"/>
       <c r="K255" s="5"/>
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
@@ -6328,7 +6346,7 @@
       <c r="G256" s="5"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
-      <c r="J256" s="35"/>
+      <c r="J256" s="34"/>
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
@@ -6344,7 +6362,7 @@
       <c r="G257" s="5"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
-      <c r="J257" s="35"/>
+      <c r="J257" s="34"/>
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
@@ -6360,7 +6378,7 @@
       <c r="G258" s="5"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
-      <c r="J258" s="35"/>
+      <c r="J258" s="34"/>
       <c r="K258" s="5"/>
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
@@ -6376,7 +6394,7 @@
       <c r="G259" s="5"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
-      <c r="J259" s="35"/>
+      <c r="J259" s="34"/>
       <c r="K259" s="5"/>
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
@@ -6392,7 +6410,7 @@
       <c r="G260" s="5"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
-      <c r="J260" s="35"/>
+      <c r="J260" s="34"/>
       <c r="K260" s="5"/>
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
@@ -6408,7 +6426,7 @@
       <c r="G261" s="5"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
-      <c r="J261" s="35"/>
+      <c r="J261" s="34"/>
       <c r="K261" s="5"/>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
@@ -6424,7 +6442,7 @@
       <c r="G262" s="5"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
-      <c r="J262" s="35"/>
+      <c r="J262" s="34"/>
       <c r="K262" s="5"/>
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
@@ -6440,7 +6458,7 @@
       <c r="G263" s="5"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
-      <c r="J263" s="35"/>
+      <c r="J263" s="34"/>
       <c r="K263" s="5"/>
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
@@ -6456,7 +6474,7 @@
       <c r="G264" s="5"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
-      <c r="J264" s="35"/>
+      <c r="J264" s="34"/>
       <c r="K264" s="5"/>
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
@@ -6472,7 +6490,7 @@
       <c r="G265" s="5"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
-      <c r="J265" s="35"/>
+      <c r="J265" s="34"/>
       <c r="K265" s="5"/>
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
@@ -6488,7 +6506,7 @@
       <c r="G266" s="5"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
-      <c r="J266" s="35"/>
+      <c r="J266" s="34"/>
       <c r="K266" s="5"/>
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
@@ -6504,7 +6522,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
-      <c r="J267" s="35"/>
+      <c r="J267" s="34"/>
       <c r="K267" s="5"/>
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
@@ -6520,7 +6538,7 @@
       <c r="G268" s="5"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
-      <c r="J268" s="35"/>
+      <c r="J268" s="34"/>
       <c r="K268" s="5"/>
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
@@ -6536,7 +6554,7 @@
       <c r="G269" s="5"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
-      <c r="J269" s="35"/>
+      <c r="J269" s="34"/>
       <c r="K269" s="5"/>
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
@@ -6552,7 +6570,7 @@
       <c r="G270" s="5"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
-      <c r="J270" s="35"/>
+      <c r="J270" s="34"/>
       <c r="K270" s="5"/>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
@@ -6568,7 +6586,7 @@
       <c r="G271" s="5"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
-      <c r="J271" s="35"/>
+      <c r="J271" s="34"/>
       <c r="K271" s="5"/>
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
@@ -6584,7 +6602,7 @@
       <c r="G272" s="5"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
-      <c r="J272" s="35"/>
+      <c r="J272" s="34"/>
       <c r="K272" s="5"/>
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
@@ -6600,7 +6618,7 @@
       <c r="G273" s="5"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
-      <c r="J273" s="35"/>
+      <c r="J273" s="34"/>
       <c r="K273" s="5"/>
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
@@ -6616,7 +6634,7 @@
       <c r="G274" s="5"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
-      <c r="J274" s="35"/>
+      <c r="J274" s="34"/>
       <c r="K274" s="5"/>
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
@@ -6632,7 +6650,7 @@
       <c r="G275" s="5"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
-      <c r="J275" s="35"/>
+      <c r="J275" s="34"/>
       <c r="K275" s="5"/>
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
@@ -6648,7 +6666,7 @@
       <c r="G276" s="5"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
-      <c r="J276" s="35"/>
+      <c r="J276" s="34"/>
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
@@ -6664,7 +6682,7 @@
       <c r="G277" s="5"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
-      <c r="J277" s="35"/>
+      <c r="J277" s="34"/>
       <c r="K277" s="5"/>
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
@@ -6680,7 +6698,7 @@
       <c r="G278" s="5"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
-      <c r="J278" s="35"/>
+      <c r="J278" s="34"/>
       <c r="K278" s="5"/>
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
@@ -6696,7 +6714,7 @@
       <c r="G279" s="5"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
-      <c r="J279" s="35"/>
+      <c r="J279" s="34"/>
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
@@ -6712,7 +6730,7 @@
       <c r="G280" s="5"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
-      <c r="J280" s="35"/>
+      <c r="J280" s="34"/>
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
@@ -6728,7 +6746,7 @@
       <c r="G281" s="5"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
-      <c r="J281" s="35"/>
+      <c r="J281" s="34"/>
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
@@ -6744,7 +6762,7 @@
       <c r="G282" s="5"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
-      <c r="J282" s="35"/>
+      <c r="J282" s="34"/>
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
@@ -6760,7 +6778,7 @@
       <c r="G283" s="5"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
-      <c r="J283" s="35"/>
+      <c r="J283" s="34"/>
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
@@ -6776,7 +6794,7 @@
       <c r="G284" s="5"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
-      <c r="J284" s="35"/>
+      <c r="J284" s="34"/>
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
@@ -6792,7 +6810,7 @@
       <c r="G285" s="5"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
-      <c r="J285" s="35"/>
+      <c r="J285" s="34"/>
       <c r="K285" s="5"/>
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
@@ -6808,7 +6826,7 @@
       <c r="G286" s="5"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
-      <c r="J286" s="35"/>
+      <c r="J286" s="34"/>
       <c r="K286" s="5"/>
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
@@ -6824,7 +6842,7 @@
       <c r="G287" s="5"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
-      <c r="J287" s="35"/>
+      <c r="J287" s="34"/>
       <c r="K287" s="5"/>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
@@ -6840,7 +6858,7 @@
       <c r="G288" s="5"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
-      <c r="J288" s="35"/>
+      <c r="J288" s="34"/>
       <c r="K288" s="5"/>
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
@@ -6856,7 +6874,7 @@
       <c r="G289" s="5"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
-      <c r="J289" s="35"/>
+      <c r="J289" s="34"/>
       <c r="K289" s="5"/>
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
@@ -6872,7 +6890,7 @@
       <c r="G290" s="5"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
-      <c r="J290" s="35"/>
+      <c r="J290" s="34"/>
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
@@ -6888,7 +6906,7 @@
       <c r="G291" s="5"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
-      <c r="J291" s="35"/>
+      <c r="J291" s="34"/>
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
@@ -6904,7 +6922,7 @@
       <c r="G292" s="5"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
-      <c r="J292" s="35"/>
+      <c r="J292" s="34"/>
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
@@ -6920,7 +6938,7 @@
       <c r="G293" s="5"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
-      <c r="J293" s="35"/>
+      <c r="J293" s="34"/>
       <c r="K293" s="5"/>
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
@@ -6936,7 +6954,7 @@
       <c r="G294" s="5"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
-      <c r="J294" s="35"/>
+      <c r="J294" s="34"/>
       <c r="K294" s="5"/>
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
@@ -6952,7 +6970,7 @@
       <c r="G295" s="5"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
-      <c r="J295" s="35"/>
+      <c r="J295" s="34"/>
       <c r="K295" s="5"/>
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
@@ -6968,7 +6986,7 @@
       <c r="G296" s="5"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
-      <c r="J296" s="35"/>
+      <c r="J296" s="34"/>
       <c r="K296" s="5"/>
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
@@ -6984,7 +7002,7 @@
       <c r="G297" s="5"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
-      <c r="J297" s="35"/>
+      <c r="J297" s="34"/>
       <c r="K297" s="5"/>
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
@@ -7000,7 +7018,7 @@
       <c r="G298" s="5"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
-      <c r="J298" s="35"/>
+      <c r="J298" s="34"/>
       <c r="K298" s="5"/>
       <c r="L298" s="5"/>
       <c r="M298" s="5"/>
@@ -7016,7 +7034,7 @@
       <c r="G299" s="5"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
-      <c r="J299" s="35"/>
+      <c r="J299" s="34"/>
       <c r="K299" s="5"/>
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
@@ -7032,7 +7050,7 @@
       <c r="G300" s="5"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
-      <c r="J300" s="35"/>
+      <c r="J300" s="34"/>
       <c r="K300" s="5"/>
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
@@ -7048,7 +7066,7 @@
       <c r="G301" s="5"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
-      <c r="J301" s="35"/>
+      <c r="J301" s="34"/>
       <c r="K301" s="5"/>
       <c r="L301" s="5"/>
       <c r="M301" s="5"/>
@@ -7064,7 +7082,7 @@
       <c r="G302" s="5"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
-      <c r="J302" s="35"/>
+      <c r="J302" s="34"/>
       <c r="K302" s="5"/>
       <c r="L302" s="5"/>
       <c r="M302" s="5"/>
@@ -7080,7 +7098,7 @@
       <c r="G303" s="5"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
-      <c r="J303" s="35"/>
+      <c r="J303" s="34"/>
       <c r="K303" s="5"/>
       <c r="L303" s="5"/>
       <c r="M303" s="5"/>
@@ -7096,7 +7114,7 @@
       <c r="G304" s="5"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
-      <c r="J304" s="35"/>
+      <c r="J304" s="34"/>
       <c r="K304" s="5"/>
       <c r="L304" s="5"/>
       <c r="M304" s="5"/>
@@ -7112,7 +7130,7 @@
       <c r="G305" s="5"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
-      <c r="J305" s="35"/>
+      <c r="J305" s="34"/>
       <c r="K305" s="5"/>
       <c r="L305" s="5"/>
       <c r="M305" s="5"/>
@@ -7128,7 +7146,7 @@
       <c r="G306" s="5"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
-      <c r="J306" s="35"/>
+      <c r="J306" s="34"/>
       <c r="K306" s="5"/>
       <c r="L306" s="5"/>
       <c r="M306" s="5"/>
@@ -7144,7 +7162,7 @@
       <c r="G307" s="5"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
-      <c r="J307" s="35"/>
+      <c r="J307" s="34"/>
       <c r="K307" s="5"/>
       <c r="L307" s="5"/>
       <c r="M307" s="5"/>
@@ -7160,7 +7178,7 @@
       <c r="G308" s="5"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
-      <c r="J308" s="35"/>
+      <c r="J308" s="34"/>
       <c r="K308" s="5"/>
       <c r="L308" s="5"/>
       <c r="M308" s="5"/>
@@ -7176,7 +7194,7 @@
       <c r="G309" s="5"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
-      <c r="J309" s="35"/>
+      <c r="J309" s="34"/>
       <c r="K309" s="5"/>
       <c r="L309" s="5"/>
       <c r="M309" s="5"/>
@@ -7192,7 +7210,7 @@
       <c r="G310" s="5"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
-      <c r="J310" s="35"/>
+      <c r="J310" s="34"/>
       <c r="K310" s="5"/>
       <c r="L310" s="5"/>
       <c r="M310" s="5"/>
@@ -7208,7 +7226,7 @@
       <c r="G311" s="5"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
-      <c r="J311" s="35"/>
+      <c r="J311" s="34"/>
       <c r="K311" s="5"/>
       <c r="L311" s="5"/>
       <c r="M311" s="5"/>
@@ -7224,7 +7242,7 @@
       <c r="G312" s="5"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
-      <c r="J312" s="35"/>
+      <c r="J312" s="34"/>
       <c r="K312" s="5"/>
       <c r="L312" s="5"/>
       <c r="M312" s="5"/>
@@ -7240,7 +7258,7 @@
       <c r="G313" s="5"/>
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
-      <c r="J313" s="35"/>
+      <c r="J313" s="34"/>
       <c r="K313" s="5"/>
       <c r="L313" s="5"/>
       <c r="M313" s="5"/>
@@ -7256,7 +7274,7 @@
       <c r="G314" s="5"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
-      <c r="J314" s="35"/>
+      <c r="J314" s="34"/>
       <c r="K314" s="5"/>
       <c r="L314" s="5"/>
       <c r="M314" s="5"/>
@@ -7272,7 +7290,7 @@
       <c r="G315" s="5"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
-      <c r="J315" s="35"/>
+      <c r="J315" s="34"/>
       <c r="K315" s="5"/>
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
@@ -7288,7 +7306,7 @@
       <c r="G316" s="5"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
-      <c r="J316" s="35"/>
+      <c r="J316" s="34"/>
       <c r="K316" s="5"/>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
@@ -7304,7 +7322,7 @@
       <c r="G317" s="5"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
-      <c r="J317" s="35"/>
+      <c r="J317" s="34"/>
       <c r="K317" s="5"/>
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
@@ -7320,7 +7338,7 @@
       <c r="G318" s="5"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
-      <c r="J318" s="35"/>
+      <c r="J318" s="34"/>
       <c r="K318" s="5"/>
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
@@ -7336,7 +7354,7 @@
       <c r="G319" s="5"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
-      <c r="J319" s="35"/>
+      <c r="J319" s="34"/>
       <c r="K319" s="5"/>
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
@@ -7352,7 +7370,7 @@
       <c r="G320" s="5"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
-      <c r="J320" s="35"/>
+      <c r="J320" s="34"/>
       <c r="K320" s="5"/>
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
@@ -7368,7 +7386,7 @@
       <c r="G321" s="5"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
-      <c r="J321" s="35"/>
+      <c r="J321" s="34"/>
       <c r="K321" s="5"/>
       <c r="L321" s="5"/>
       <c r="M321" s="5"/>
@@ -7384,7 +7402,7 @@
       <c r="G322" s="5"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
-      <c r="J322" s="35"/>
+      <c r="J322" s="34"/>
       <c r="K322" s="5"/>
       <c r="L322" s="5"/>
       <c r="M322" s="5"/>
@@ -7400,7 +7418,7 @@
       <c r="G323" s="5"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
-      <c r="J323" s="35"/>
+      <c r="J323" s="34"/>
       <c r="K323" s="5"/>
       <c r="L323" s="5"/>
       <c r="M323" s="5"/>
@@ -7416,7 +7434,7 @@
       <c r="G324" s="5"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
-      <c r="J324" s="35"/>
+      <c r="J324" s="34"/>
       <c r="K324" s="5"/>
       <c r="L324" s="5"/>
       <c r="M324" s="5"/>
@@ -7432,7 +7450,7 @@
       <c r="G325" s="5"/>
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
-      <c r="J325" s="35"/>
+      <c r="J325" s="34"/>
       <c r="K325" s="5"/>
       <c r="L325" s="5"/>
       <c r="M325" s="5"/>
@@ -7448,7 +7466,7 @@
       <c r="G326" s="5"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
-      <c r="J326" s="35"/>
+      <c r="J326" s="34"/>
       <c r="K326" s="5"/>
       <c r="L326" s="5"/>
       <c r="M326" s="5"/>
@@ -7464,7 +7482,7 @@
       <c r="G327" s="5"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
-      <c r="J327" s="35"/>
+      <c r="J327" s="34"/>
       <c r="K327" s="5"/>
       <c r="L327" s="5"/>
       <c r="M327" s="5"/>
@@ -7480,7 +7498,7 @@
       <c r="G328" s="5"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
-      <c r="J328" s="35"/>
+      <c r="J328" s="34"/>
       <c r="K328" s="5"/>
       <c r="L328" s="5"/>
       <c r="M328" s="5"/>
@@ -7496,7 +7514,7 @@
       <c r="G329" s="5"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
-      <c r="J329" s="35"/>
+      <c r="J329" s="34"/>
       <c r="K329" s="5"/>
       <c r="L329" s="5"/>
       <c r="M329" s="5"/>
@@ -7512,7 +7530,7 @@
       <c r="G330" s="5"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
-      <c r="J330" s="35"/>
+      <c r="J330" s="34"/>
       <c r="K330" s="5"/>
       <c r="L330" s="5"/>
       <c r="M330" s="5"/>
@@ -7528,7 +7546,7 @@
       <c r="G331" s="5"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
-      <c r="J331" s="35"/>
+      <c r="J331" s="34"/>
       <c r="K331" s="5"/>
       <c r="L331" s="5"/>
       <c r="M331" s="5"/>
@@ -7544,7 +7562,7 @@
       <c r="G332" s="5"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
-      <c r="J332" s="35"/>
+      <c r="J332" s="34"/>
       <c r="K332" s="5"/>
       <c r="L332" s="5"/>
       <c r="M332" s="5"/>
@@ -7560,7 +7578,7 @@
       <c r="G333" s="5"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
-      <c r="J333" s="35"/>
+      <c r="J333" s="34"/>
       <c r="K333" s="5"/>
       <c r="L333" s="5"/>
       <c r="M333" s="5"/>
@@ -7576,7 +7594,7 @@
       <c r="G334" s="5"/>
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
-      <c r="J334" s="35"/>
+      <c r="J334" s="34"/>
       <c r="K334" s="5"/>
       <c r="L334" s="5"/>
       <c r="M334" s="5"/>
@@ -7592,7 +7610,7 @@
       <c r="G335" s="5"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
-      <c r="J335" s="35"/>
+      <c r="J335" s="34"/>
       <c r="K335" s="5"/>
       <c r="L335" s="5"/>
       <c r="M335" s="5"/>
@@ -7608,7 +7626,7 @@
       <c r="G336" s="5"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
-      <c r="J336" s="35"/>
+      <c r="J336" s="34"/>
       <c r="K336" s="5"/>
       <c r="L336" s="5"/>
       <c r="M336" s="5"/>
@@ -7624,7 +7642,7 @@
       <c r="G337" s="5"/>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
-      <c r="J337" s="35"/>
+      <c r="J337" s="34"/>
       <c r="K337" s="5"/>
       <c r="L337" s="5"/>
       <c r="M337" s="5"/>
@@ -7640,7 +7658,7 @@
       <c r="G338" s="5"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
-      <c r="J338" s="35"/>
+      <c r="J338" s="34"/>
       <c r="K338" s="5"/>
       <c r="L338" s="5"/>
       <c r="M338" s="5"/>
@@ -7656,7 +7674,7 @@
       <c r="G339" s="5"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
-      <c r="J339" s="35"/>
+      <c r="J339" s="34"/>
       <c r="K339" s="5"/>
       <c r="L339" s="5"/>
       <c r="M339" s="5"/>
@@ -7672,7 +7690,7 @@
       <c r="G340" s="5"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
-      <c r="J340" s="35"/>
+      <c r="J340" s="34"/>
       <c r="K340" s="5"/>
       <c r="L340" s="5"/>
       <c r="M340" s="5"/>
@@ -7688,7 +7706,7 @@
       <c r="G341" s="5"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
-      <c r="J341" s="35"/>
+      <c r="J341" s="34"/>
       <c r="K341" s="5"/>
       <c r="L341" s="5"/>
       <c r="M341" s="5"/>
@@ -7704,7 +7722,7 @@
       <c r="G342" s="5"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
-      <c r="J342" s="35"/>
+      <c r="J342" s="34"/>
       <c r="K342" s="5"/>
       <c r="L342" s="5"/>
       <c r="M342" s="5"/>
@@ -7720,7 +7738,7 @@
       <c r="G343" s="5"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
-      <c r="J343" s="35"/>
+      <c r="J343" s="34"/>
       <c r="K343" s="5"/>
       <c r="L343" s="5"/>
       <c r="M343" s="5"/>
@@ -7736,7 +7754,7 @@
       <c r="G344" s="5"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
-      <c r="J344" s="35"/>
+      <c r="J344" s="34"/>
       <c r="K344" s="5"/>
       <c r="L344" s="5"/>
       <c r="M344" s="5"/>
@@ -7752,7 +7770,7 @@
       <c r="G345" s="5"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
-      <c r="J345" s="35"/>
+      <c r="J345" s="34"/>
       <c r="K345" s="5"/>
       <c r="L345" s="5"/>
       <c r="M345" s="5"/>
@@ -7768,7 +7786,7 @@
       <c r="G346" s="5"/>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
-      <c r="J346" s="35"/>
+      <c r="J346" s="34"/>
       <c r="K346" s="5"/>
       <c r="L346" s="5"/>
       <c r="M346" s="5"/>
@@ -7784,7 +7802,7 @@
       <c r="G347" s="5"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
-      <c r="J347" s="35"/>
+      <c r="J347" s="34"/>
       <c r="K347" s="5"/>
       <c r="L347" s="5"/>
       <c r="M347" s="5"/>
@@ -7800,7 +7818,7 @@
       <c r="G348" s="5"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
-      <c r="J348" s="35"/>
+      <c r="J348" s="34"/>
       <c r="K348" s="5"/>
       <c r="L348" s="5"/>
       <c r="M348" s="5"/>
@@ -7816,7 +7834,7 @@
       <c r="G349" s="5"/>
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
-      <c r="J349" s="35"/>
+      <c r="J349" s="34"/>
       <c r="K349" s="5"/>
       <c r="L349" s="5"/>
       <c r="M349" s="5"/>
@@ -7832,7 +7850,7 @@
       <c r="G350" s="5"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
-      <c r="J350" s="35"/>
+      <c r="J350" s="34"/>
       <c r="K350" s="5"/>
       <c r="L350" s="5"/>
       <c r="M350" s="5"/>
@@ -7848,7 +7866,7 @@
       <c r="G351" s="5"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
-      <c r="J351" s="35"/>
+      <c r="J351" s="34"/>
       <c r="K351" s="5"/>
       <c r="L351" s="5"/>
       <c r="M351" s="5"/>
@@ -7864,7 +7882,7 @@
       <c r="G352" s="5"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
-      <c r="J352" s="35"/>
+      <c r="J352" s="34"/>
       <c r="K352" s="5"/>
       <c r="L352" s="5"/>
       <c r="M352" s="5"/>
@@ -7880,7 +7898,7 @@
       <c r="G353" s="5"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
-      <c r="J353" s="35"/>
+      <c r="J353" s="34"/>
       <c r="K353" s="5"/>
       <c r="L353" s="5"/>
       <c r="M353" s="5"/>
@@ -7896,7 +7914,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
-      <c r="J354" s="35"/>
+      <c r="J354" s="34"/>
       <c r="K354" s="5"/>
       <c r="L354" s="5"/>
       <c r="M354" s="5"/>
@@ -7912,7 +7930,7 @@
       <c r="G355" s="5"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
-      <c r="J355" s="35"/>
+      <c r="J355" s="34"/>
       <c r="K355" s="5"/>
       <c r="L355" s="5"/>
       <c r="M355" s="5"/>
@@ -7928,7 +7946,7 @@
       <c r="G356" s="5"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
-      <c r="J356" s="35"/>
+      <c r="J356" s="34"/>
       <c r="K356" s="5"/>
       <c r="L356" s="5"/>
       <c r="M356" s="5"/>
@@ -7944,7 +7962,7 @@
       <c r="G357" s="5"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
-      <c r="J357" s="35"/>
+      <c r="J357" s="34"/>
       <c r="K357" s="5"/>
       <c r="L357" s="5"/>
       <c r="M357" s="5"/>
@@ -7960,7 +7978,7 @@
       <c r="G358" s="5"/>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
-      <c r="J358" s="35"/>
+      <c r="J358" s="34"/>
       <c r="K358" s="5"/>
       <c r="L358" s="5"/>
       <c r="M358" s="5"/>
@@ -7976,7 +7994,7 @@
       <c r="G359" s="5"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
-      <c r="J359" s="35"/>
+      <c r="J359" s="34"/>
       <c r="K359" s="5"/>
       <c r="L359" s="5"/>
       <c r="M359" s="5"/>
@@ -7992,7 +8010,7 @@
       <c r="G360" s="5"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
-      <c r="J360" s="35"/>
+      <c r="J360" s="34"/>
       <c r="K360" s="5"/>
       <c r="L360" s="5"/>
       <c r="M360" s="5"/>
@@ -8008,7 +8026,7 @@
       <c r="G361" s="5"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
-      <c r="J361" s="35"/>
+      <c r="J361" s="34"/>
       <c r="K361" s="5"/>
       <c r="L361" s="5"/>
       <c r="M361" s="5"/>
@@ -8024,7 +8042,7 @@
       <c r="G362" s="5"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
-      <c r="J362" s="35"/>
+      <c r="J362" s="34"/>
       <c r="K362" s="5"/>
       <c r="L362" s="5"/>
       <c r="M362" s="5"/>
@@ -8040,7 +8058,7 @@
       <c r="G363" s="5"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
-      <c r="J363" s="35"/>
+      <c r="J363" s="34"/>
       <c r="K363" s="5"/>
       <c r="L363" s="5"/>
       <c r="M363" s="5"/>
@@ -8056,7 +8074,7 @@
       <c r="G364" s="5"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
-      <c r="J364" s="35"/>
+      <c r="J364" s="34"/>
       <c r="K364" s="5"/>
       <c r="L364" s="5"/>
       <c r="M364" s="5"/>
@@ -8072,7 +8090,7 @@
       <c r="G365" s="5"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
-      <c r="J365" s="35"/>
+      <c r="J365" s="34"/>
       <c r="K365" s="5"/>
       <c r="L365" s="5"/>
       <c r="M365" s="5"/>
@@ -8088,7 +8106,7 @@
       <c r="G366" s="5"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
-      <c r="J366" s="35"/>
+      <c r="J366" s="34"/>
       <c r="K366" s="5"/>
       <c r="L366" s="5"/>
       <c r="M366" s="5"/>
@@ -8104,7 +8122,7 @@
       <c r="G367" s="5"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
-      <c r="J367" s="35"/>
+      <c r="J367" s="34"/>
       <c r="K367" s="5"/>
       <c r="L367" s="5"/>
       <c r="M367" s="5"/>
@@ -8120,7 +8138,7 @@
       <c r="G368" s="5"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
-      <c r="J368" s="35"/>
+      <c r="J368" s="34"/>
       <c r="K368" s="5"/>
       <c r="L368" s="5"/>
       <c r="M368" s="5"/>
@@ -8136,7 +8154,7 @@
       <c r="G369" s="5"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
-      <c r="J369" s="35"/>
+      <c r="J369" s="34"/>
       <c r="K369" s="5"/>
       <c r="L369" s="5"/>
       <c r="M369" s="5"/>
@@ -8152,7 +8170,7 @@
       <c r="G370" s="5"/>
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
-      <c r="J370" s="35"/>
+      <c r="J370" s="34"/>
       <c r="K370" s="5"/>
       <c r="L370" s="5"/>
       <c r="M370" s="5"/>
@@ -8168,7 +8186,7 @@
       <c r="G371" s="5"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
-      <c r="J371" s="35"/>
+      <c r="J371" s="34"/>
       <c r="K371" s="5"/>
       <c r="L371" s="5"/>
       <c r="M371" s="5"/>
@@ -8184,7 +8202,7 @@
       <c r="G372" s="5"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
-      <c r="J372" s="35"/>
+      <c r="J372" s="34"/>
       <c r="K372" s="5"/>
       <c r="L372" s="5"/>
       <c r="M372" s="5"/>
@@ -8200,7 +8218,7 @@
       <c r="G373" s="5"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
-      <c r="J373" s="35"/>
+      <c r="J373" s="34"/>
       <c r="K373" s="5"/>
       <c r="L373" s="5"/>
       <c r="M373" s="5"/>
@@ -8216,7 +8234,7 @@
       <c r="G374" s="5"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
-      <c r="J374" s="35"/>
+      <c r="J374" s="34"/>
       <c r="K374" s="5"/>
       <c r="L374" s="5"/>
       <c r="M374" s="5"/>
@@ -8232,7 +8250,7 @@
       <c r="G375" s="5"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
-      <c r="J375" s="35"/>
+      <c r="J375" s="34"/>
       <c r="K375" s="5"/>
       <c r="L375" s="5"/>
       <c r="M375" s="5"/>
@@ -8248,7 +8266,7 @@
       <c r="G376" s="5"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
-      <c r="J376" s="35"/>
+      <c r="J376" s="34"/>
       <c r="K376" s="5"/>
       <c r="L376" s="5"/>
       <c r="M376" s="5"/>
@@ -8264,7 +8282,7 @@
       <c r="G377" s="5"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
-      <c r="J377" s="35"/>
+      <c r="J377" s="34"/>
       <c r="K377" s="5"/>
       <c r="L377" s="5"/>
       <c r="M377" s="5"/>
@@ -8280,7 +8298,7 @@
       <c r="G378" s="5"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
-      <c r="J378" s="35"/>
+      <c r="J378" s="34"/>
       <c r="K378" s="5"/>
       <c r="L378" s="5"/>
       <c r="M378" s="5"/>
@@ -8296,7 +8314,7 @@
       <c r="G379" s="5"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
-      <c r="J379" s="35"/>
+      <c r="J379" s="34"/>
       <c r="K379" s="5"/>
       <c r="L379" s="5"/>
       <c r="M379" s="5"/>
@@ -8312,7 +8330,7 @@
       <c r="G380" s="5"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
-      <c r="J380" s="35"/>
+      <c r="J380" s="34"/>
       <c r="K380" s="5"/>
       <c r="L380" s="5"/>
       <c r="M380" s="5"/>
@@ -8328,7 +8346,7 @@
       <c r="G381" s="5"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
-      <c r="J381" s="35"/>
+      <c r="J381" s="34"/>
       <c r="K381" s="5"/>
       <c r="L381" s="5"/>
       <c r="M381" s="5"/>
@@ -8344,7 +8362,7 @@
       <c r="G382" s="5"/>
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
-      <c r="J382" s="35"/>
+      <c r="J382" s="34"/>
       <c r="K382" s="5"/>
       <c r="L382" s="5"/>
       <c r="M382" s="5"/>
@@ -8360,7 +8378,7 @@
       <c r="G383" s="5"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
-      <c r="J383" s="35"/>
+      <c r="J383" s="34"/>
       <c r="K383" s="5"/>
       <c r="L383" s="5"/>
       <c r="M383" s="5"/>
@@ -8376,7 +8394,7 @@
       <c r="G384" s="5"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
-      <c r="J384" s="35"/>
+      <c r="J384" s="34"/>
       <c r="K384" s="5"/>
       <c r="L384" s="5"/>
       <c r="M384" s="5"/>
@@ -8392,7 +8410,7 @@
       <c r="G385" s="5"/>
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
-      <c r="J385" s="35"/>
+      <c r="J385" s="34"/>
       <c r="K385" s="5"/>
       <c r="L385" s="5"/>
       <c r="M385" s="5"/>
@@ -8408,7 +8426,7 @@
       <c r="G386" s="5"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
-      <c r="J386" s="35"/>
+      <c r="J386" s="34"/>
       <c r="K386" s="5"/>
       <c r="L386" s="5"/>
       <c r="M386" s="5"/>
@@ -8424,7 +8442,7 @@
       <c r="G387" s="5"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
-      <c r="J387" s="35"/>
+      <c r="J387" s="34"/>
       <c r="K387" s="5"/>
       <c r="L387" s="5"/>
       <c r="M387" s="5"/>
@@ -8440,7 +8458,7 @@
       <c r="G388" s="5"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
-      <c r="J388" s="35"/>
+      <c r="J388" s="34"/>
       <c r="K388" s="5"/>
       <c r="L388" s="5"/>
       <c r="M388" s="5"/>
@@ -8456,7 +8474,7 @@
       <c r="G389" s="5"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
-      <c r="J389" s="35"/>
+      <c r="J389" s="34"/>
       <c r="K389" s="5"/>
       <c r="L389" s="5"/>
       <c r="M389" s="5"/>
@@ -8472,7 +8490,7 @@
       <c r="G390" s="5"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
-      <c r="J390" s="35"/>
+      <c r="J390" s="34"/>
       <c r="K390" s="5"/>
       <c r="L390" s="5"/>
       <c r="M390" s="5"/>
@@ -8488,7 +8506,7 @@
       <c r="G391" s="5"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
-      <c r="J391" s="35"/>
+      <c r="J391" s="34"/>
       <c r="K391" s="5"/>
       <c r="L391" s="5"/>
       <c r="M391" s="5"/>
@@ -8504,7 +8522,7 @@
       <c r="G392" s="5"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
-      <c r="J392" s="35"/>
+      <c r="J392" s="34"/>
       <c r="K392" s="5"/>
       <c r="L392" s="5"/>
       <c r="M392" s="5"/>
@@ -8520,7 +8538,7 @@
       <c r="G393" s="5"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
-      <c r="J393" s="35"/>
+      <c r="J393" s="34"/>
       <c r="K393" s="5"/>
       <c r="L393" s="5"/>
       <c r="M393" s="5"/>
@@ -8536,7 +8554,7 @@
       <c r="G394" s="5"/>
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
-      <c r="J394" s="35"/>
+      <c r="J394" s="34"/>
       <c r="K394" s="5"/>
       <c r="L394" s="5"/>
       <c r="M394" s="5"/>
@@ -8552,7 +8570,7 @@
       <c r="G395" s="5"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
-      <c r="J395" s="35"/>
+      <c r="J395" s="34"/>
       <c r="K395" s="5"/>
       <c r="L395" s="5"/>
       <c r="M395" s="5"/>
@@ -8568,7 +8586,7 @@
       <c r="G396" s="5"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
-      <c r="J396" s="35"/>
+      <c r="J396" s="34"/>
       <c r="K396" s="5"/>
       <c r="L396" s="5"/>
       <c r="M396" s="5"/>
@@ -8584,7 +8602,7 @@
       <c r="G397" s="5"/>
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
-      <c r="J397" s="35"/>
+      <c r="J397" s="34"/>
       <c r="K397" s="5"/>
       <c r="L397" s="5"/>
       <c r="M397" s="5"/>
@@ -8600,7 +8618,7 @@
       <c r="G398" s="5"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
-      <c r="J398" s="35"/>
+      <c r="J398" s="34"/>
       <c r="K398" s="5"/>
       <c r="L398" s="5"/>
       <c r="M398" s="5"/>
@@ -8616,7 +8634,7 @@
       <c r="G399" s="5"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
-      <c r="J399" s="35"/>
+      <c r="J399" s="34"/>
       <c r="K399" s="5"/>
       <c r="L399" s="5"/>
       <c r="M399" s="5"/>
@@ -8632,7 +8650,7 @@
       <c r="G400" s="5"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
-      <c r="J400" s="35"/>
+      <c r="J400" s="34"/>
       <c r="K400" s="5"/>
       <c r="L400" s="5"/>
       <c r="M400" s="5"/>
@@ -8648,7 +8666,7 @@
       <c r="G401" s="5"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
-      <c r="J401" s="35"/>
+      <c r="J401" s="34"/>
       <c r="K401" s="5"/>
       <c r="L401" s="5"/>
       <c r="M401" s="5"/>
@@ -8664,7 +8682,7 @@
       <c r="G402" s="5"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
-      <c r="J402" s="35"/>
+      <c r="J402" s="34"/>
       <c r="K402" s="5"/>
       <c r="L402" s="5"/>
       <c r="M402" s="5"/>
@@ -8680,7 +8698,7 @@
       <c r="G403" s="5"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
-      <c r="J403" s="35"/>
+      <c r="J403" s="34"/>
       <c r="K403" s="5"/>
       <c r="L403" s="5"/>
       <c r="M403" s="5"/>
@@ -8696,7 +8714,7 @@
       <c r="G404" s="5"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
-      <c r="J404" s="35"/>
+      <c r="J404" s="34"/>
       <c r="K404" s="5"/>
       <c r="L404" s="5"/>
       <c r="M404" s="5"/>
@@ -8712,7 +8730,7 @@
       <c r="G405" s="5"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
-      <c r="J405" s="35"/>
+      <c r="J405" s="34"/>
       <c r="K405" s="5"/>
       <c r="L405" s="5"/>
       <c r="M405" s="5"/>
@@ -8728,7 +8746,7 @@
       <c r="G406" s="5"/>
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
-      <c r="J406" s="35"/>
+      <c r="J406" s="34"/>
       <c r="K406" s="5"/>
       <c r="L406" s="5"/>
       <c r="M406" s="5"/>
@@ -8744,7 +8762,7 @@
       <c r="G407" s="5"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
-      <c r="J407" s="35"/>
+      <c r="J407" s="34"/>
       <c r="K407" s="5"/>
       <c r="L407" s="5"/>
       <c r="M407" s="5"/>
@@ -8760,7 +8778,7 @@
       <c r="G408" s="5"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
-      <c r="J408" s="35"/>
+      <c r="J408" s="34"/>
       <c r="K408" s="5"/>
       <c r="L408" s="5"/>
       <c r="M408" s="5"/>
@@ -8776,7 +8794,7 @@
       <c r="G409" s="5"/>
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
-      <c r="J409" s="35"/>
+      <c r="J409" s="34"/>
       <c r="K409" s="5"/>
       <c r="L409" s="5"/>
       <c r="M409" s="5"/>
@@ -8792,7 +8810,7 @@
       <c r="G410" s="5"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
-      <c r="J410" s="35"/>
+      <c r="J410" s="34"/>
       <c r="K410" s="5"/>
       <c r="L410" s="5"/>
       <c r="M410" s="5"/>
@@ -8808,7 +8826,7 @@
       <c r="G411" s="5"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
-      <c r="J411" s="35"/>
+      <c r="J411" s="34"/>
       <c r="K411" s="5"/>
       <c r="L411" s="5"/>
       <c r="M411" s="5"/>
@@ -8824,7 +8842,7 @@
       <c r="G412" s="5"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
-      <c r="J412" s="35"/>
+      <c r="J412" s="34"/>
       <c r="K412" s="5"/>
       <c r="L412" s="5"/>
       <c r="M412" s="5"/>
@@ -8840,7 +8858,7 @@
       <c r="G413" s="5"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
-      <c r="J413" s="35"/>
+      <c r="J413" s="34"/>
       <c r="K413" s="5"/>
       <c r="L413" s="5"/>
       <c r="M413" s="5"/>
@@ -8856,7 +8874,7 @@
       <c r="G414" s="5"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
-      <c r="J414" s="35"/>
+      <c r="J414" s="34"/>
       <c r="K414" s="5"/>
       <c r="L414" s="5"/>
       <c r="M414" s="5"/>
@@ -8872,7 +8890,7 @@
       <c r="G415" s="5"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
-      <c r="J415" s="35"/>
+      <c r="J415" s="34"/>
       <c r="K415" s="5"/>
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
@@ -8888,7 +8906,7 @@
       <c r="G416" s="5"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
-      <c r="J416" s="35"/>
+      <c r="J416" s="34"/>
       <c r="K416" s="5"/>
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
@@ -8904,7 +8922,7 @@
       <c r="G417" s="5"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
-      <c r="J417" s="35"/>
+      <c r="J417" s="34"/>
       <c r="K417" s="5"/>
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
@@ -8920,7 +8938,7 @@
       <c r="G418" s="5"/>
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
-      <c r="J418" s="35"/>
+      <c r="J418" s="34"/>
       <c r="K418" s="5"/>
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
@@ -8936,7 +8954,7 @@
       <c r="G419" s="5"/>
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
-      <c r="J419" s="35"/>
+      <c r="J419" s="34"/>
       <c r="K419" s="5"/>
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
@@ -8952,7 +8970,7 @@
       <c r="G420" s="5"/>
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
-      <c r="J420" s="35"/>
+      <c r="J420" s="34"/>
       <c r="K420" s="5"/>
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
@@ -8968,7 +8986,7 @@
       <c r="G421" s="5"/>
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
-      <c r="J421" s="35"/>
+      <c r="J421" s="34"/>
       <c r="K421" s="5"/>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
@@ -8984,7 +9002,7 @@
       <c r="G422" s="5"/>
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
-      <c r="J422" s="35"/>
+      <c r="J422" s="34"/>
       <c r="K422" s="5"/>
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
@@ -9000,7 +9018,7 @@
       <c r="G423" s="5"/>
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
-      <c r="J423" s="35"/>
+      <c r="J423" s="34"/>
       <c r="K423" s="5"/>
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
@@ -9016,7 +9034,7 @@
       <c r="G424" s="5"/>
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
-      <c r="J424" s="35"/>
+      <c r="J424" s="34"/>
       <c r="K424" s="5"/>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
@@ -9032,7 +9050,7 @@
       <c r="G425" s="5"/>
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
-      <c r="J425" s="35"/>
+      <c r="J425" s="34"/>
       <c r="K425" s="5"/>
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
@@ -9048,7 +9066,7 @@
       <c r="G426" s="5"/>
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
-      <c r="J426" s="35"/>
+      <c r="J426" s="34"/>
       <c r="K426" s="5"/>
       <c r="L426" s="5"/>
       <c r="M426" s="5"/>
@@ -9064,7 +9082,7 @@
       <c r="G427" s="5"/>
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
-      <c r="J427" s="35"/>
+      <c r="J427" s="34"/>
       <c r="K427" s="5"/>
       <c r="L427" s="5"/>
       <c r="M427" s="5"/>
@@ -9080,7 +9098,7 @@
       <c r="G428" s="5"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
-      <c r="J428" s="35"/>
+      <c r="J428" s="34"/>
       <c r="K428" s="5"/>
       <c r="L428" s="5"/>
       <c r="M428" s="5"/>
@@ -9096,7 +9114,7 @@
       <c r="G429" s="5"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
-      <c r="J429" s="35"/>
+      <c r="J429" s="34"/>
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
       <c r="M429" s="5"/>
@@ -9112,7 +9130,7 @@
       <c r="G430" s="5"/>
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
-      <c r="J430" s="35"/>
+      <c r="J430" s="34"/>
       <c r="K430" s="5"/>
       <c r="L430" s="5"/>
       <c r="M430" s="5"/>
@@ -9128,7 +9146,7 @@
       <c r="G431" s="5"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
-      <c r="J431" s="35"/>
+      <c r="J431" s="34"/>
       <c r="K431" s="5"/>
       <c r="L431" s="5"/>
       <c r="M431" s="5"/>
@@ -9144,7 +9162,7 @@
       <c r="G432" s="5"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
-      <c r="J432" s="35"/>
+      <c r="J432" s="34"/>
       <c r="K432" s="5"/>
       <c r="L432" s="5"/>
       <c r="M432" s="5"/>
@@ -9160,7 +9178,7 @@
       <c r="G433" s="5"/>
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
-      <c r="J433" s="35"/>
+      <c r="J433" s="34"/>
       <c r="K433" s="5"/>
       <c r="L433" s="5"/>
       <c r="M433" s="5"/>
@@ -9176,7 +9194,7 @@
       <c r="G434" s="5"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
-      <c r="J434" s="35"/>
+      <c r="J434" s="34"/>
       <c r="K434" s="5"/>
       <c r="L434" s="5"/>
       <c r="M434" s="5"/>
@@ -9192,7 +9210,7 @@
       <c r="G435" s="5"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
-      <c r="J435" s="35"/>
+      <c r="J435" s="34"/>
       <c r="K435" s="5"/>
       <c r="L435" s="5"/>
       <c r="M435" s="5"/>
@@ -9208,7 +9226,7 @@
       <c r="G436" s="5"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
-      <c r="J436" s="35"/>
+      <c r="J436" s="34"/>
       <c r="K436" s="5"/>
       <c r="L436" s="5"/>
       <c r="M436" s="5"/>
@@ -9224,7 +9242,7 @@
       <c r="G437" s="5"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
-      <c r="J437" s="35"/>
+      <c r="J437" s="34"/>
       <c r="K437" s="5"/>
       <c r="L437" s="5"/>
       <c r="M437" s="5"/>
@@ -9240,7 +9258,7 @@
       <c r="G438" s="5"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
-      <c r="J438" s="35"/>
+      <c r="J438" s="34"/>
       <c r="K438" s="5"/>
       <c r="L438" s="5"/>
       <c r="M438" s="5"/>
@@ -9256,7 +9274,7 @@
       <c r="G439" s="5"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
-      <c r="J439" s="35"/>
+      <c r="J439" s="34"/>
       <c r="K439" s="5"/>
       <c r="L439" s="5"/>
       <c r="M439" s="5"/>
@@ -9272,7 +9290,7 @@
       <c r="G440" s="5"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
-      <c r="J440" s="35"/>
+      <c r="J440" s="34"/>
       <c r="K440" s="5"/>
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
@@ -9288,7 +9306,7 @@
       <c r="G441" s="5"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
-      <c r="J441" s="35"/>
+      <c r="J441" s="34"/>
       <c r="K441" s="5"/>
       <c r="L441" s="5"/>
       <c r="M441" s="5"/>
@@ -9304,7 +9322,7 @@
       <c r="G442" s="5"/>
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
-      <c r="J442" s="35"/>
+      <c r="J442" s="34"/>
       <c r="K442" s="5"/>
       <c r="L442" s="5"/>
       <c r="M442" s="5"/>
@@ -9320,7 +9338,7 @@
       <c r="G443" s="5"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
-      <c r="J443" s="35"/>
+      <c r="J443" s="34"/>
       <c r="K443" s="5"/>
       <c r="L443" s="5"/>
       <c r="M443" s="5"/>
@@ -9336,7 +9354,7 @@
       <c r="G444" s="5"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
-      <c r="J444" s="35"/>
+      <c r="J444" s="34"/>
       <c r="K444" s="5"/>
       <c r="L444" s="5"/>
       <c r="M444" s="5"/>
@@ -9352,7 +9370,7 @@
       <c r="G445" s="5"/>
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
-      <c r="J445" s="35"/>
+      <c r="J445" s="34"/>
       <c r="K445" s="5"/>
       <c r="L445" s="5"/>
       <c r="M445" s="5"/>
@@ -9368,7 +9386,7 @@
       <c r="G446" s="5"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
-      <c r="J446" s="35"/>
+      <c r="J446" s="34"/>
       <c r="K446" s="5"/>
       <c r="L446" s="5"/>
       <c r="M446" s="5"/>
@@ -9384,7 +9402,7 @@
       <c r="G447" s="5"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
-      <c r="J447" s="35"/>
+      <c r="J447" s="34"/>
       <c r="K447" s="5"/>
       <c r="L447" s="5"/>
       <c r="M447" s="5"/>
@@ -9400,7 +9418,7 @@
       <c r="G448" s="5"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
-      <c r="J448" s="35"/>
+      <c r="J448" s="34"/>
       <c r="K448" s="5"/>
       <c r="L448" s="5"/>
       <c r="M448" s="5"/>
@@ -9416,7 +9434,7 @@
       <c r="G449" s="5"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
-      <c r="J449" s="35"/>
+      <c r="J449" s="34"/>
       <c r="K449" s="5"/>
       <c r="L449" s="5"/>
       <c r="M449" s="5"/>
@@ -9432,7 +9450,7 @@
       <c r="G450" s="5"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
-      <c r="J450" s="35"/>
+      <c r="J450" s="34"/>
       <c r="K450" s="5"/>
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
@@ -9448,7 +9466,7 @@
       <c r="G451" s="5"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
-      <c r="J451" s="35"/>
+      <c r="J451" s="34"/>
       <c r="K451" s="5"/>
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
@@ -9464,7 +9482,7 @@
       <c r="G452" s="5"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
-      <c r="J452" s="35"/>
+      <c r="J452" s="34"/>
       <c r="K452" s="5"/>
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
@@ -9480,7 +9498,7 @@
       <c r="G453" s="5"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
-      <c r="J453" s="35"/>
+      <c r="J453" s="34"/>
       <c r="K453" s="5"/>
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
@@ -9496,7 +9514,7 @@
       <c r="G454" s="5"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
-      <c r="J454" s="35"/>
+      <c r="J454" s="34"/>
       <c r="K454" s="5"/>
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
@@ -9512,7 +9530,7 @@
       <c r="G455" s="5"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
-      <c r="J455" s="35"/>
+      <c r="J455" s="34"/>
       <c r="K455" s="5"/>
       <c r="L455" s="5"/>
       <c r="M455" s="5"/>
@@ -9528,7 +9546,7 @@
       <c r="G456" s="5"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
-      <c r="J456" s="35"/>
+      <c r="J456" s="34"/>
       <c r="K456" s="5"/>
       <c r="L456" s="5"/>
       <c r="M456" s="5"/>
@@ -9544,7 +9562,7 @@
       <c r="G457" s="5"/>
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
-      <c r="J457" s="35"/>
+      <c r="J457" s="34"/>
       <c r="K457" s="5"/>
       <c r="L457" s="5"/>
       <c r="M457" s="5"/>
@@ -9560,7 +9578,7 @@
       <c r="G458" s="5"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
-      <c r="J458" s="35"/>
+      <c r="J458" s="34"/>
       <c r="K458" s="5"/>
       <c r="L458" s="5"/>
       <c r="M458" s="5"/>
@@ -9576,7 +9594,7 @@
       <c r="G459" s="5"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
-      <c r="J459" s="35"/>
+      <c r="J459" s="34"/>
       <c r="K459" s="5"/>
       <c r="L459" s="5"/>
       <c r="M459" s="5"/>
@@ -9592,7 +9610,7 @@
       <c r="G460" s="5"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
-      <c r="J460" s="35"/>
+      <c r="J460" s="34"/>
       <c r="K460" s="5"/>
       <c r="L460" s="5"/>
       <c r="M460" s="5"/>
@@ -9608,7 +9626,7 @@
       <c r="G461" s="5"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
-      <c r="J461" s="35"/>
+      <c r="J461" s="34"/>
       <c r="K461" s="5"/>
       <c r="L461" s="5"/>
       <c r="M461" s="5"/>
@@ -9624,7 +9642,7 @@
       <c r="G462" s="5"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
-      <c r="J462" s="35"/>
+      <c r="J462" s="34"/>
       <c r="K462" s="5"/>
       <c r="L462" s="5"/>
       <c r="M462" s="5"/>
@@ -9640,7 +9658,7 @@
       <c r="G463" s="5"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
-      <c r="J463" s="35"/>
+      <c r="J463" s="34"/>
       <c r="K463" s="5"/>
       <c r="L463" s="5"/>
       <c r="M463" s="5"/>
@@ -9656,7 +9674,7 @@
       <c r="G464" s="5"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
-      <c r="J464" s="35"/>
+      <c r="J464" s="34"/>
       <c r="K464" s="5"/>
       <c r="L464" s="5"/>
       <c r="M464" s="5"/>
@@ -9672,7 +9690,7 @@
       <c r="G465" s="5"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
-      <c r="J465" s="35"/>
+      <c r="J465" s="34"/>
       <c r="K465" s="5"/>
       <c r="L465" s="5"/>
       <c r="M465" s="5"/>
@@ -9688,7 +9706,7 @@
       <c r="G466" s="5"/>
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
-      <c r="J466" s="35"/>
+      <c r="J466" s="34"/>
       <c r="K466" s="5"/>
       <c r="L466" s="5"/>
       <c r="M466" s="5"/>
@@ -9704,7 +9722,7 @@
       <c r="G467" s="5"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
-      <c r="J467" s="35"/>
+      <c r="J467" s="34"/>
       <c r="K467" s="5"/>
       <c r="L467" s="5"/>
       <c r="M467" s="5"/>
@@ -9720,7 +9738,7 @@
       <c r="G468" s="5"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
-      <c r="J468" s="35"/>
+      <c r="J468" s="34"/>
       <c r="K468" s="5"/>
       <c r="L468" s="5"/>
       <c r="M468" s="5"/>
@@ -9736,7 +9754,7 @@
       <c r="G469" s="5"/>
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
-      <c r="J469" s="35"/>
+      <c r="J469" s="34"/>
       <c r="K469" s="5"/>
       <c r="L469" s="5"/>
       <c r="M469" s="5"/>
@@ -9752,7 +9770,7 @@
       <c r="G470" s="5"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
-      <c r="J470" s="35"/>
+      <c r="J470" s="34"/>
       <c r="K470" s="5"/>
       <c r="L470" s="5"/>
       <c r="M470" s="5"/>
@@ -9768,7 +9786,7 @@
       <c r="G471" s="5"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
-      <c r="J471" s="35"/>
+      <c r="J471" s="34"/>
       <c r="K471" s="5"/>
       <c r="L471" s="5"/>
       <c r="M471" s="5"/>
@@ -9784,7 +9802,7 @@
       <c r="G472" s="5"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
-      <c r="J472" s="35"/>
+      <c r="J472" s="34"/>
       <c r="K472" s="5"/>
       <c r="L472" s="5"/>
       <c r="M472" s="5"/>
@@ -9800,7 +9818,7 @@
       <c r="G473" s="5"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
-      <c r="J473" s="35"/>
+      <c r="J473" s="34"/>
       <c r="K473" s="5"/>
       <c r="L473" s="5"/>
       <c r="M473" s="5"/>
@@ -9816,7 +9834,7 @@
       <c r="G474" s="5"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
-      <c r="J474" s="35"/>
+      <c r="J474" s="34"/>
       <c r="K474" s="5"/>
       <c r="L474" s="5"/>
       <c r="M474" s="5"/>
@@ -9832,7 +9850,7 @@
       <c r="G475" s="5"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
-      <c r="J475" s="35"/>
+      <c r="J475" s="34"/>
       <c r="K475" s="5"/>
       <c r="L475" s="5"/>
       <c r="M475" s="5"/>
@@ -9848,7 +9866,7 @@
       <c r="G476" s="5"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
-      <c r="J476" s="35"/>
+      <c r="J476" s="34"/>
       <c r="K476" s="5"/>
       <c r="L476" s="5"/>
       <c r="M476" s="5"/>
@@ -9864,7 +9882,7 @@
       <c r="G477" s="5"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
-      <c r="J477" s="35"/>
+      <c r="J477" s="34"/>
       <c r="K477" s="5"/>
       <c r="L477" s="5"/>
       <c r="M477" s="5"/>
@@ -9880,7 +9898,7 @@
       <c r="G478" s="5"/>
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
-      <c r="J478" s="35"/>
+      <c r="J478" s="34"/>
       <c r="K478" s="5"/>
       <c r="L478" s="5"/>
       <c r="M478" s="5"/>
@@ -9896,7 +9914,7 @@
       <c r="G479" s="5"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
-      <c r="J479" s="35"/>
+      <c r="J479" s="34"/>
       <c r="K479" s="5"/>
       <c r="L479" s="5"/>
       <c r="M479" s="5"/>
@@ -9912,7 +9930,7 @@
       <c r="G480" s="5"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
-      <c r="J480" s="35"/>
+      <c r="J480" s="34"/>
       <c r="K480" s="5"/>
       <c r="L480" s="5"/>
       <c r="M480" s="5"/>
@@ -9928,7 +9946,7 @@
       <c r="G481" s="5"/>
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
-      <c r="J481" s="35"/>
+      <c r="J481" s="34"/>
       <c r="K481" s="5"/>
       <c r="L481" s="5"/>
       <c r="M481" s="5"/>
@@ -9944,7 +9962,7 @@
       <c r="G482" s="5"/>
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
-      <c r="J482" s="35"/>
+      <c r="J482" s="34"/>
       <c r="K482" s="5"/>
       <c r="L482" s="5"/>
       <c r="M482" s="5"/>
@@ -9960,7 +9978,7 @@
       <c r="G483" s="5"/>
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
-      <c r="J483" s="35"/>
+      <c r="J483" s="34"/>
       <c r="K483" s="5"/>
       <c r="L483" s="5"/>
       <c r="M483" s="5"/>
@@ -9976,7 +9994,7 @@
       <c r="G484" s="5"/>
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
-      <c r="J484" s="35"/>
+      <c r="J484" s="34"/>
       <c r="K484" s="5"/>
       <c r="L484" s="5"/>
       <c r="M484" s="5"/>
@@ -9992,7 +10010,7 @@
       <c r="G485" s="5"/>
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
-      <c r="J485" s="35"/>
+      <c r="J485" s="34"/>
       <c r="K485" s="5"/>
       <c r="L485" s="5"/>
       <c r="M485" s="5"/>
@@ -10008,7 +10026,7 @@
       <c r="G486" s="5"/>
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
-      <c r="J486" s="35"/>
+      <c r="J486" s="34"/>
       <c r="K486" s="5"/>
       <c r="L486" s="5"/>
       <c r="M486" s="5"/>
@@ -10024,7 +10042,7 @@
       <c r="G487" s="5"/>
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
-      <c r="J487" s="35"/>
+      <c r="J487" s="34"/>
       <c r="K487" s="5"/>
       <c r="L487" s="5"/>
       <c r="M487" s="5"/>
@@ -10040,7 +10058,7 @@
       <c r="G488" s="5"/>
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
-      <c r="J488" s="35"/>
+      <c r="J488" s="34"/>
       <c r="K488" s="5"/>
       <c r="L488" s="5"/>
       <c r="M488" s="5"/>
@@ -10056,7 +10074,7 @@
       <c r="G489" s="5"/>
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
-      <c r="J489" s="35"/>
+      <c r="J489" s="34"/>
       <c r="K489" s="5"/>
       <c r="L489" s="5"/>
       <c r="M489" s="5"/>
@@ -10072,7 +10090,7 @@
       <c r="G490" s="5"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
-      <c r="J490" s="35"/>
+      <c r="J490" s="34"/>
       <c r="K490" s="5"/>
       <c r="L490" s="5"/>
       <c r="M490" s="5"/>
@@ -10088,7 +10106,7 @@
       <c r="G491" s="5"/>
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
-      <c r="J491" s="35"/>
+      <c r="J491" s="34"/>
       <c r="K491" s="5"/>
       <c r="L491" s="5"/>
       <c r="M491" s="5"/>
@@ -10104,7 +10122,7 @@
       <c r="G492" s="5"/>
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
-      <c r="J492" s="35"/>
+      <c r="J492" s="34"/>
       <c r="K492" s="5"/>
       <c r="L492" s="5"/>
       <c r="M492" s="5"/>
@@ -10120,7 +10138,7 @@
       <c r="G493" s="5"/>
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
-      <c r="J493" s="35"/>
+      <c r="J493" s="34"/>
       <c r="K493" s="5"/>
       <c r="L493" s="5"/>
       <c r="M493" s="5"/>
@@ -10136,7 +10154,7 @@
       <c r="G494" s="5"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
-      <c r="J494" s="35"/>
+      <c r="J494" s="34"/>
       <c r="K494" s="5"/>
       <c r="L494" s="5"/>
       <c r="M494" s="5"/>
@@ -10152,7 +10170,7 @@
       <c r="G495" s="5"/>
       <c r="H495" s="4"/>
       <c r="I495" s="4"/>
-      <c r="J495" s="35"/>
+      <c r="J495" s="34"/>
       <c r="K495" s="5"/>
       <c r="L495" s="5"/>
       <c r="M495" s="5"/>
@@ -10168,7 +10186,7 @@
       <c r="G496" s="5"/>
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
-      <c r="J496" s="35"/>
+      <c r="J496" s="34"/>
       <c r="K496" s="5"/>
       <c r="L496" s="5"/>
       <c r="M496" s="5"/>
@@ -10184,7 +10202,7 @@
       <c r="G497" s="5"/>
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
-      <c r="J497" s="35"/>
+      <c r="J497" s="34"/>
       <c r="K497" s="5"/>
       <c r="L497" s="5"/>
       <c r="M497" s="5"/>
@@ -10200,7 +10218,7 @@
       <c r="G498" s="5"/>
       <c r="H498" s="4"/>
       <c r="I498" s="4"/>
-      <c r="J498" s="35"/>
+      <c r="J498" s="34"/>
       <c r="K498" s="5"/>
       <c r="L498" s="5"/>
       <c r="M498" s="5"/>
@@ -10216,7 +10234,7 @@
       <c r="G499" s="5"/>
       <c r="H499" s="4"/>
       <c r="I499" s="4"/>
-      <c r="J499" s="35"/>
+      <c r="J499" s="34"/>
       <c r="K499" s="5"/>
       <c r="L499" s="5"/>
       <c r="M499" s="5"/>
@@ -10232,7 +10250,7 @@
       <c r="G500" s="5"/>
       <c r="H500" s="4"/>
       <c r="I500" s="4"/>
-      <c r="J500" s="35"/>
+      <c r="J500" s="34"/>
       <c r="K500" s="5"/>
       <c r="L500" s="5"/>
       <c r="M500" s="5"/>
@@ -10248,7 +10266,7 @@
       <c r="G501" s="5"/>
       <c r="H501" s="4"/>
       <c r="I501" s="4"/>
-      <c r="J501" s="35"/>
+      <c r="J501" s="34"/>
       <c r="K501" s="5"/>
       <c r="L501" s="5"/>
       <c r="M501" s="5"/>
@@ -10264,7 +10282,7 @@
       <c r="G502" s="5"/>
       <c r="H502" s="4"/>
       <c r="I502" s="4"/>
-      <c r="J502" s="35"/>
+      <c r="J502" s="34"/>
       <c r="K502" s="5"/>
       <c r="L502" s="5"/>
       <c r="M502" s="5"/>
@@ -10280,7 +10298,7 @@
       <c r="G503" s="5"/>
       <c r="H503" s="4"/>
       <c r="I503" s="4"/>
-      <c r="J503" s="35"/>
+      <c r="J503" s="34"/>
       <c r="K503" s="5"/>
       <c r="L503" s="5"/>
       <c r="M503" s="5"/>
@@ -10296,7 +10314,7 @@
       <c r="G504" s="5"/>
       <c r="H504" s="4"/>
       <c r="I504" s="4"/>
-      <c r="J504" s="35"/>
+      <c r="J504" s="34"/>
       <c r="K504" s="5"/>
       <c r="L504" s="5"/>
       <c r="M504" s="5"/>
@@ -10312,7 +10330,7 @@
       <c r="G505" s="5"/>
       <c r="H505" s="4"/>
       <c r="I505" s="4"/>
-      <c r="J505" s="35"/>
+      <c r="J505" s="34"/>
       <c r="K505" s="5"/>
       <c r="L505" s="5"/>
       <c r="M505" s="5"/>
@@ -10328,7 +10346,7 @@
       <c r="G506" s="5"/>
       <c r="H506" s="4"/>
       <c r="I506" s="4"/>
-      <c r="J506" s="35"/>
+      <c r="J506" s="34"/>
       <c r="K506" s="5"/>
       <c r="L506" s="5"/>
       <c r="M506" s="5"/>
@@ -10344,7 +10362,7 @@
       <c r="G507" s="5"/>
       <c r="H507" s="4"/>
       <c r="I507" s="4"/>
-      <c r="J507" s="35"/>
+      <c r="J507" s="34"/>
       <c r="K507" s="5"/>
       <c r="L507" s="5"/>
       <c r="M507" s="5"/>
@@ -10360,7 +10378,7 @@
       <c r="G508" s="5"/>
       <c r="H508" s="4"/>
       <c r="I508" s="4"/>
-      <c r="J508" s="35"/>
+      <c r="J508" s="34"/>
       <c r="K508" s="5"/>
       <c r="L508" s="5"/>
       <c r="M508" s="5"/>
@@ -10376,7 +10394,7 @@
       <c r="G509" s="5"/>
       <c r="H509" s="4"/>
       <c r="I509" s="4"/>
-      <c r="J509" s="35"/>
+      <c r="J509" s="34"/>
       <c r="K509" s="5"/>
       <c r="L509" s="5"/>
       <c r="M509" s="5"/>
@@ -10392,7 +10410,7 @@
       <c r="G510" s="5"/>
       <c r="H510" s="4"/>
       <c r="I510" s="4"/>
-      <c r="J510" s="35"/>
+      <c r="J510" s="34"/>
       <c r="K510" s="5"/>
       <c r="L510" s="5"/>
       <c r="M510" s="5"/>
@@ -10408,7 +10426,7 @@
       <c r="G511" s="5"/>
       <c r="H511" s="4"/>
       <c r="I511" s="4"/>
-      <c r="J511" s="35"/>
+      <c r="J511" s="34"/>
       <c r="K511" s="5"/>
       <c r="L511" s="5"/>
       <c r="M511" s="5"/>
@@ -10424,7 +10442,7 @@
       <c r="G512" s="5"/>
       <c r="H512" s="4"/>
       <c r="I512" s="4"/>
-      <c r="J512" s="35"/>
+      <c r="J512" s="34"/>
       <c r="K512" s="5"/>
       <c r="L512" s="5"/>
       <c r="M512" s="5"/>
@@ -10440,7 +10458,7 @@
       <c r="G513" s="5"/>
       <c r="H513" s="4"/>
       <c r="I513" s="4"/>
-      <c r="J513" s="35"/>
+      <c r="J513" s="34"/>
       <c r="K513" s="5"/>
       <c r="L513" s="5"/>
       <c r="M513" s="5"/>
@@ -10456,7 +10474,7 @@
       <c r="G514" s="5"/>
       <c r="H514" s="4"/>
       <c r="I514" s="4"/>
-      <c r="J514" s="35"/>
+      <c r="J514" s="34"/>
       <c r="K514" s="5"/>
       <c r="L514" s="5"/>
       <c r="M514" s="5"/>
@@ -10472,7 +10490,7 @@
       <c r="G515" s="5"/>
       <c r="H515" s="4"/>
       <c r="I515" s="4"/>
-      <c r="J515" s="35"/>
+      <c r="J515" s="34"/>
       <c r="K515" s="5"/>
       <c r="L515" s="5"/>
       <c r="M515" s="5"/>
@@ -10488,7 +10506,7 @@
       <c r="G516" s="5"/>
       <c r="H516" s="4"/>
       <c r="I516" s="4"/>
-      <c r="J516" s="35"/>
+      <c r="J516" s="34"/>
       <c r="K516" s="5"/>
       <c r="L516" s="5"/>
       <c r="M516" s="5"/>
@@ -10504,7 +10522,7 @@
       <c r="G517" s="5"/>
       <c r="H517" s="4"/>
       <c r="I517" s="4"/>
-      <c r="J517" s="35"/>
+      <c r="J517" s="34"/>
       <c r="K517" s="5"/>
       <c r="L517" s="5"/>
       <c r="M517" s="5"/>
@@ -10520,7 +10538,7 @@
       <c r="G518" s="5"/>
       <c r="H518" s="4"/>
       <c r="I518" s="4"/>
-      <c r="J518" s="35"/>
+      <c r="J518" s="34"/>
       <c r="K518" s="5"/>
       <c r="L518" s="5"/>
       <c r="M518" s="5"/>
@@ -10536,7 +10554,7 @@
       <c r="G519" s="5"/>
       <c r="H519" s="4"/>
       <c r="I519" s="4"/>
-      <c r="J519" s="35"/>
+      <c r="J519" s="34"/>
       <c r="K519" s="5"/>
       <c r="L519" s="5"/>
       <c r="M519" s="5"/>
@@ -10552,7 +10570,7 @@
       <c r="G520" s="5"/>
       <c r="H520" s="4"/>
       <c r="I520" s="4"/>
-      <c r="J520" s="35"/>
+      <c r="J520" s="34"/>
       <c r="K520" s="5"/>
       <c r="L520" s="5"/>
       <c r="M520" s="5"/>
@@ -10568,7 +10586,7 @@
       <c r="G521" s="5"/>
       <c r="H521" s="4"/>
       <c r="I521" s="4"/>
-      <c r="J521" s="35"/>
+      <c r="J521" s="34"/>
       <c r="K521" s="5"/>
       <c r="L521" s="5"/>
       <c r="M521" s="5"/>
@@ -10584,7 +10602,7 @@
       <c r="G522" s="5"/>
       <c r="H522" s="4"/>
       <c r="I522" s="4"/>
-      <c r="J522" s="35"/>
+      <c r="J522" s="34"/>
       <c r="K522" s="5"/>
       <c r="L522" s="5"/>
       <c r="M522" s="5"/>
@@ -10600,7 +10618,7 @@
       <c r="G523" s="5"/>
       <c r="H523" s="4"/>
       <c r="I523" s="4"/>
-      <c r="J523" s="35"/>
+      <c r="J523" s="34"/>
       <c r="K523" s="5"/>
       <c r="L523" s="5"/>
       <c r="M523" s="5"/>
@@ -10616,7 +10634,7 @@
       <c r="G524" s="5"/>
       <c r="H524" s="4"/>
       <c r="I524" s="4"/>
-      <c r="J524" s="35"/>
+      <c r="J524" s="34"/>
       <c r="K524" s="5"/>
       <c r="L524" s="5"/>
       <c r="M524" s="5"/>
@@ -10632,7 +10650,7 @@
       <c r="G525" s="5"/>
       <c r="H525" s="4"/>
       <c r="I525" s="4"/>
-      <c r="J525" s="35"/>
+      <c r="J525" s="34"/>
       <c r="K525" s="5"/>
       <c r="L525" s="5"/>
       <c r="M525" s="5"/>
@@ -10648,7 +10666,7 @@
       <c r="G526" s="5"/>
       <c r="H526" s="4"/>
       <c r="I526" s="4"/>
-      <c r="J526" s="35"/>
+      <c r="J526" s="34"/>
       <c r="K526" s="5"/>
       <c r="L526" s="5"/>
       <c r="M526" s="5"/>
@@ -10664,7 +10682,7 @@
       <c r="G527" s="5"/>
       <c r="H527" s="4"/>
       <c r="I527" s="4"/>
-      <c r="J527" s="35"/>
+      <c r="J527" s="34"/>
       <c r="K527" s="5"/>
       <c r="L527" s="5"/>
       <c r="M527" s="5"/>
@@ -10680,7 +10698,7 @@
       <c r="G528" s="5"/>
       <c r="H528" s="4"/>
       <c r="I528" s="4"/>
-      <c r="J528" s="35"/>
+      <c r="J528" s="34"/>
       <c r="K528" s="5"/>
       <c r="L528" s="5"/>
       <c r="M528" s="5"/>
@@ -10696,7 +10714,7 @@
       <c r="G529" s="5"/>
       <c r="H529" s="4"/>
       <c r="I529" s="4"/>
-      <c r="J529" s="35"/>
+      <c r="J529" s="34"/>
       <c r="K529" s="5"/>
       <c r="L529" s="5"/>
       <c r="M529" s="5"/>
@@ -10712,7 +10730,7 @@
       <c r="G530" s="5"/>
       <c r="H530" s="4"/>
       <c r="I530" s="4"/>
-      <c r="J530" s="35"/>
+      <c r="J530" s="34"/>
       <c r="K530" s="5"/>
       <c r="L530" s="5"/>
       <c r="M530" s="5"/>
@@ -10728,7 +10746,7 @@
       <c r="G531" s="5"/>
       <c r="H531" s="4"/>
       <c r="I531" s="4"/>
-      <c r="J531" s="35"/>
+      <c r="J531" s="34"/>
       <c r="K531" s="5"/>
       <c r="L531" s="5"/>
       <c r="M531" s="5"/>
@@ -10744,7 +10762,7 @@
       <c r="G532" s="5"/>
       <c r="H532" s="4"/>
       <c r="I532" s="4"/>
-      <c r="J532" s="35"/>
+      <c r="J532" s="34"/>
       <c r="K532" s="5"/>
       <c r="L532" s="5"/>
       <c r="M532" s="5"/>
@@ -10760,7 +10778,7 @@
       <c r="G533" s="5"/>
       <c r="H533" s="4"/>
       <c r="I533" s="4"/>
-      <c r="J533" s="35"/>
+      <c r="J533" s="34"/>
       <c r="K533" s="5"/>
       <c r="L533" s="5"/>
       <c r="M533" s="5"/>
@@ -10776,7 +10794,7 @@
       <c r="G534" s="5"/>
       <c r="H534" s="4"/>
       <c r="I534" s="4"/>
-      <c r="J534" s="35"/>
+      <c r="J534" s="34"/>
       <c r="K534" s="5"/>
       <c r="L534" s="5"/>
       <c r="M534" s="5"/>
@@ -10792,7 +10810,7 @@
       <c r="G535" s="5"/>
       <c r="H535" s="4"/>
       <c r="I535" s="4"/>
-      <c r="J535" s="35"/>
+      <c r="J535" s="34"/>
       <c r="K535" s="5"/>
       <c r="L535" s="5"/>
       <c r="M535" s="5"/>
@@ -10808,7 +10826,7 @@
       <c r="G536" s="5"/>
       <c r="H536" s="4"/>
       <c r="I536" s="4"/>
-      <c r="J536" s="35"/>
+      <c r="J536" s="34"/>
       <c r="K536" s="5"/>
       <c r="L536" s="5"/>
       <c r="M536" s="5"/>
@@ -10824,7 +10842,7 @@
       <c r="G537" s="5"/>
       <c r="H537" s="4"/>
       <c r="I537" s="4"/>
-      <c r="J537" s="35"/>
+      <c r="J537" s="34"/>
       <c r="K537" s="5"/>
       <c r="L537" s="5"/>
       <c r="M537" s="5"/>
@@ -10840,7 +10858,7 @@
       <c r="G538" s="5"/>
       <c r="H538" s="4"/>
       <c r="I538" s="4"/>
-      <c r="J538" s="35"/>
+      <c r="J538" s="34"/>
       <c r="K538" s="5"/>
       <c r="L538" s="5"/>
       <c r="M538" s="5"/>
@@ -10856,7 +10874,7 @@
       <c r="G539" s="5"/>
       <c r="H539" s="4"/>
       <c r="I539" s="4"/>
-      <c r="J539" s="35"/>
+      <c r="J539" s="34"/>
       <c r="K539" s="5"/>
       <c r="L539" s="5"/>
       <c r="M539" s="5"/>
@@ -10872,7 +10890,7 @@
       <c r="G540" s="5"/>
       <c r="H540" s="4"/>
       <c r="I540" s="4"/>
-      <c r="J540" s="35"/>
+      <c r="J540" s="34"/>
       <c r="K540" s="5"/>
       <c r="L540" s="5"/>
       <c r="M540" s="5"/>
@@ -10888,7 +10906,7 @@
       <c r="G541" s="5"/>
       <c r="H541" s="4"/>
       <c r="I541" s="4"/>
-      <c r="J541" s="35"/>
+      <c r="J541" s="34"/>
       <c r="K541" s="5"/>
       <c r="L541" s="5"/>
       <c r="M541" s="5"/>
@@ -10904,7 +10922,7 @@
       <c r="G542" s="5"/>
       <c r="H542" s="4"/>
       <c r="I542" s="4"/>
-      <c r="J542" s="35"/>
+      <c r="J542" s="34"/>
       <c r="K542" s="5"/>
       <c r="L542" s="5"/>
       <c r="M542" s="5"/>
@@ -10920,7 +10938,7 @@
       <c r="G543" s="5"/>
       <c r="H543" s="4"/>
       <c r="I543" s="4"/>
-      <c r="J543" s="35"/>
+      <c r="J543" s="34"/>
       <c r="K543" s="5"/>
       <c r="L543" s="5"/>
       <c r="M543" s="5"/>
@@ -10936,7 +10954,7 @@
       <c r="G544" s="5"/>
       <c r="H544" s="4"/>
       <c r="I544" s="4"/>
-      <c r="J544" s="35"/>
+      <c r="J544" s="34"/>
       <c r="K544" s="5"/>
       <c r="L544" s="5"/>
       <c r="M544" s="5"/>
@@ -10952,7 +10970,7 @@
       <c r="G545" s="5"/>
       <c r="H545" s="4"/>
       <c r="I545" s="4"/>
-      <c r="J545" s="35"/>
+      <c r="J545" s="34"/>
       <c r="K545" s="5"/>
       <c r="L545" s="5"/>
       <c r="M545" s="5"/>
@@ -10968,7 +10986,7 @@
       <c r="G546" s="5"/>
       <c r="H546" s="4"/>
       <c r="I546" s="4"/>
-      <c r="J546" s="35"/>
+      <c r="J546" s="34"/>
       <c r="K546" s="5"/>
       <c r="L546" s="5"/>
       <c r="M546" s="5"/>
@@ -10984,7 +11002,7 @@
       <c r="G547" s="5"/>
       <c r="H547" s="4"/>
       <c r="I547" s="4"/>
-      <c r="J547" s="35"/>
+      <c r="J547" s="34"/>
       <c r="K547" s="5"/>
       <c r="L547" s="5"/>
       <c r="M547" s="5"/>
@@ -11000,7 +11018,7 @@
       <c r="G548" s="5"/>
       <c r="H548" s="4"/>
       <c r="I548" s="4"/>
-      <c r="J548" s="35"/>
+      <c r="J548" s="34"/>
       <c r="K548" s="5"/>
       <c r="L548" s="5"/>
       <c r="M548" s="5"/>
@@ -11016,7 +11034,7 @@
       <c r="G549" s="5"/>
       <c r="H549" s="4"/>
       <c r="I549" s="4"/>
-      <c r="J549" s="35"/>
+      <c r="J549" s="34"/>
       <c r="K549" s="5"/>
       <c r="L549" s="5"/>
       <c r="M549" s="5"/>
@@ -11032,7 +11050,7 @@
       <c r="G550" s="5"/>
       <c r="H550" s="4"/>
       <c r="I550" s="4"/>
-      <c r="J550" s="35"/>
+      <c r="J550" s="34"/>
       <c r="K550" s="5"/>
       <c r="L550" s="5"/>
       <c r="M550" s="5"/>
@@ -11048,7 +11066,7 @@
       <c r="G551" s="5"/>
       <c r="H551" s="4"/>
       <c r="I551" s="4"/>
-      <c r="J551" s="35"/>
+      <c r="J551" s="34"/>
       <c r="K551" s="5"/>
       <c r="L551" s="5"/>
       <c r="M551" s="5"/>
@@ -11064,7 +11082,7 @@
       <c r="G552" s="5"/>
       <c r="H552" s="4"/>
       <c r="I552" s="4"/>
-      <c r="J552" s="35"/>
+      <c r="J552" s="34"/>
       <c r="K552" s="5"/>
       <c r="L552" s="5"/>
       <c r="M552" s="5"/>
@@ -11080,7 +11098,7 @@
       <c r="G553" s="5"/>
       <c r="H553" s="4"/>
       <c r="I553" s="4"/>
-      <c r="J553" s="35"/>
+      <c r="J553" s="34"/>
       <c r="K553" s="5"/>
       <c r="L553" s="5"/>
       <c r="M553" s="5"/>
@@ -11096,7 +11114,7 @@
       <c r="G554" s="5"/>
       <c r="H554" s="4"/>
       <c r="I554" s="4"/>
-      <c r="J554" s="35"/>
+      <c r="J554" s="34"/>
       <c r="K554" s="5"/>
       <c r="L554" s="5"/>
       <c r="M554" s="5"/>
@@ -11112,7 +11130,7 @@
       <c r="G555" s="5"/>
       <c r="H555" s="4"/>
       <c r="I555" s="4"/>
-      <c r="J555" s="35"/>
+      <c r="J555" s="34"/>
       <c r="K555" s="5"/>
       <c r="L555" s="5"/>
       <c r="M555" s="5"/>
@@ -11128,7 +11146,7 @@
       <c r="G556" s="5"/>
       <c r="H556" s="4"/>
       <c r="I556" s="4"/>
-      <c r="J556" s="35"/>
+      <c r="J556" s="34"/>
       <c r="K556" s="5"/>
       <c r="L556" s="5"/>
       <c r="M556" s="5"/>
@@ -11144,7 +11162,7 @@
       <c r="G557" s="5"/>
       <c r="H557" s="4"/>
       <c r="I557" s="4"/>
-      <c r="J557" s="35"/>
+      <c r="J557" s="34"/>
       <c r="K557" s="5"/>
       <c r="L557" s="5"/>
       <c r="M557" s="5"/>
@@ -11160,7 +11178,7 @@
       <c r="G558" s="5"/>
       <c r="H558" s="4"/>
       <c r="I558" s="4"/>
-      <c r="J558" s="35"/>
+      <c r="J558" s="34"/>
       <c r="K558" s="5"/>
       <c r="L558" s="5"/>
       <c r="M558" s="5"/>
@@ -11176,7 +11194,7 @@
       <c r="G559" s="5"/>
       <c r="H559" s="4"/>
       <c r="I559" s="4"/>
-      <c r="J559" s="35"/>
+      <c r="J559" s="34"/>
       <c r="K559" s="5"/>
       <c r="L559" s="5"/>
       <c r="M559" s="5"/>
@@ -11192,7 +11210,7 @@
       <c r="G560" s="5"/>
       <c r="H560" s="4"/>
       <c r="I560" s="4"/>
-      <c r="J560" s="35"/>
+      <c r="J560" s="34"/>
       <c r="K560" s="5"/>
       <c r="L560" s="5"/>
       <c r="M560" s="5"/>
@@ -11208,7 +11226,7 @@
       <c r="G561" s="5"/>
       <c r="H561" s="4"/>
       <c r="I561" s="4"/>
-      <c r="J561" s="35"/>
+      <c r="J561" s="34"/>
       <c r="K561" s="5"/>
       <c r="L561" s="5"/>
       <c r="M561" s="5"/>
@@ -11224,7 +11242,7 @@
       <c r="G562" s="5"/>
       <c r="H562" s="4"/>
       <c r="I562" s="4"/>
-      <c r="J562" s="35"/>
+      <c r="J562" s="34"/>
       <c r="K562" s="5"/>
       <c r="L562" s="5"/>
       <c r="M562" s="5"/>
@@ -11240,7 +11258,7 @@
       <c r="G563" s="5"/>
       <c r="H563" s="4"/>
       <c r="I563" s="4"/>
-      <c r="J563" s="35"/>
+      <c r="J563" s="34"/>
       <c r="K563" s="5"/>
       <c r="L563" s="5"/>
       <c r="M563" s="5"/>
@@ -11256,7 +11274,7 @@
       <c r="G564" s="5"/>
       <c r="H564" s="4"/>
       <c r="I564" s="4"/>
-      <c r="J564" s="35"/>
+      <c r="J564" s="34"/>
       <c r="K564" s="5"/>
       <c r="L564" s="5"/>
       <c r="M564" s="5"/>
@@ -11272,7 +11290,7 @@
       <c r="G565" s="5"/>
       <c r="H565" s="4"/>
       <c r="I565" s="4"/>
-      <c r="J565" s="35"/>
+      <c r="J565" s="34"/>
       <c r="K565" s="5"/>
       <c r="L565" s="5"/>
       <c r="M565" s="5"/>
@@ -11288,7 +11306,7 @@
       <c r="G566" s="5"/>
       <c r="H566" s="4"/>
       <c r="I566" s="4"/>
-      <c r="J566" s="35"/>
+      <c r="J566" s="34"/>
       <c r="K566" s="5"/>
       <c r="L566" s="5"/>
       <c r="M566" s="5"/>
@@ -11304,7 +11322,7 @@
       <c r="G567" s="5"/>
       <c r="H567" s="4"/>
       <c r="I567" s="4"/>
-      <c r="J567" s="35"/>
+      <c r="J567" s="34"/>
       <c r="K567" s="5"/>
       <c r="L567" s="5"/>
       <c r="M567" s="5"/>
@@ -11320,7 +11338,7 @@
       <c r="G568" s="5"/>
       <c r="H568" s="4"/>
       <c r="I568" s="4"/>
-      <c r="J568" s="35"/>
+      <c r="J568" s="34"/>
       <c r="K568" s="5"/>
       <c r="L568" s="5"/>
       <c r="M568" s="5"/>
@@ -11336,7 +11354,7 @@
       <c r="G569" s="5"/>
       <c r="H569" s="4"/>
       <c r="I569" s="4"/>
-      <c r="J569" s="35"/>
+      <c r="J569" s="34"/>
       <c r="K569" s="5"/>
       <c r="L569" s="5"/>
       <c r="M569" s="5"/>
@@ -11352,7 +11370,7 @@
       <c r="G570" s="5"/>
       <c r="H570" s="4"/>
       <c r="I570" s="4"/>
-      <c r="J570" s="35"/>
+      <c r="J570" s="34"/>
       <c r="K570" s="5"/>
       <c r="L570" s="5"/>
       <c r="M570" s="5"/>
@@ -11368,7 +11386,7 @@
       <c r="G571" s="5"/>
       <c r="H571" s="4"/>
       <c r="I571" s="4"/>
-      <c r="J571" s="35"/>
+      <c r="J571" s="34"/>
       <c r="K571" s="5"/>
       <c r="L571" s="5"/>
       <c r="M571" s="5"/>
@@ -11384,7 +11402,7 @@
       <c r="G572" s="5"/>
       <c r="H572" s="4"/>
       <c r="I572" s="4"/>
-      <c r="J572" s="35"/>
+      <c r="J572" s="34"/>
       <c r="K572" s="5"/>
       <c r="L572" s="5"/>
       <c r="M572" s="5"/>
@@ -11400,7 +11418,7 @@
       <c r="G573" s="5"/>
       <c r="H573" s="4"/>
       <c r="I573" s="4"/>
-      <c r="J573" s="35"/>
+      <c r="J573" s="34"/>
       <c r="K573" s="5"/>
       <c r="L573" s="5"/>
       <c r="M573" s="5"/>
@@ -11416,7 +11434,7 @@
       <c r="G574" s="5"/>
       <c r="H574" s="4"/>
       <c r="I574" s="4"/>
-      <c r="J574" s="35"/>
+      <c r="J574" s="34"/>
       <c r="K574" s="5"/>
       <c r="L574" s="5"/>
       <c r="M574" s="5"/>
@@ -11432,7 +11450,7 @@
       <c r="G575" s="5"/>
       <c r="H575" s="4"/>
       <c r="I575" s="4"/>
-      <c r="J575" s="35"/>
+      <c r="J575" s="34"/>
       <c r="K575" s="5"/>
       <c r="L575" s="5"/>
       <c r="M575" s="5"/>
@@ -11448,7 +11466,7 @@
       <c r="G576" s="5"/>
       <c r="H576" s="4"/>
       <c r="I576" s="4"/>
-      <c r="J576" s="35"/>
+      <c r="J576" s="34"/>
       <c r="K576" s="5"/>
       <c r="L576" s="5"/>
       <c r="M576" s="5"/>
@@ -11464,7 +11482,7 @@
       <c r="G577" s="5"/>
       <c r="H577" s="4"/>
       <c r="I577" s="4"/>
-      <c r="J577" s="35"/>
+      <c r="J577" s="34"/>
       <c r="K577" s="5"/>
       <c r="L577" s="5"/>
       <c r="M577" s="5"/>
@@ -11480,7 +11498,7 @@
       <c r="G578" s="5"/>
       <c r="H578" s="4"/>
       <c r="I578" s="4"/>
-      <c r="J578" s="35"/>
+      <c r="J578" s="34"/>
       <c r="K578" s="5"/>
       <c r="L578" s="5"/>
       <c r="M578" s="5"/>
@@ -11496,7 +11514,7 @@
       <c r="G579" s="5"/>
       <c r="H579" s="4"/>
       <c r="I579" s="4"/>
-      <c r="J579" s="35"/>
+      <c r="J579" s="34"/>
       <c r="K579" s="5"/>
       <c r="L579" s="5"/>
       <c r="M579" s="5"/>
@@ -11512,7 +11530,7 @@
       <c r="G580" s="5"/>
       <c r="H580" s="4"/>
       <c r="I580" s="4"/>
-      <c r="J580" s="35"/>
+      <c r="J580" s="34"/>
       <c r="K580" s="5"/>
       <c r="L580" s="5"/>
       <c r="M580" s="5"/>
@@ -11528,7 +11546,7 @@
       <c r="G581" s="5"/>
       <c r="H581" s="4"/>
       <c r="I581" s="4"/>
-      <c r="J581" s="35"/>
+      <c r="J581" s="34"/>
       <c r="K581" s="5"/>
       <c r="L581" s="5"/>
       <c r="M581" s="5"/>
@@ -11544,7 +11562,7 @@
       <c r="G582" s="5"/>
       <c r="H582" s="4"/>
       <c r="I582" s="4"/>
-      <c r="J582" s="35"/>
+      <c r="J582" s="34"/>
       <c r="K582" s="5"/>
       <c r="L582" s="5"/>
       <c r="M582" s="5"/>
@@ -11560,7 +11578,7 @@
       <c r="G583" s="5"/>
       <c r="H583" s="4"/>
       <c r="I583" s="4"/>
-      <c r="J583" s="35"/>
+      <c r="J583" s="34"/>
       <c r="K583" s="5"/>
       <c r="L583" s="5"/>
       <c r="M583" s="5"/>
@@ -11576,7 +11594,7 @@
       <c r="G584" s="5"/>
       <c r="H584" s="4"/>
       <c r="I584" s="4"/>
-      <c r="J584" s="35"/>
+      <c r="J584" s="34"/>
       <c r="K584" s="5"/>
       <c r="L584" s="5"/>
       <c r="M584" s="5"/>
@@ -11592,7 +11610,7 @@
       <c r="G585" s="5"/>
       <c r="H585" s="4"/>
       <c r="I585" s="4"/>
-      <c r="J585" s="35"/>
+      <c r="J585" s="34"/>
       <c r="K585" s="5"/>
       <c r="L585" s="5"/>
       <c r="M585" s="5"/>
@@ -11608,7 +11626,7 @@
       <c r="G586" s="5"/>
       <c r="H586" s="4"/>
       <c r="I586" s="4"/>
-      <c r="J586" s="35"/>
+      <c r="J586" s="34"/>
       <c r="K586" s="5"/>
       <c r="L586" s="5"/>
       <c r="M586" s="5"/>
@@ -11624,7 +11642,7 @@
       <c r="G587" s="5"/>
       <c r="H587" s="4"/>
       <c r="I587" s="4"/>
-      <c r="J587" s="35"/>
+      <c r="J587" s="34"/>
       <c r="K587" s="5"/>
       <c r="L587" s="5"/>
       <c r="M587" s="5"/>
@@ -11640,7 +11658,7 @@
       <c r="G588" s="5"/>
       <c r="H588" s="4"/>
       <c r="I588" s="4"/>
-      <c r="J588" s="35"/>
+      <c r="J588" s="34"/>
       <c r="K588" s="5"/>
       <c r="L588" s="5"/>
       <c r="M588" s="5"/>
@@ -11656,7 +11674,7 @@
       <c r="G589" s="5"/>
       <c r="H589" s="4"/>
       <c r="I589" s="4"/>
-      <c r="J589" s="35"/>
+      <c r="J589" s="34"/>
       <c r="K589" s="5"/>
       <c r="L589" s="5"/>
       <c r="M589" s="5"/>
@@ -11672,7 +11690,7 @@
       <c r="G590" s="5"/>
       <c r="H590" s="4"/>
       <c r="I590" s="4"/>
-      <c r="J590" s="35"/>
+      <c r="J590" s="34"/>
       <c r="K590" s="5"/>
       <c r="L590" s="5"/>
       <c r="M590" s="5"/>
@@ -11688,7 +11706,7 @@
       <c r="G591" s="5"/>
       <c r="H591" s="4"/>
       <c r="I591" s="4"/>
-      <c r="J591" s="35"/>
+      <c r="J591" s="34"/>
       <c r="K591" s="5"/>
       <c r="L591" s="5"/>
       <c r="M591" s="5"/>
@@ -11704,7 +11722,7 @@
       <c r="G592" s="5"/>
       <c r="H592" s="4"/>
       <c r="I592" s="4"/>
-      <c r="J592" s="35"/>
+      <c r="J592" s="34"/>
       <c r="K592" s="5"/>
       <c r="L592" s="5"/>
       <c r="M592" s="5"/>
@@ -11720,7 +11738,7 @@
       <c r="G593" s="5"/>
       <c r="H593" s="4"/>
       <c r="I593" s="4"/>
-      <c r="J593" s="35"/>
+      <c r="J593" s="34"/>
       <c r="K593" s="5"/>
       <c r="L593" s="5"/>
       <c r="M593" s="5"/>
@@ -11736,7 +11754,7 @@
       <c r="G594" s="5"/>
       <c r="H594" s="4"/>
       <c r="I594" s="4"/>
-      <c r="J594" s="35"/>
+      <c r="J594" s="34"/>
       <c r="K594" s="5"/>
       <c r="L594" s="5"/>
       <c r="M594" s="5"/>
@@ -11752,7 +11770,7 @@
       <c r="G595" s="5"/>
       <c r="H595" s="4"/>
       <c r="I595" s="4"/>
-      <c r="J595" s="35"/>
+      <c r="J595" s="34"/>
       <c r="K595" s="5"/>
       <c r="L595" s="5"/>
       <c r="M595" s="5"/>
@@ -11768,7 +11786,7 @@
       <c r="G596" s="5"/>
       <c r="H596" s="4"/>
       <c r="I596" s="4"/>
-      <c r="J596" s="35"/>
+      <c r="J596" s="34"/>
       <c r="K596" s="5"/>
       <c r="L596" s="5"/>
       <c r="M596" s="5"/>
@@ -11784,7 +11802,7 @@
       <c r="G597" s="5"/>
       <c r="H597" s="4"/>
       <c r="I597" s="4"/>
-      <c r="J597" s="35"/>
+      <c r="J597" s="34"/>
       <c r="K597" s="5"/>
       <c r="L597" s="5"/>
       <c r="M597" s="5"/>
@@ -11800,7 +11818,7 @@
       <c r="G598" s="5"/>
       <c r="H598" s="4"/>
       <c r="I598" s="4"/>
-      <c r="J598" s="35"/>
+      <c r="J598" s="34"/>
       <c r="K598" s="5"/>
       <c r="L598" s="5"/>
       <c r="M598" s="5"/>
@@ -11816,7 +11834,7 @@
       <c r="G599" s="5"/>
       <c r="H599" s="4"/>
       <c r="I599" s="4"/>
-      <c r="J599" s="35"/>
+      <c r="J599" s="34"/>
       <c r="K599" s="5"/>
       <c r="L599" s="5"/>
       <c r="M599" s="5"/>
@@ -11832,7 +11850,7 @@
       <c r="G600" s="5"/>
       <c r="H600" s="4"/>
       <c r="I600" s="4"/>
-      <c r="J600" s="35"/>
+      <c r="J600" s="34"/>
       <c r="K600" s="5"/>
       <c r="L600" s="5"/>
       <c r="M600" s="5"/>
@@ -11848,7 +11866,7 @@
       <c r="G601" s="5"/>
       <c r="H601" s="4"/>
       <c r="I601" s="4"/>
-      <c r="J601" s="35"/>
+      <c r="J601" s="34"/>
       <c r="K601" s="5"/>
       <c r="L601" s="5"/>
       <c r="M601" s="5"/>
@@ -11864,7 +11882,7 @@
       <c r="G602" s="5"/>
       <c r="H602" s="4"/>
       <c r="I602" s="4"/>
-      <c r="J602" s="35"/>
+      <c r="J602" s="34"/>
       <c r="K602" s="5"/>
       <c r="L602" s="5"/>
       <c r="M602" s="5"/>
@@ -11880,7 +11898,7 @@
       <c r="G603" s="5"/>
       <c r="H603" s="4"/>
       <c r="I603" s="4"/>
-      <c r="J603" s="35"/>
+      <c r="J603" s="34"/>
       <c r="K603" s="5"/>
       <c r="L603" s="5"/>
       <c r="M603" s="5"/>
@@ -11896,7 +11914,7 @@
       <c r="G604" s="5"/>
       <c r="H604" s="4"/>
       <c r="I604" s="4"/>
-      <c r="J604" s="35"/>
+      <c r="J604" s="34"/>
       <c r="K604" s="5"/>
       <c r="L604" s="5"/>
       <c r="M604" s="5"/>
@@ -11912,7 +11930,7 @@
       <c r="G605" s="5"/>
       <c r="H605" s="4"/>
       <c r="I605" s="4"/>
-      <c r="J605" s="35"/>
+      <c r="J605" s="34"/>
       <c r="K605" s="5"/>
       <c r="L605" s="5"/>
       <c r="M605" s="5"/>
@@ -11928,7 +11946,7 @@
       <c r="G606" s="5"/>
       <c r="H606" s="4"/>
       <c r="I606" s="4"/>
-      <c r="J606" s="35"/>
+      <c r="J606" s="34"/>
       <c r="K606" s="5"/>
       <c r="L606" s="5"/>
       <c r="M606" s="5"/>
@@ -11944,7 +11962,7 @@
       <c r="G607" s="5"/>
       <c r="H607" s="4"/>
       <c r="I607" s="4"/>
-      <c r="J607" s="35"/>
+      <c r="J607" s="34"/>
       <c r="K607" s="5"/>
       <c r="L607" s="5"/>
       <c r="M607" s="5"/>
@@ -11960,7 +11978,7 @@
       <c r="G608" s="5"/>
       <c r="H608" s="4"/>
       <c r="I608" s="4"/>
-      <c r="J608" s="35"/>
+      <c r="J608" s="34"/>
       <c r="K608" s="5"/>
       <c r="L608" s="5"/>
       <c r="M608" s="5"/>
@@ -11976,7 +11994,7 @@
       <c r="G609" s="5"/>
       <c r="H609" s="4"/>
       <c r="I609" s="4"/>
-      <c r="J609" s="35"/>
+      <c r="J609" s="34"/>
       <c r="K609" s="5"/>
       <c r="L609" s="5"/>
       <c r="M609" s="5"/>
@@ -11992,7 +12010,7 @@
       <c r="G610" s="5"/>
       <c r="H610" s="4"/>
       <c r="I610" s="4"/>
-      <c r="J610" s="35"/>
+      <c r="J610" s="34"/>
       <c r="K610" s="5"/>
       <c r="L610" s="5"/>
       <c r="M610" s="5"/>
@@ -12008,7 +12026,7 @@
       <c r="G611" s="5"/>
       <c r="H611" s="4"/>
       <c r="I611" s="4"/>
-      <c r="J611" s="35"/>
+      <c r="J611" s="34"/>
       <c r="K611" s="5"/>
       <c r="L611" s="5"/>
       <c r="M611" s="5"/>
@@ -12024,7 +12042,7 @@
       <c r="G612" s="5"/>
       <c r="H612" s="4"/>
       <c r="I612" s="4"/>
-      <c r="J612" s="35"/>
+      <c r="J612" s="34"/>
       <c r="K612" s="5"/>
       <c r="L612" s="5"/>
       <c r="M612" s="5"/>
@@ -12040,7 +12058,7 @@
       <c r="G613" s="5"/>
       <c r="H613" s="4"/>
       <c r="I613" s="4"/>
-      <c r="J613" s="35"/>
+      <c r="J613" s="34"/>
       <c r="K613" s="5"/>
       <c r="L613" s="5"/>
       <c r="M613" s="5"/>
@@ -12056,7 +12074,7 @@
       <c r="G614" s="5"/>
       <c r="H614" s="4"/>
       <c r="I614" s="4"/>
-      <c r="J614" s="35"/>
+      <c r="J614" s="34"/>
       <c r="K614" s="5"/>
       <c r="L614" s="5"/>
       <c r="M614" s="5"/>
@@ -12072,7 +12090,7 @@
       <c r="G615" s="5"/>
       <c r="H615" s="4"/>
       <c r="I615" s="4"/>
-      <c r="J615" s="35"/>
+      <c r="J615" s="34"/>
       <c r="K615" s="5"/>
       <c r="L615" s="5"/>
       <c r="M615" s="5"/>
@@ -12088,7 +12106,7 @@
       <c r="G616" s="5"/>
       <c r="H616" s="4"/>
       <c r="I616" s="4"/>
-      <c r="J616" s="35"/>
+      <c r="J616" s="34"/>
       <c r="K616" s="5"/>
       <c r="L616" s="5"/>
       <c r="M616" s="5"/>
@@ -12104,7 +12122,7 @@
       <c r="G617" s="5"/>
       <c r="H617" s="4"/>
       <c r="I617" s="4"/>
-      <c r="J617" s="35"/>
+      <c r="J617" s="34"/>
       <c r="K617" s="5"/>
       <c r="L617" s="5"/>
       <c r="M617" s="5"/>
@@ -12120,7 +12138,7 @@
       <c r="G618" s="5"/>
       <c r="H618" s="4"/>
       <c r="I618" s="4"/>
-      <c r="J618" s="35"/>
+      <c r="J618" s="34"/>
       <c r="K618" s="5"/>
       <c r="L618" s="5"/>
       <c r="M618" s="5"/>
@@ -12136,7 +12154,7 @@
       <c r="G619" s="5"/>
       <c r="H619" s="4"/>
       <c r="I619" s="4"/>
-      <c r="J619" s="35"/>
+      <c r="J619" s="34"/>
       <c r="K619" s="5"/>
       <c r="L619" s="5"/>
       <c r="M619" s="5"/>
@@ -12152,7 +12170,7 @@
       <c r="G620" s="5"/>
       <c r="H620" s="4"/>
       <c r="I620" s="4"/>
-      <c r="J620" s="35"/>
+      <c r="J620" s="34"/>
       <c r="K620" s="5"/>
       <c r="L620" s="5"/>
       <c r="M620" s="5"/>
@@ -12168,7 +12186,7 @@
       <c r="G621" s="5"/>
       <c r="H621" s="4"/>
       <c r="I621" s="4"/>
-      <c r="J621" s="35"/>
+      <c r="J621" s="34"/>
       <c r="K621" s="5"/>
       <c r="L621" s="5"/>
       <c r="M621" s="5"/>
@@ -12184,7 +12202,7 @@
       <c r="G622" s="5"/>
       <c r="H622" s="4"/>
       <c r="I622" s="4"/>
-      <c r="J622" s="35"/>
+      <c r="J622" s="34"/>
       <c r="K622" s="5"/>
       <c r="L622" s="5"/>
       <c r="M622" s="5"/>
@@ -12200,7 +12218,7 @@
       <c r="G623" s="5"/>
       <c r="H623" s="4"/>
       <c r="I623" s="4"/>
-      <c r="J623" s="35"/>
+      <c r="J623" s="34"/>
       <c r="K623" s="5"/>
       <c r="L623" s="5"/>
       <c r="M623" s="5"/>
@@ -12216,7 +12234,7 @@
       <c r="G624" s="5"/>
       <c r="H624" s="4"/>
       <c r="I624" s="4"/>
-      <c r="J624" s="35"/>
+      <c r="J624" s="34"/>
       <c r="K624" s="5"/>
       <c r="L624" s="5"/>
       <c r="M624" s="5"/>
@@ -12232,7 +12250,7 @@
       <c r="G625" s="5"/>
       <c r="H625" s="4"/>
       <c r="I625" s="4"/>
-      <c r="J625" s="35"/>
+      <c r="J625" s="34"/>
       <c r="K625" s="5"/>
       <c r="L625" s="5"/>
       <c r="M625" s="5"/>
@@ -12248,7 +12266,7 @@
       <c r="G626" s="5"/>
       <c r="H626" s="4"/>
       <c r="I626" s="4"/>
-      <c r="J626" s="35"/>
+      <c r="J626" s="34"/>
       <c r="K626" s="5"/>
       <c r="L626" s="5"/>
       <c r="M626" s="5"/>
@@ -12264,7 +12282,7 @@
       <c r="G627" s="5"/>
       <c r="H627" s="4"/>
       <c r="I627" s="4"/>
-      <c r="J627" s="35"/>
+      <c r="J627" s="34"/>
       <c r="K627" s="5"/>
       <c r="L627" s="5"/>
       <c r="M627" s="5"/>
@@ -12280,7 +12298,7 @@
       <c r="G628" s="5"/>
       <c r="H628" s="4"/>
       <c r="I628" s="4"/>
-      <c r="J628" s="35"/>
+      <c r="J628" s="34"/>
       <c r="K628" s="5"/>
       <c r="L628" s="5"/>
       <c r="M628" s="5"/>
@@ -12296,7 +12314,7 @@
       <c r="G629" s="5"/>
       <c r="H629" s="4"/>
       <c r="I629" s="4"/>
-      <c r="J629" s="35"/>
+      <c r="J629" s="34"/>
       <c r="K629" s="5"/>
       <c r="L629" s="5"/>
       <c r="M629" s="5"/>
@@ -12312,7 +12330,7 @@
       <c r="G630" s="5"/>
       <c r="H630" s="4"/>
       <c r="I630" s="4"/>
-      <c r="J630" s="35"/>
+      <c r="J630" s="34"/>
       <c r="K630" s="5"/>
       <c r="L630" s="5"/>
       <c r="M630" s="5"/>
@@ -12328,7 +12346,7 @@
       <c r="G631" s="5"/>
       <c r="H631" s="4"/>
       <c r="I631" s="4"/>
-      <c r="J631" s="35"/>
+      <c r="J631" s="34"/>
       <c r="K631" s="5"/>
       <c r="L631" s="5"/>
       <c r="M631" s="5"/>
@@ -12344,7 +12362,7 @@
       <c r="G632" s="5"/>
       <c r="H632" s="4"/>
       <c r="I632" s="4"/>
-      <c r="J632" s="35"/>
+      <c r="J632" s="34"/>
       <c r="K632" s="5"/>
       <c r="L632" s="5"/>
       <c r="M632" s="5"/>
@@ -12360,7 +12378,7 @@
       <c r="G633" s="5"/>
       <c r="H633" s="4"/>
       <c r="I633" s="4"/>
-      <c r="J633" s="35"/>
+      <c r="J633" s="34"/>
       <c r="K633" s="5"/>
       <c r="L633" s="5"/>
       <c r="M633" s="5"/>
@@ -12376,7 +12394,7 @@
       <c r="G634" s="5"/>
       <c r="H634" s="4"/>
       <c r="I634" s="4"/>
-      <c r="J634" s="35"/>
+      <c r="J634" s="34"/>
       <c r="K634" s="5"/>
       <c r="L634" s="5"/>
       <c r="M634" s="5"/>
@@ -12392,7 +12410,7 @@
       <c r="G635" s="5"/>
       <c r="H635" s="4"/>
       <c r="I635" s="4"/>
-      <c r="J635" s="35"/>
+      <c r="J635" s="34"/>
       <c r="K635" s="5"/>
       <c r="L635" s="5"/>
       <c r="M635" s="5"/>
@@ -12408,7 +12426,7 @@
       <c r="G636" s="5"/>
       <c r="H636" s="4"/>
       <c r="I636" s="4"/>
-      <c r="J636" s="35"/>
+      <c r="J636" s="34"/>
       <c r="K636" s="5"/>
       <c r="L636" s="5"/>
       <c r="M636" s="5"/>
@@ -12424,7 +12442,7 @@
       <c r="G637" s="5"/>
       <c r="H637" s="4"/>
       <c r="I637" s="4"/>
-      <c r="J637" s="35"/>
+      <c r="J637" s="34"/>
       <c r="K637" s="5"/>
       <c r="L637" s="5"/>
       <c r="M637" s="5"/>
@@ -12440,7 +12458,7 @@
       <c r="G638" s="5"/>
       <c r="H638" s="4"/>
       <c r="I638" s="4"/>
-      <c r="J638" s="35"/>
+      <c r="J638" s="34"/>
       <c r="K638" s="5"/>
       <c r="L638" s="5"/>
       <c r="M638" s="5"/>
@@ -12456,7 +12474,7 @@
       <c r="G639" s="5"/>
       <c r="H639" s="4"/>
       <c r="I639" s="4"/>
-      <c r="J639" s="35"/>
+      <c r="J639" s="34"/>
       <c r="K639" s="5"/>
       <c r="L639" s="5"/>
       <c r="M639" s="5"/>
@@ -12472,7 +12490,7 @@
       <c r="G640" s="5"/>
       <c r="H640" s="4"/>
       <c r="I640" s="4"/>
-      <c r="J640" s="35"/>
+      <c r="J640" s="34"/>
       <c r="K640" s="5"/>
       <c r="L640" s="5"/>
       <c r="M640" s="5"/>
@@ -12488,7 +12506,7 @@
       <c r="G641" s="5"/>
       <c r="H641" s="4"/>
       <c r="I641" s="4"/>
-      <c r="J641" s="35"/>
+      <c r="J641" s="34"/>
       <c r="K641" s="5"/>
       <c r="L641" s="5"/>
       <c r="M641" s="5"/>
@@ -12504,7 +12522,7 @@
       <c r="G642" s="5"/>
       <c r="H642" s="4"/>
       <c r="I642" s="4"/>
-      <c r="J642" s="35"/>
+      <c r="J642" s="34"/>
       <c r="K642" s="5"/>
       <c r="L642" s="5"/>
       <c r="M642" s="5"/>
@@ -12520,7 +12538,7 @@
       <c r="G643" s="5"/>
       <c r="H643" s="4"/>
       <c r="I643" s="4"/>
-      <c r="J643" s="35"/>
+      <c r="J643" s="34"/>
       <c r="K643" s="5"/>
       <c r="L643" s="5"/>
       <c r="M643" s="5"/>
@@ -12536,7 +12554,7 @@
       <c r="G644" s="5"/>
       <c r="H644" s="4"/>
       <c r="I644" s="4"/>
-      <c r="J644" s="35"/>
+      <c r="J644" s="34"/>
       <c r="K644" s="5"/>
       <c r="L644" s="5"/>
       <c r="M644" s="5"/>
@@ -12552,7 +12570,7 @@
       <c r="G645" s="5"/>
       <c r="H645" s="4"/>
       <c r="I645" s="4"/>
-      <c r="J645" s="35"/>
+      <c r="J645" s="34"/>
       <c r="K645" s="5"/>
       <c r="L645" s="5"/>
       <c r="M645" s="5"/>
@@ -12568,7 +12586,7 @@
       <c r="G646" s="5"/>
       <c r="H646" s="4"/>
       <c r="I646" s="4"/>
-      <c r="J646" s="35"/>
+      <c r="J646" s="34"/>
       <c r="K646" s="5"/>
       <c r="L646" s="5"/>
       <c r="M646" s="5"/>
@@ -12584,7 +12602,7 @@
       <c r="G647" s="5"/>
       <c r="H647" s="4"/>
       <c r="I647" s="4"/>
-      <c r="J647" s="35"/>
+      <c r="J647" s="34"/>
       <c r="K647" s="5"/>
       <c r="L647" s="5"/>
       <c r="M647" s="5"/>
@@ -12600,7 +12618,7 @@
       <c r="G648" s="5"/>
       <c r="H648" s="4"/>
       <c r="I648" s="4"/>
-      <c r="J648" s="35"/>
+      <c r="J648" s="34"/>
       <c r="K648" s="5"/>
       <c r="L648" s="5"/>
       <c r="M648" s="5"/>
@@ -12616,7 +12634,7 @@
       <c r="G649" s="5"/>
       <c r="H649" s="4"/>
       <c r="I649" s="4"/>
-      <c r="J649" s="35"/>
+      <c r="J649" s="34"/>
       <c r="K649" s="5"/>
       <c r="L649" s="5"/>
       <c r="M649" s="5"/>
@@ -12632,7 +12650,7 @@
       <c r="G650" s="5"/>
       <c r="H650" s="4"/>
       <c r="I650" s="4"/>
-      <c r="J650" s="35"/>
+      <c r="J650" s="34"/>
       <c r="K650" s="5"/>
       <c r="L650" s="5"/>
       <c r="M650" s="5"/>
@@ -12648,7 +12666,7 @@
       <c r="G651" s="5"/>
       <c r="H651" s="4"/>
       <c r="I651" s="4"/>
-      <c r="J651" s="35"/>
+      <c r="J651" s="34"/>
       <c r="K651" s="5"/>
       <c r="L651" s="5"/>
       <c r="M651" s="5"/>
@@ -12664,7 +12682,7 @@
       <c r="G652" s="5"/>
       <c r="H652" s="4"/>
       <c r="I652" s="4"/>
-      <c r="J652" s="35"/>
+      <c r="J652" s="34"/>
       <c r="K652" s="5"/>
       <c r="L652" s="5"/>
       <c r="M652" s="5"/>
@@ -12680,7 +12698,7 @@
       <c r="G653" s="5"/>
       <c r="H653" s="4"/>
       <c r="I653" s="4"/>
-      <c r="J653" s="35"/>
+      <c r="J653" s="34"/>
       <c r="K653" s="5"/>
       <c r="L653" s="5"/>
       <c r="M653" s="5"/>
@@ -12696,7 +12714,7 @@
       <c r="G654" s="5"/>
       <c r="H654" s="4"/>
       <c r="I654" s="4"/>
-      <c r="J654" s="35"/>
+      <c r="J654" s="34"/>
       <c r="K654" s="5"/>
       <c r="L654" s="5"/>
       <c r="M654" s="5"/>
@@ -12712,7 +12730,7 @@
       <c r="G655" s="5"/>
       <c r="H655" s="4"/>
       <c r="I655" s="4"/>
-      <c r="J655" s="35"/>
+      <c r="J655" s="34"/>
       <c r="K655" s="5"/>
       <c r="L655" s="5"/>
       <c r="M655" s="5"/>
@@ -12728,7 +12746,7 @@
       <c r="G656" s="5"/>
       <c r="H656" s="4"/>
       <c r="I656" s="4"/>
-      <c r="J656" s="35"/>
+      <c r="J656" s="34"/>
       <c r="K656" s="5"/>
       <c r="L656" s="5"/>
       <c r="M656" s="5"/>
@@ -12744,7 +12762,7 @@
       <c r="G657" s="5"/>
       <c r="H657" s="4"/>
       <c r="I657" s="4"/>
-      <c r="J657" s="35"/>
+      <c r="J657" s="34"/>
       <c r="K657" s="5"/>
       <c r="L657" s="5"/>
       <c r="M657" s="5"/>
@@ -12760,7 +12778,7 @@
       <c r="G658" s="5"/>
       <c r="H658" s="4"/>
       <c r="I658" s="4"/>
-      <c r="J658" s="35"/>
+      <c r="J658" s="34"/>
       <c r="K658" s="5"/>
       <c r="L658" s="5"/>
       <c r="M658" s="5"/>
@@ -12776,7 +12794,7 @@
       <c r="G659" s="5"/>
       <c r="H659" s="4"/>
       <c r="I659" s="4"/>
-      <c r="J659" s="35"/>
+      <c r="J659" s="34"/>
       <c r="K659" s="5"/>
       <c r="L659" s="5"/>
       <c r="M659" s="5"/>
@@ -12792,7 +12810,7 @@
       <c r="G660" s="5"/>
       <c r="H660" s="4"/>
       <c r="I660" s="4"/>
-      <c r="J660" s="35"/>
+      <c r="J660" s="34"/>
       <c r="K660" s="5"/>
       <c r="L660" s="5"/>
       <c r="M660" s="5"/>
@@ -12808,7 +12826,7 @@
       <c r="G661" s="5"/>
       <c r="H661" s="4"/>
       <c r="I661" s="4"/>
-      <c r="J661" s="35"/>
+      <c r="J661" s="34"/>
       <c r="K661" s="5"/>
       <c r="L661" s="5"/>
       <c r="M661" s="5"/>
@@ -12824,7 +12842,7 @@
       <c r="G662" s="5"/>
       <c r="H662" s="4"/>
       <c r="I662" s="4"/>
-      <c r="J662" s="35"/>
+      <c r="J662" s="34"/>
       <c r="K662" s="5"/>
       <c r="L662" s="5"/>
       <c r="M662" s="5"/>
@@ -12840,7 +12858,7 @@
       <c r="G663" s="5"/>
       <c r="H663" s="4"/>
       <c r="I663" s="4"/>
-      <c r="J663" s="35"/>
+      <c r="J663" s="34"/>
       <c r="K663" s="5"/>
       <c r="L663" s="5"/>
       <c r="M663" s="5"/>
@@ -12856,7 +12874,7 @@
       <c r="G664" s="5"/>
       <c r="H664" s="4"/>
       <c r="I664" s="4"/>
-      <c r="J664" s="35"/>
+      <c r="J664" s="34"/>
       <c r="K664" s="5"/>
       <c r="L664" s="5"/>
       <c r="M664" s="5"/>
@@ -12872,7 +12890,7 @@
       <c r="G665" s="5"/>
       <c r="H665" s="4"/>
       <c r="I665" s="4"/>
-      <c r="J665" s="35"/>
+      <c r="J665" s="34"/>
       <c r="K665" s="5"/>
       <c r="L665" s="5"/>
       <c r="M665" s="5"/>
@@ -12888,7 +12906,7 @@
       <c r="G666" s="5"/>
       <c r="H666" s="4"/>
       <c r="I666" s="4"/>
-      <c r="J666" s="35"/>
+      <c r="J666" s="34"/>
       <c r="K666" s="5"/>
       <c r="L666" s="5"/>
       <c r="M666" s="5"/>
@@ -12904,7 +12922,7 @@
       <c r="G667" s="5"/>
       <c r="H667" s="4"/>
       <c r="I667" s="4"/>
-      <c r="J667" s="35"/>
+      <c r="J667" s="34"/>
       <c r="K667" s="5"/>
       <c r="L667" s="5"/>
       <c r="M667" s="5"/>
@@ -12920,7 +12938,7 @@
       <c r="G668" s="5"/>
       <c r="H668" s="4"/>
       <c r="I668" s="4"/>
-      <c r="J668" s="35"/>
+      <c r="J668" s="34"/>
       <c r="K668" s="5"/>
       <c r="L668" s="5"/>
       <c r="M668" s="5"/>
@@ -12936,7 +12954,7 @@
       <c r="G669" s="5"/>
       <c r="H669" s="4"/>
       <c r="I669" s="4"/>
-      <c r="J669" s="35"/>
+      <c r="J669" s="34"/>
       <c r="K669" s="5"/>
       <c r="L669" s="5"/>
       <c r="M669" s="5"/>
@@ -12952,7 +12970,7 @@
       <c r="G670" s="5"/>
       <c r="H670" s="4"/>
       <c r="I670" s="4"/>
-      <c r="J670" s="35"/>
+      <c r="J670" s="34"/>
       <c r="K670" s="5"/>
       <c r="L670" s="5"/>
       <c r="M670" s="5"/>
@@ -12968,7 +12986,7 @@
       <c r="G671" s="5"/>
       <c r="H671" s="4"/>
       <c r="I671" s="4"/>
-      <c r="J671" s="35"/>
+      <c r="J671" s="34"/>
       <c r="K671" s="5"/>
       <c r="L671" s="5"/>
       <c r="M671" s="5"/>
@@ -12984,7 +13002,7 @@
       <c r="G672" s="5"/>
       <c r="H672" s="4"/>
       <c r="I672" s="4"/>
-      <c r="J672" s="35"/>
+      <c r="J672" s="34"/>
       <c r="K672" s="5"/>
       <c r="L672" s="5"/>
       <c r="M672" s="5"/>
@@ -13000,7 +13018,7 @@
       <c r="G673" s="5"/>
       <c r="H673" s="4"/>
       <c r="I673" s="4"/>
-      <c r="J673" s="35"/>
+      <c r="J673" s="34"/>
       <c r="K673" s="5"/>
       <c r="L673" s="5"/>
       <c r="M673" s="5"/>
@@ -13016,7 +13034,7 @@
       <c r="G674" s="5"/>
       <c r="H674" s="4"/>
       <c r="I674" s="4"/>
-      <c r="J674" s="35"/>
+      <c r="J674" s="34"/>
       <c r="K674" s="5"/>
       <c r="L674" s="5"/>
       <c r="M674" s="5"/>
@@ -13032,7 +13050,7 @@
       <c r="G675" s="5"/>
       <c r="H675" s="4"/>
       <c r="I675" s="4"/>
-      <c r="J675" s="35"/>
+      <c r="J675" s="34"/>
       <c r="K675" s="5"/>
       <c r="L675" s="5"/>
       <c r="M675" s="5"/>
@@ -13048,7 +13066,7 @@
       <c r="G676" s="5"/>
       <c r="H676" s="4"/>
       <c r="I676" s="4"/>
-      <c r="J676" s="35"/>
+      <c r="J676" s="34"/>
       <c r="K676" s="5"/>
       <c r="L676" s="5"/>
       <c r="M676" s="5"/>
@@ -13064,7 +13082,7 @@
       <c r="G677" s="5"/>
       <c r="H677" s="4"/>
       <c r="I677" s="4"/>
-      <c r="J677" s="35"/>
+      <c r="J677" s="34"/>
       <c r="K677" s="5"/>
       <c r="L677" s="5"/>
       <c r="M677" s="5"/>
@@ -13080,7 +13098,7 @@
       <c r="G678" s="5"/>
       <c r="H678" s="4"/>
       <c r="I678" s="4"/>
-      <c r="J678" s="35"/>
+      <c r="J678" s="34"/>
       <c r="K678" s="5"/>
       <c r="L678" s="5"/>
       <c r="M678" s="5"/>
@@ -13096,7 +13114,7 @@
       <c r="G679" s="5"/>
       <c r="H679" s="4"/>
       <c r="I679" s="4"/>
-      <c r="J679" s="35"/>
+      <c r="J679" s="34"/>
       <c r="K679" s="5"/>
       <c r="L679" s="5"/>
       <c r="M679" s="5"/>
@@ -13112,7 +13130,7 @@
       <c r="G680" s="5"/>
       <c r="H680" s="4"/>
       <c r="I680" s="4"/>
-      <c r="J680" s="35"/>
+      <c r="J680" s="34"/>
       <c r="K680" s="5"/>
       <c r="L680" s="5"/>
       <c r="M680" s="5"/>
@@ -13128,7 +13146,7 @@
       <c r="G681" s="5"/>
       <c r="H681" s="4"/>
       <c r="I681" s="4"/>
-      <c r="J681" s="35"/>
+      <c r="J681" s="34"/>
       <c r="K681" s="5"/>
       <c r="L681" s="5"/>
       <c r="M681" s="5"/>
@@ -13144,7 +13162,7 @@
       <c r="G682" s="5"/>
       <c r="H682" s="4"/>
       <c r="I682" s="4"/>
-      <c r="J682" s="35"/>
+      <c r="J682" s="34"/>
       <c r="K682" s="5"/>
       <c r="L682" s="5"/>
       <c r="M682" s="5"/>
@@ -13160,7 +13178,7 @@
       <c r="G683" s="5"/>
       <c r="H683" s="4"/>
       <c r="I683" s="4"/>
-      <c r="J683" s="35"/>
+      <c r="J683" s="34"/>
       <c r="K683" s="5"/>
       <c r="L683" s="5"/>
       <c r="M683" s="5"/>
@@ -13176,7 +13194,7 @@
       <c r="G684" s="5"/>
       <c r="H684" s="4"/>
       <c r="I684" s="4"/>
-      <c r="J684" s="35"/>
+      <c r="J684" s="34"/>
       <c r="K684" s="5"/>
       <c r="L684" s="5"/>
       <c r="M684" s="5"/>
@@ -13192,7 +13210,7 @@
       <c r="G685" s="5"/>
       <c r="H685" s="4"/>
       <c r="I685" s="4"/>
-      <c r="J685" s="35"/>
+      <c r="J685" s="34"/>
       <c r="K685" s="5"/>
       <c r="L685" s="5"/>
       <c r="M685" s="5"/>
@@ -13208,7 +13226,7 @@
       <c r="G686" s="5"/>
       <c r="H686" s="4"/>
       <c r="I686" s="4"/>
-      <c r="J686" s="35"/>
+      <c r="J686" s="34"/>
       <c r="K686" s="5"/>
       <c r="L686" s="5"/>
       <c r="M686" s="5"/>
@@ -13224,7 +13242,7 @@
       <c r="G687" s="5"/>
       <c r="H687" s="4"/>
       <c r="I687" s="4"/>
-      <c r="J687" s="35"/>
+      <c r="J687" s="34"/>
       <c r="K687" s="5"/>
       <c r="L687" s="5"/>
       <c r="M687" s="5"/>
@@ -13240,7 +13258,7 @@
       <c r="G688" s="5"/>
       <c r="H688" s="4"/>
       <c r="I688" s="4"/>
-      <c r="J688" s="35"/>
+      <c r="J688" s="34"/>
       <c r="K688" s="5"/>
       <c r="L688" s="5"/>
       <c r="M688" s="5"/>
@@ -13256,7 +13274,7 @@
       <c r="G689" s="5"/>
       <c r="H689" s="4"/>
       <c r="I689" s="4"/>
-      <c r="J689" s="35"/>
+      <c r="J689" s="34"/>
       <c r="K689" s="5"/>
       <c r="L689" s="5"/>
       <c r="M689" s="5"/>
@@ -13272,7 +13290,7 @@
       <c r="G690" s="5"/>
       <c r="H690" s="4"/>
       <c r="I690" s="4"/>
-      <c r="J690" s="35"/>
+      <c r="J690" s="34"/>
       <c r="K690" s="5"/>
       <c r="L690" s="5"/>
       <c r="M690" s="5"/>
@@ -13288,7 +13306,7 @@
       <c r="G691" s="5"/>
       <c r="H691" s="4"/>
       <c r="I691" s="4"/>
-      <c r="J691" s="35"/>
+      <c r="J691" s="34"/>
       <c r="K691" s="5"/>
       <c r="L691" s="5"/>
       <c r="M691" s="5"/>
@@ -13304,7 +13322,7 @@
       <c r="G692" s="5"/>
       <c r="H692" s="4"/>
       <c r="I692" s="4"/>
-      <c r="J692" s="35"/>
+      <c r="J692" s="34"/>
       <c r="K692" s="5"/>
       <c r="L692" s="5"/>
       <c r="M692" s="5"/>
@@ -13320,7 +13338,7 @@
       <c r="G693" s="5"/>
       <c r="H693" s="4"/>
       <c r="I693" s="4"/>
-      <c r="J693" s="35"/>
+      <c r="J693" s="34"/>
       <c r="K693" s="5"/>
       <c r="L693" s="5"/>
       <c r="M693" s="5"/>
@@ -13336,7 +13354,7 @@
       <c r="G694" s="5"/>
       <c r="H694" s="4"/>
       <c r="I694" s="4"/>
-      <c r="J694" s="35"/>
+      <c r="J694" s="34"/>
       <c r="K694" s="5"/>
       <c r="L694" s="5"/>
       <c r="M694" s="5"/>
@@ -13352,7 +13370,7 @@
       <c r="G695" s="5"/>
       <c r="H695" s="4"/>
       <c r="I695" s="4"/>
-      <c r="J695" s="35"/>
+      <c r="J695" s="34"/>
       <c r="K695" s="5"/>
       <c r="L695" s="5"/>
       <c r="M695" s="5"/>
@@ -13368,7 +13386,7 @@
       <c r="G696" s="5"/>
       <c r="H696" s="4"/>
       <c r="I696" s="4"/>
-      <c r="J696" s="35"/>
+      <c r="J696" s="34"/>
       <c r="K696" s="5"/>
       <c r="L696" s="5"/>
       <c r="M696" s="5"/>
@@ -13384,7 +13402,7 @@
       <c r="G697" s="5"/>
       <c r="H697" s="4"/>
       <c r="I697" s="4"/>
-      <c r="J697" s="35"/>
+      <c r="J697" s="34"/>
       <c r="K697" s="5"/>
       <c r="L697" s="5"/>
       <c r="M697" s="5"/>
@@ -13400,7 +13418,7 @@
       <c r="G698" s="5"/>
       <c r="H698" s="4"/>
       <c r="I698" s="4"/>
-      <c r="J698" s="35"/>
+      <c r="J698" s="34"/>
       <c r="K698" s="5"/>
       <c r="L698" s="5"/>
       <c r="M698" s="5"/>
@@ -13416,7 +13434,7 @@
       <c r="G699" s="5"/>
       <c r="H699" s="4"/>
       <c r="I699" s="4"/>
-      <c r="J699" s="35"/>
+      <c r="J699" s="34"/>
       <c r="K699" s="5"/>
       <c r="L699" s="5"/>
       <c r="M699" s="5"/>
@@ -13432,7 +13450,7 @@
       <c r="G700" s="5"/>
       <c r="H700" s="4"/>
       <c r="I700" s="4"/>
-      <c r="J700" s="35"/>
+      <c r="J700" s="34"/>
       <c r="K700" s="5"/>
       <c r="L700" s="5"/>
       <c r="M700" s="5"/>
@@ -13448,7 +13466,7 @@
       <c r="G701" s="5"/>
       <c r="H701" s="4"/>
       <c r="I701" s="4"/>
-      <c r="J701" s="35"/>
+      <c r="J701" s="34"/>
       <c r="K701" s="5"/>
       <c r="L701" s="5"/>
       <c r="M701" s="5"/>
@@ -13464,7 +13482,7 @@
       <c r="G702" s="5"/>
       <c r="H702" s="4"/>
       <c r="I702" s="4"/>
-      <c r="J702" s="35"/>
+      <c r="J702" s="34"/>
       <c r="K702" s="5"/>
       <c r="L702" s="5"/>
       <c r="M702" s="5"/>
@@ -13480,7 +13498,7 @@
       <c r="G703" s="5"/>
       <c r="H703" s="4"/>
       <c r="I703" s="4"/>
-      <c r="J703" s="35"/>
+      <c r="J703" s="34"/>
       <c r="K703" s="5"/>
       <c r="L703" s="5"/>
       <c r="M703" s="5"/>
@@ -13496,7 +13514,7 @@
       <c r="G704" s="5"/>
       <c r="H704" s="4"/>
       <c r="I704" s="4"/>
-      <c r="J704" s="35"/>
+      <c r="J704" s="34"/>
       <c r="K704" s="5"/>
       <c r="L704" s="5"/>
       <c r="M704" s="5"/>
@@ -13512,7 +13530,7 @@
       <c r="G705" s="5"/>
       <c r="H705" s="4"/>
       <c r="I705" s="4"/>
-      <c r="J705" s="35"/>
+      <c r="J705" s="34"/>
       <c r="K705" s="5"/>
       <c r="L705" s="5"/>
       <c r="M705" s="5"/>
@@ -13528,7 +13546,7 @@
       <c r="G706" s="5"/>
       <c r="H706" s="4"/>
       <c r="I706" s="4"/>
-      <c r="J706" s="35"/>
+      <c r="J706" s="34"/>
       <c r="K706" s="5"/>
       <c r="L706" s="5"/>
       <c r="M706" s="5"/>
@@ -13544,7 +13562,7 @@
       <c r="G707" s="5"/>
       <c r="H707" s="4"/>
       <c r="I707" s="4"/>
-      <c r="J707" s="35"/>
+      <c r="J707" s="34"/>
       <c r="K707" s="5"/>
       <c r="L707" s="5"/>
       <c r="M707" s="5"/>
@@ -13560,7 +13578,7 @@
       <c r="G708" s="5"/>
       <c r="H708" s="4"/>
       <c r="I708" s="4"/>
-      <c r="J708" s="35"/>
+      <c r="J708" s="34"/>
       <c r="K708" s="5"/>
       <c r="L708" s="5"/>
       <c r="M708" s="5"/>
@@ -13576,7 +13594,7 @@
       <c r="G709" s="5"/>
       <c r="H709" s="4"/>
       <c r="I709" s="4"/>
-      <c r="J709" s="35"/>
+      <c r="J709" s="34"/>
       <c r="K709" s="5"/>
       <c r="L709" s="5"/>
       <c r="M709" s="5"/>
@@ -13592,7 +13610,7 @@
       <c r="G710" s="5"/>
       <c r="H710" s="4"/>
       <c r="I710" s="4"/>
-      <c r="J710" s="35"/>
+      <c r="J710" s="34"/>
       <c r="K710" s="5"/>
       <c r="L710" s="5"/>
       <c r="M710" s="5"/>
@@ -13608,7 +13626,7 @@
       <c r="G711" s="5"/>
       <c r="H711" s="4"/>
       <c r="I711" s="4"/>
-      <c r="J711" s="35"/>
+      <c r="J711" s="34"/>
       <c r="K711" s="5"/>
       <c r="L711" s="5"/>
       <c r="M711" s="5"/>
@@ -13624,7 +13642,7 @@
       <c r="G712" s="5"/>
       <c r="H712" s="4"/>
       <c r="I712" s="4"/>
-      <c r="J712" s="35"/>
+      <c r="J712" s="34"/>
       <c r="K712" s="5"/>
       <c r="L712" s="5"/>
       <c r="M712" s="5"/>
@@ -13640,7 +13658,7 @@
       <c r="G713" s="5"/>
       <c r="H713" s="4"/>
       <c r="I713" s="4"/>
-      <c r="J713" s="35"/>
+      <c r="J713" s="34"/>
       <c r="K713" s="5"/>
       <c r="L713" s="5"/>
       <c r="M713" s="5"/>
@@ -13656,7 +13674,7 @@
       <c r="G714" s="5"/>
       <c r="H714" s="4"/>
       <c r="I714" s="4"/>
-      <c r="J714" s="35"/>
+      <c r="J714" s="34"/>
       <c r="K714" s="5"/>
       <c r="L714" s="5"/>
       <c r="M714" s="5"/>
@@ -13672,7 +13690,7 @@
       <c r="G715" s="5"/>
       <c r="H715" s="4"/>
       <c r="I715" s="4"/>
-      <c r="J715" s="35"/>
+      <c r="J715" s="34"/>
       <c r="K715" s="5"/>
       <c r="L715" s="5"/>
       <c r="M715" s="5"/>
@@ -13688,7 +13706,7 @@
       <c r="G716" s="5"/>
       <c r="H716" s="4"/>
       <c r="I716" s="4"/>
-      <c r="J716" s="35"/>
+      <c r="J716" s="34"/>
       <c r="K716" s="5"/>
       <c r="L716" s="5"/>
       <c r="M716" s="5"/>
@@ -13704,7 +13722,7 @@
       <c r="G717" s="5"/>
       <c r="H717" s="4"/>
       <c r="I717" s="4"/>
-      <c r="J717" s="35"/>
+      <c r="J717" s="34"/>
       <c r="K717" s="5"/>
       <c r="L717" s="5"/>
       <c r="M717" s="5"/>
@@ -13720,7 +13738,7 @@
       <c r="G718" s="5"/>
       <c r="H718" s="4"/>
       <c r="I718" s="4"/>
-      <c r="J718" s="35"/>
+      <c r="J718" s="34"/>
       <c r="K718" s="5"/>
       <c r="L718" s="5"/>
       <c r="M718" s="5"/>
@@ -13736,7 +13754,7 @@
       <c r="G719" s="5"/>
       <c r="H719" s="4"/>
       <c r="I719" s="4"/>
-      <c r="J719" s="35"/>
+      <c r="J719" s="34"/>
       <c r="K719" s="5"/>
       <c r="L719" s="5"/>
       <c r="M719" s="5"/>
@@ -13752,7 +13770,7 @@
       <c r="G720" s="5"/>
       <c r="H720" s="4"/>
       <c r="I720" s="4"/>
-      <c r="J720" s="35"/>
+      <c r="J720" s="34"/>
       <c r="K720" s="5"/>
       <c r="L720" s="5"/>
       <c r="M720" s="5"/>
@@ -13768,7 +13786,7 @@
       <c r="G721" s="5"/>
       <c r="H721" s="4"/>
       <c r="I721" s="4"/>
-      <c r="J721" s="35"/>
+      <c r="J721" s="34"/>
       <c r="K721" s="5"/>
       <c r="L721" s="5"/>
       <c r="M721" s="5"/>
@@ -13784,7 +13802,7 @@
       <c r="G722" s="5"/>
       <c r="H722" s="4"/>
       <c r="I722" s="4"/>
-      <c r="J722" s="35"/>
+      <c r="J722" s="34"/>
       <c r="K722" s="5"/>
       <c r="L722" s="5"/>
       <c r="M722" s="5"/>
@@ -13800,7 +13818,7 @@
       <c r="G723" s="5"/>
       <c r="H723" s="4"/>
       <c r="I723" s="4"/>
-      <c r="J723" s="35"/>
+      <c r="J723" s="34"/>
       <c r="K723" s="5"/>
       <c r="L723" s="5"/>
       <c r="M723" s="5"/>
@@ -13816,7 +13834,7 @@
       <c r="G724" s="5"/>
       <c r="H724" s="4"/>
       <c r="I724" s="4"/>
-      <c r="J724" s="35"/>
+      <c r="J724" s="34"/>
       <c r="K724" s="5"/>
       <c r="L724" s="5"/>
       <c r="M724" s="5"/>
@@ -13832,7 +13850,7 @@
       <c r="G725" s="5"/>
       <c r="H725" s="4"/>
       <c r="I725" s="4"/>
-      <c r="J725" s="35"/>
+      <c r="J725" s="34"/>
       <c r="K725" s="5"/>
       <c r="L725" s="5"/>
       <c r="M725" s="5"/>
@@ -13848,7 +13866,7 @@
       <c r="G726" s="5"/>
       <c r="H726" s="4"/>
       <c r="I726" s="4"/>
-      <c r="J726" s="35"/>
+      <c r="J726" s="34"/>
       <c r="K726" s="5"/>
       <c r="L726" s="5"/>
       <c r="M726" s="5"/>
@@ -13864,7 +13882,7 @@
       <c r="G727" s="5"/>
       <c r="H727" s="4"/>
       <c r="I727" s="4"/>
-      <c r="J727" s="35"/>
+      <c r="J727" s="34"/>
       <c r="K727" s="5"/>
       <c r="L727" s="5"/>
       <c r="M727" s="5"/>
@@ -13880,7 +13898,7 @@
       <c r="G728" s="5"/>
       <c r="H728" s="4"/>
       <c r="I728" s="4"/>
-      <c r="J728" s="35"/>
+      <c r="J728" s="34"/>
       <c r="K728" s="5"/>
       <c r="L728" s="5"/>
       <c r="M728" s="5"/>
@@ -13896,7 +13914,7 @@
       <c r="G729" s="5"/>
       <c r="H729" s="4"/>
       <c r="I729" s="4"/>
-      <c r="J729" s="35"/>
+      <c r="J729" s="34"/>
       <c r="K729" s="5"/>
       <c r="L729" s="5"/>
       <c r="M729" s="5"/>
@@ -13912,7 +13930,7 @@
       <c r="G730" s="5"/>
       <c r="H730" s="4"/>
       <c r="I730" s="4"/>
-      <c r="J730" s="35"/>
+      <c r="J730" s="34"/>
       <c r="K730" s="5"/>
       <c r="L730" s="5"/>
       <c r="M730" s="5"/>
@@ -13928,7 +13946,7 @@
       <c r="G731" s="5"/>
       <c r="H731" s="4"/>
       <c r="I731" s="4"/>
-      <c r="J731" s="35"/>
+      <c r="J731" s="34"/>
       <c r="K731" s="5"/>
       <c r="L731" s="5"/>
       <c r="M731" s="5"/>
@@ -13944,7 +13962,7 @@
       <c r="G732" s="5"/>
       <c r="H732" s="4"/>
       <c r="I732" s="4"/>
-      <c r="J732" s="35"/>
+      <c r="J732" s="34"/>
       <c r="K732" s="5"/>
       <c r="L732" s="5"/>
       <c r="M732" s="5"/>
@@ -13960,7 +13978,7 @@
       <c r="G733" s="5"/>
       <c r="H733" s="4"/>
       <c r="I733" s="4"/>
-      <c r="J733" s="35"/>
+      <c r="J733" s="34"/>
       <c r="K733" s="5"/>
       <c r="L733" s="5"/>
       <c r="M733" s="5"/>
@@ -13976,7 +13994,7 @@
       <c r="G734" s="5"/>
       <c r="H734" s="4"/>
       <c r="I734" s="4"/>
-      <c r="J734" s="35"/>
+      <c r="J734" s="34"/>
       <c r="K734" s="5"/>
       <c r="L734" s="5"/>
       <c r="M734" s="5"/>
@@ -13992,7 +14010,7 @@
       <c r="G735" s="5"/>
       <c r="H735" s="4"/>
       <c r="I735" s="4"/>
-      <c r="J735" s="35"/>
+      <c r="J735" s="34"/>
       <c r="K735" s="5"/>
       <c r="L735" s="5"/>
       <c r="M735" s="5"/>
@@ -14008,7 +14026,7 @@
       <c r="G736" s="5"/>
       <c r="H736" s="4"/>
       <c r="I736" s="4"/>
-      <c r="J736" s="35"/>
+      <c r="J736" s="34"/>
       <c r="K736" s="5"/>
       <c r="L736" s="5"/>
       <c r="M736" s="5"/>
@@ -14024,7 +14042,7 @@
       <c r="G737" s="5"/>
       <c r="H737" s="4"/>
       <c r="I737" s="4"/>
-      <c r="J737" s="35"/>
+      <c r="J737" s="34"/>
       <c r="K737" s="5"/>
       <c r="L737" s="5"/>
       <c r="M737" s="5"/>
@@ -14040,7 +14058,7 @@
       <c r="G738" s="5"/>
       <c r="H738" s="4"/>
       <c r="I738" s="4"/>
-      <c r="J738" s="35"/>
+      <c r="J738" s="34"/>
       <c r="K738" s="5"/>
       <c r="L738" s="5"/>
       <c r="M738" s="5"/>
@@ -14056,7 +14074,7 @@
       <c r="G739" s="5"/>
       <c r="H739" s="4"/>
       <c r="I739" s="4"/>
-      <c r="J739" s="35"/>
+      <c r="J739" s="34"/>
       <c r="K739" s="5"/>
       <c r="L739" s="5"/>
       <c r="M739" s="5"/>
@@ -14072,7 +14090,7 @@
       <c r="G740" s="5"/>
       <c r="H740" s="4"/>
       <c r="I740" s="4"/>
-      <c r="J740" s="35"/>
+      <c r="J740" s="34"/>
       <c r="K740" s="5"/>
       <c r="L740" s="5"/>
       <c r="M740" s="5"/>
@@ -14088,7 +14106,7 @@
       <c r="G741" s="5"/>
       <c r="H741" s="4"/>
       <c r="I741" s="4"/>
-      <c r="J741" s="35"/>
+      <c r="J741" s="34"/>
       <c r="K741" s="5"/>
       <c r="L741" s="5"/>
       <c r="M741" s="5"/>
@@ -14104,7 +14122,7 @@
       <c r="G742" s="5"/>
       <c r="H742" s="4"/>
       <c r="I742" s="4"/>
-      <c r="J742" s="35"/>
+      <c r="J742" s="34"/>
       <c r="K742" s="5"/>
       <c r="L742" s="5"/>
       <c r="M742" s="5"/>
@@ -14120,7 +14138,7 @@
       <c r="G743" s="5"/>
       <c r="H743" s="4"/>
       <c r="I743" s="4"/>
-      <c r="J743" s="35"/>
+      <c r="J743" s="34"/>
       <c r="K743" s="5"/>
       <c r="L743" s="5"/>
       <c r="M743" s="5"/>
@@ -14136,7 +14154,7 @@
       <c r="G744" s="5"/>
       <c r="H744" s="4"/>
       <c r="I744" s="4"/>
-      <c r="J744" s="35"/>
+      <c r="J744" s="34"/>
       <c r="K744" s="5"/>
       <c r="L744" s="5"/>
       <c r="M744" s="5"/>
@@ -14152,7 +14170,7 @@
       <c r="G745" s="5"/>
       <c r="H745" s="4"/>
       <c r="I745" s="4"/>
-      <c r="J745" s="35"/>
+      <c r="J745" s="34"/>
       <c r="K745" s="5"/>
       <c r="L745" s="5"/>
       <c r="M745" s="5"/>
@@ -14168,7 +14186,7 @@
       <c r="G746" s="5"/>
       <c r="H746" s="4"/>
       <c r="I746" s="4"/>
-      <c r="J746" s="35"/>
+      <c r="J746" s="34"/>
       <c r="K746" s="5"/>
       <c r="L746" s="5"/>
       <c r="M746" s="5"/>
@@ -14184,7 +14202,7 @@
       <c r="G747" s="5"/>
       <c r="H747" s="4"/>
       <c r="I747" s="4"/>
-      <c r="J747" s="35"/>
+      <c r="J747" s="34"/>
       <c r="K747" s="5"/>
       <c r="L747" s="5"/>
       <c r="M747" s="5"/>
@@ -14200,7 +14218,7 @@
       <c r="G748" s="5"/>
       <c r="H748" s="4"/>
       <c r="I748" s="4"/>
-      <c r="J748" s="35"/>
+      <c r="J748" s="34"/>
       <c r="K748" s="5"/>
       <c r="L748" s="5"/>
       <c r="M748" s="5"/>
@@ -14216,7 +14234,7 @@
       <c r="G749" s="5"/>
       <c r="H749" s="4"/>
       <c r="I749" s="4"/>
-      <c r="J749" s="35"/>
+      <c r="J749" s="34"/>
       <c r="K749" s="5"/>
       <c r="L749" s="5"/>
       <c r="M749" s="5"/>
@@ -14232,7 +14250,7 @@
       <c r="G750" s="5"/>
       <c r="H750" s="4"/>
       <c r="I750" s="4"/>
-      <c r="J750" s="35"/>
+      <c r="J750" s="34"/>
       <c r="K750" s="5"/>
       <c r="L750" s="5"/>
       <c r="M750" s="5"/>
@@ -14248,7 +14266,7 @@
       <c r="G751" s="5"/>
       <c r="H751" s="4"/>
       <c r="I751" s="4"/>
-      <c r="J751" s="35"/>
+      <c r="J751" s="34"/>
       <c r="K751" s="5"/>
       <c r="L751" s="5"/>
       <c r="M751" s="5"/>
@@ -14264,7 +14282,7 @@
       <c r="G752" s="5"/>
       <c r="H752" s="4"/>
       <c r="I752" s="4"/>
-      <c r="J752" s="35"/>
+      <c r="J752" s="34"/>
       <c r="K752" s="5"/>
       <c r="L752" s="5"/>
       <c r="M752" s="5"/>
@@ -14280,7 +14298,7 @@
       <c r="G753" s="5"/>
       <c r="H753" s="4"/>
       <c r="I753" s="4"/>
-      <c r="J753" s="35"/>
+      <c r="J753" s="34"/>
       <c r="K753" s="5"/>
       <c r="L753" s="5"/>
       <c r="M753" s="5"/>
@@ -14296,7 +14314,7 @@
       <c r="G754" s="5"/>
       <c r="H754" s="4"/>
       <c r="I754" s="4"/>
-      <c r="J754" s="35"/>
+      <c r="J754" s="34"/>
       <c r="K754" s="5"/>
       <c r="L754" s="5"/>
       <c r="M754" s="5"/>
@@ -14312,7 +14330,7 @@
       <c r="G755" s="5"/>
       <c r="H755" s="4"/>
       <c r="I755" s="4"/>
-      <c r="J755" s="35"/>
+      <c r="J755" s="34"/>
       <c r="K755" s="5"/>
       <c r="L755" s="5"/>
       <c r="M755" s="5"/>
@@ -14328,7 +14346,7 @@
       <c r="G756" s="5"/>
       <c r="H756" s="4"/>
       <c r="I756" s="4"/>
-      <c r="J756" s="35"/>
+      <c r="J756" s="34"/>
       <c r="K756" s="5"/>
       <c r="L756" s="5"/>
       <c r="M756" s="5"/>
@@ -14344,7 +14362,7 @@
       <c r="G757" s="5"/>
       <c r="H757" s="4"/>
       <c r="I757" s="4"/>
-      <c r="J757" s="35"/>
+      <c r="J757" s="34"/>
       <c r="K757" s="5"/>
       <c r="L757" s="5"/>
       <c r="M757" s="5"/>
@@ -14360,7 +14378,7 @@
       <c r="G758" s="5"/>
       <c r="H758" s="4"/>
       <c r="I758" s="4"/>
-      <c r="J758" s="35"/>
+      <c r="J758" s="34"/>
       <c r="K758" s="5"/>
       <c r="L758" s="5"/>
       <c r="M758" s="5"/>
@@ -14376,7 +14394,7 @@
       <c r="G759" s="5"/>
       <c r="H759" s="4"/>
       <c r="I759" s="4"/>
-      <c r="J759" s="35"/>
+      <c r="J759" s="34"/>
       <c r="K759" s="5"/>
       <c r="L759" s="5"/>
       <c r="M759" s="5"/>
@@ -14392,7 +14410,7 @@
       <c r="G760" s="5"/>
       <c r="H760" s="4"/>
       <c r="I760" s="4"/>
-      <c r="J760" s="35"/>
+      <c r="J760" s="34"/>
       <c r="K760" s="5"/>
       <c r="L760" s="5"/>
       <c r="M760" s="5"/>
@@ -14408,7 +14426,7 @@
       <c r="G761" s="5"/>
       <c r="H761" s="4"/>
       <c r="I761" s="4"/>
-      <c r="J761" s="35"/>
+      <c r="J761" s="34"/>
       <c r="K761" s="5"/>
       <c r="L761" s="5"/>
       <c r="M761" s="5"/>
@@ -14424,7 +14442,7 @@
       <c r="G762" s="5"/>
       <c r="H762" s="4"/>
       <c r="I762" s="4"/>
-      <c r="J762" s="35"/>
+      <c r="J762" s="34"/>
       <c r="K762" s="5"/>
       <c r="L762" s="5"/>
       <c r="M762" s="5"/>
@@ -14440,7 +14458,7 @@
       <c r="G763" s="5"/>
       <c r="H763" s="4"/>
       <c r="I763" s="4"/>
-      <c r="J763" s="35"/>
+      <c r="J763" s="34"/>
       <c r="K763" s="5"/>
       <c r="L763" s="5"/>
       <c r="M763" s="5"/>
@@ -14456,7 +14474,7 @@
       <c r="G764" s="5"/>
       <c r="H764" s="4"/>
       <c r="I764" s="4"/>
-      <c r="J764" s="35"/>
+      <c r="J764" s="34"/>
       <c r="K764" s="5"/>
       <c r="L764" s="5"/>
       <c r="M764" s="5"/>
@@ -14472,7 +14490,7 @@
       <c r="G765" s="5"/>
       <c r="H765" s="4"/>
       <c r="I765" s="4"/>
-      <c r="J765" s="35"/>
+      <c r="J765" s="34"/>
       <c r="K765" s="5"/>
       <c r="L765" s="5"/>
       <c r="M765" s="5"/>
@@ -14488,7 +14506,7 @@
       <c r="G766" s="5"/>
       <c r="H766" s="4"/>
       <c r="I766" s="4"/>
-      <c r="J766" s="35"/>
+      <c r="J766" s="34"/>
       <c r="K766" s="5"/>
       <c r="L766" s="5"/>
       <c r="M766" s="5"/>
@@ -14504,7 +14522,7 @@
       <c r="G767" s="5"/>
       <c r="H767" s="4"/>
       <c r="I767" s="4"/>
-      <c r="J767" s="35"/>
+      <c r="J767" s="34"/>
       <c r="K767" s="5"/>
       <c r="L767" s="5"/>
       <c r="M767" s="5"/>
@@ -14520,7 +14538,7 @@
       <c r="G768" s="5"/>
       <c r="H768" s="4"/>
       <c r="I768" s="4"/>
-      <c r="J768" s="35"/>
+      <c r="J768" s="34"/>
       <c r="K768" s="5"/>
       <c r="L768" s="5"/>
       <c r="M768" s="5"/>
@@ -14536,7 +14554,7 @@
       <c r="G769" s="5"/>
       <c r="H769" s="4"/>
       <c r="I769" s="4"/>
-      <c r="J769" s="35"/>
+      <c r="J769" s="34"/>
       <c r="K769" s="5"/>
       <c r="L769" s="5"/>
       <c r="M769" s="5"/>
@@ -14552,7 +14570,7 @@
       <c r="G770" s="5"/>
       <c r="H770" s="4"/>
       <c r="I770" s="4"/>
-      <c r="J770" s="35"/>
+      <c r="J770" s="34"/>
       <c r="K770" s="5"/>
       <c r="L770" s="5"/>
       <c r="M770" s="5"/>
@@ -14568,7 +14586,7 @@
       <c r="G771" s="5"/>
       <c r="H771" s="4"/>
       <c r="I771" s="4"/>
-      <c r="J771" s="35"/>
+      <c r="J771" s="34"/>
       <c r="K771" s="5"/>
       <c r="L771" s="5"/>
       <c r="M771" s="5"/>
@@ -14584,7 +14602,7 @@
       <c r="G772" s="5"/>
       <c r="H772" s="4"/>
       <c r="I772" s="4"/>
-      <c r="J772" s="35"/>
+      <c r="J772" s="34"/>
       <c r="K772" s="5"/>
       <c r="L772" s="5"/>
       <c r="M772" s="5"/>
@@ -14600,7 +14618,7 @@
       <c r="G773" s="5"/>
       <c r="H773" s="4"/>
       <c r="I773" s="4"/>
-      <c r="J773" s="35"/>
+      <c r="J773" s="34"/>
       <c r="K773" s="5"/>
       <c r="L773" s="5"/>
       <c r="M773" s="5"/>
@@ -14616,7 +14634,7 @@
       <c r="G774" s="5"/>
       <c r="H774" s="4"/>
       <c r="I774" s="4"/>
-      <c r="J774" s="35"/>
+      <c r="J774" s="34"/>
       <c r="K774" s="5"/>
       <c r="L774" s="5"/>
       <c r="M774" s="5"/>
@@ -14632,7 +14650,7 @@
       <c r="G775" s="5"/>
       <c r="H775" s="4"/>
       <c r="I775" s="4"/>
-      <c r="J775" s="35"/>
+      <c r="J775" s="34"/>
       <c r="K775" s="5"/>
       <c r="L775" s="5"/>
       <c r="M775" s="5"/>
@@ -14648,7 +14666,7 @@
       <c r="G776" s="5"/>
       <c r="H776" s="4"/>
       <c r="I776" s="4"/>
-      <c r="J776" s="35"/>
+      <c r="J776" s="34"/>
       <c r="K776" s="5"/>
       <c r="L776" s="5"/>
       <c r="M776" s="5"/>
@@ -14664,7 +14682,7 @@
       <c r="G777" s="5"/>
       <c r="H777" s="4"/>
       <c r="I777" s="4"/>
-      <c r="J777" s="35"/>
+      <c r="J777" s="34"/>
       <c r="K777" s="5"/>
       <c r="L777" s="5"/>
       <c r="M777" s="5"/>
@@ -14680,7 +14698,7 @@
       <c r="G778" s="5"/>
       <c r="H778" s="4"/>
       <c r="I778" s="4"/>
-      <c r="J778" s="35"/>
+      <c r="J778" s="34"/>
       <c r="K778" s="5"/>
       <c r="L778" s="5"/>
       <c r="M778" s="5"/>
@@ -14696,7 +14714,7 @@
       <c r="G779" s="5"/>
       <c r="H779" s="4"/>
       <c r="I779" s="4"/>
-      <c r="J779" s="35"/>
+      <c r="J779" s="34"/>
       <c r="K779" s="5"/>
       <c r="L779" s="5"/>
       <c r="M779" s="5"/>
@@ -14712,7 +14730,7 @@
       <c r="G780" s="5"/>
       <c r="H780" s="4"/>
       <c r="I780" s="4"/>
-      <c r="J780" s="35"/>
+      <c r="J780" s="34"/>
       <c r="K780" s="5"/>
       <c r="L780" s="5"/>
       <c r="M780" s="5"/>
@@ -14728,7 +14746,7 @@
       <c r="G781" s="5"/>
       <c r="H781" s="4"/>
       <c r="I781" s="4"/>
-      <c r="J781" s="35"/>
+      <c r="J781" s="34"/>
       <c r="K781" s="5"/>
       <c r="L781" s="5"/>
       <c r="M781" s="5"/>
@@ -14744,7 +14762,7 @@
       <c r="G782" s="5"/>
       <c r="H782" s="4"/>
       <c r="I782" s="4"/>
-      <c r="J782" s="35"/>
+      <c r="J782" s="34"/>
       <c r="K782" s="5"/>
       <c r="L782" s="5"/>
       <c r="M782" s="5"/>
@@ -14760,7 +14778,7 @@
       <c r="G783" s="5"/>
       <c r="H783" s="4"/>
       <c r="I783" s="4"/>
-      <c r="J783" s="35"/>
+      <c r="J783" s="34"/>
       <c r="K783" s="5"/>
       <c r="L783" s="5"/>
       <c r="M783" s="5"/>
@@ -14776,7 +14794,7 @@
       <c r="G784" s="5"/>
       <c r="H784" s="4"/>
       <c r="I784" s="4"/>
-      <c r="J784" s="35"/>
+      <c r="J784" s="34"/>
       <c r="K784" s="5"/>
       <c r="L784" s="5"/>
       <c r="M784" s="5"/>
@@ -14792,7 +14810,7 @@
       <c r="G785" s="5"/>
       <c r="H785" s="4"/>
       <c r="I785" s="4"/>
-      <c r="J785" s="35"/>
+      <c r="J785" s="34"/>
       <c r="K785" s="5"/>
       <c r="L785" s="5"/>
       <c r="M785" s="5"/>
@@ -14808,7 +14826,7 @@
       <c r="G786" s="5"/>
       <c r="H786" s="4"/>
       <c r="I786" s="4"/>
-      <c r="J786" s="35"/>
+      <c r="J786" s="34"/>
       <c r="K786" s="5"/>
       <c r="L786" s="5"/>
       <c r="M786" s="5"/>
@@ -14824,7 +14842,7 @@
       <c r="G787" s="5"/>
       <c r="H787" s="4"/>
       <c r="I787" s="4"/>
-      <c r="J787" s="35"/>
+      <c r="J787" s="34"/>
       <c r="K787" s="5"/>
       <c r="L787" s="5"/>
       <c r="M787" s="5"/>
@@ -14840,7 +14858,7 @@
       <c r="G788" s="5"/>
       <c r="H788" s="4"/>
       <c r="I788" s="4"/>
-      <c r="J788" s="35"/>
+      <c r="J788" s="34"/>
       <c r="K788" s="5"/>
       <c r="L788" s="5"/>
       <c r="M788" s="5"/>
@@ -14856,7 +14874,7 @@
       <c r="G789" s="5"/>
       <c r="H789" s="4"/>
       <c r="I789" s="4"/>
-      <c r="J789" s="35"/>
+      <c r="J789" s="34"/>
       <c r="K789" s="5"/>
       <c r="L789" s="5"/>
       <c r="M789" s="5"/>
@@ -14872,7 +14890,7 @@
       <c r="G790" s="5"/>
       <c r="H790" s="4"/>
       <c r="I790" s="4"/>
-      <c r="J790" s="35"/>
+      <c r="J790" s="34"/>
       <c r="K790" s="5"/>
       <c r="L790" s="5"/>
       <c r="M790" s="5"/>
@@ -14888,7 +14906,7 @@
       <c r="G791" s="5"/>
       <c r="H791" s="4"/>
       <c r="I791" s="4"/>
-      <c r="J791" s="35"/>
+      <c r="J791" s="34"/>
       <c r="K791" s="5"/>
       <c r="L791" s="5"/>
       <c r="M791" s="5"/>
@@ -14904,7 +14922,7 @@
       <c r="G792" s="5"/>
       <c r="H792" s="4"/>
       <c r="I792" s="4"/>
-      <c r="J792" s="35"/>
+      <c r="J792" s="34"/>
       <c r="K792" s="5"/>
       <c r="L792" s="5"/>
       <c r="M792" s="5"/>
@@ -14920,7 +14938,7 @@
       <c r="G793" s="5"/>
       <c r="H793" s="4"/>
       <c r="I793" s="4"/>
-      <c r="J793" s="35"/>
+      <c r="J793" s="34"/>
       <c r="K793" s="5"/>
       <c r="L793" s="5"/>
       <c r="M793" s="5"/>
@@ -14936,7 +14954,7 @@
       <c r="G794" s="5"/>
       <c r="H794" s="4"/>
       <c r="I794" s="4"/>
-      <c r="J794" s="35"/>
+      <c r="J794" s="34"/>
       <c r="K794" s="5"/>
       <c r="L794" s="5"/>
       <c r="M794" s="5"/>
@@ -14952,7 +14970,7 @@
       <c r="G795" s="5"/>
       <c r="H795" s="4"/>
       <c r="I795" s="4"/>
-      <c r="J795" s="35"/>
+      <c r="J795" s="34"/>
       <c r="K795" s="5"/>
       <c r="L795" s="5"/>
       <c r="M795" s="5"/>
@@ -14968,7 +14986,7 @@
       <c r="G796" s="5"/>
       <c r="H796" s="4"/>
       <c r="I796" s="4"/>
-      <c r="J796" s="35"/>
+      <c r="J796" s="34"/>
       <c r="K796" s="5"/>
       <c r="L796" s="5"/>
       <c r="M796" s="5"/>
@@ -14984,7 +15002,7 @@
       <c r="G797" s="5"/>
       <c r="H797" s="4"/>
       <c r="I797" s="4"/>
-      <c r="J797" s="35"/>
+      <c r="J797" s="34"/>
       <c r="K797" s="5"/>
       <c r="L797" s="5"/>
       <c r="M797" s="5"/>
@@ -15000,7 +15018,7 @@
       <c r="G798" s="5"/>
       <c r="H798" s="4"/>
       <c r="I798" s="4"/>
-      <c r="J798" s="35"/>
+      <c r="J798" s="34"/>
       <c r="K798" s="5"/>
       <c r="L798" s="5"/>
       <c r="M798" s="5"/>
@@ -15016,7 +15034,7 @@
       <c r="G799" s="5"/>
       <c r="H799" s="4"/>
       <c r="I799" s="4"/>
-      <c r="J799" s="35"/>
+      <c r="J799" s="34"/>
       <c r="K799" s="5"/>
       <c r="L799" s="5"/>
       <c r="M799" s="5"/>
@@ -15032,7 +15050,7 @@
       <c r="G800" s="5"/>
       <c r="H800" s="4"/>
       <c r="I800" s="4"/>
-      <c r="J800" s="35"/>
+      <c r="J800" s="34"/>
       <c r="K800" s="5"/>
       <c r="L800" s="5"/>
       <c r="M800" s="5"/>
@@ -15048,7 +15066,7 @@
       <c r="G801" s="5"/>
       <c r="H801" s="4"/>
       <c r="I801" s="4"/>
-      <c r="J801" s="35"/>
+      <c r="J801" s="34"/>
       <c r="K801" s="5"/>
       <c r="L801" s="5"/>
       <c r="M801" s="5"/>
@@ -15064,7 +15082,7 @@
       <c r="G802" s="5"/>
       <c r="H802" s="4"/>
       <c r="I802" s="4"/>
-      <c r="J802" s="35"/>
+      <c r="J802" s="34"/>
       <c r="K802" s="5"/>
       <c r="L802" s="5"/>
       <c r="M802" s="5"/>
@@ -15080,7 +15098,7 @@
       <c r="G803" s="5"/>
       <c r="H803" s="4"/>
       <c r="I803" s="4"/>
-      <c r="J803" s="35"/>
+      <c r="J803" s="34"/>
       <c r="K803" s="5"/>
       <c r="L803" s="5"/>
       <c r="M803" s="5"/>
@@ -15096,7 +15114,7 @@
       <c r="G804" s="5"/>
       <c r="H804" s="4"/>
       <c r="I804" s="4"/>
-      <c r="J804" s="35"/>
+      <c r="J804" s="34"/>
       <c r="K804" s="5"/>
       <c r="L804" s="5"/>
       <c r="M804" s="5"/>
@@ -15112,7 +15130,7 @@
       <c r="G805" s="5"/>
       <c r="H805" s="4"/>
       <c r="I805" s="4"/>
-      <c r="J805" s="35"/>
+      <c r="J805" s="34"/>
       <c r="K805" s="5"/>
       <c r="L805" s="5"/>
       <c r="M805" s="5"/>
@@ -15128,7 +15146,7 @@
       <c r="G806" s="5"/>
       <c r="H806" s="4"/>
       <c r="I806" s="4"/>
-      <c r="J806" s="35"/>
+      <c r="J806" s="34"/>
       <c r="K806" s="5"/>
       <c r="L806" s="5"/>
       <c r="M806" s="5"/>
@@ -15144,7 +15162,7 @@
       <c r="G807" s="5"/>
       <c r="H807" s="4"/>
       <c r="I807" s="4"/>
-      <c r="J807" s="35"/>
+      <c r="J807" s="34"/>
       <c r="K807" s="5"/>
       <c r="L807" s="5"/>
       <c r="M807" s="5"/>
@@ -15160,7 +15178,7 @@
       <c r="G808" s="5"/>
       <c r="H808" s="4"/>
       <c r="I808" s="4"/>
-      <c r="J808" s="35"/>
+      <c r="J808" s="34"/>
       <c r="K808" s="5"/>
       <c r="L808" s="5"/>
       <c r="M808" s="5"/>
@@ -15176,7 +15194,7 @@
       <c r="G809" s="5"/>
       <c r="H809" s="4"/>
       <c r="I809" s="4"/>
-      <c r="J809" s="35"/>
+      <c r="J809" s="34"/>
       <c r="K809" s="5"/>
       <c r="L809" s="5"/>
       <c r="M809" s="5"/>
@@ -15192,7 +15210,7 @@
       <c r="G810" s="5"/>
       <c r="H810" s="4"/>
       <c r="I810" s="4"/>
-      <c r="J810" s="35"/>
+      <c r="J810" s="34"/>
       <c r="K810" s="5"/>
       <c r="L810" s="5"/>
       <c r="M810" s="5"/>
@@ -15208,7 +15226,7 @@
       <c r="G811" s="5"/>
       <c r="H811" s="4"/>
       <c r="I811" s="4"/>
-      <c r="J811" s="35"/>
+      <c r="J811" s="34"/>
       <c r="K811" s="5"/>
       <c r="L811" s="5"/>
       <c r="M811" s="5"/>
@@ -15224,7 +15242,7 @@
       <c r="G812" s="5"/>
       <c r="H812" s="4"/>
       <c r="I812" s="4"/>
-      <c r="J812" s="35"/>
+      <c r="J812" s="34"/>
       <c r="K812" s="5"/>
       <c r="L812" s="5"/>
       <c r="M812" s="5"/>
@@ -15240,7 +15258,7 @@
       <c r="G813" s="5"/>
       <c r="H813" s="4"/>
       <c r="I813" s="4"/>
-      <c r="J813" s="35"/>
+      <c r="J813" s="34"/>
       <c r="K813" s="5"/>
       <c r="L813" s="5"/>
       <c r="M813" s="5"/>
@@ -15256,7 +15274,7 @@
       <c r="G814" s="5"/>
       <c r="H814" s="4"/>
       <c r="I814" s="4"/>
-      <c r="J814" s="35"/>
+      <c r="J814" s="34"/>
       <c r="K814" s="5"/>
       <c r="L814" s="5"/>
       <c r="M814" s="5"/>
@@ -15272,7 +15290,7 @@
       <c r="G815" s="5"/>
       <c r="H815" s="4"/>
       <c r="I815" s="4"/>
-      <c r="J815" s="35"/>
+      <c r="J815" s="34"/>
       <c r="K815" s="5"/>
       <c r="L815" s="5"/>
       <c r="M815" s="5"/>
@@ -15288,7 +15306,7 @@
       <c r="G816" s="5"/>
       <c r="H816" s="4"/>
       <c r="I816" s="4"/>
-      <c r="J816" s="35"/>
+      <c r="J816" s="34"/>
       <c r="K816" s="5"/>
       <c r="L816" s="5"/>
       <c r="M816" s="5"/>
@@ -15304,7 +15322,7 @@
       <c r="G817" s="5"/>
       <c r="H817" s="4"/>
       <c r="I817" s="4"/>
-      <c r="J817" s="35"/>
+      <c r="J817" s="34"/>
       <c r="K817" s="5"/>
       <c r="L817" s="5"/>
       <c r="M817" s="5"/>
@@ -15320,7 +15338,7 @@
       <c r="G818" s="5"/>
       <c r="H818" s="4"/>
       <c r="I818" s="4"/>
-      <c r="J818" s="35"/>
+      <c r="J818" s="34"/>
       <c r="K818" s="5"/>
       <c r="L818" s="5"/>
       <c r="M818" s="5"/>
@@ -15336,7 +15354,7 @@
       <c r="G819" s="5"/>
       <c r="H819" s="4"/>
       <c r="I819" s="4"/>
-      <c r="J819" s="35"/>
+      <c r="J819" s="34"/>
       <c r="K819" s="5"/>
       <c r="L819" s="5"/>
       <c r="M819" s="5"/>
@@ -15352,7 +15370,7 @@
       <c r="G820" s="5"/>
       <c r="H820" s="4"/>
       <c r="I820" s="4"/>
-      <c r="J820" s="35"/>
+      <c r="J820" s="34"/>
       <c r="K820" s="5"/>
       <c r="L820" s="5"/>
       <c r="M820" s="5"/>
@@ -15368,7 +15386,7 @@
       <c r="G821" s="5"/>
       <c r="H821" s="4"/>
       <c r="I821" s="4"/>
-      <c r="J821" s="35"/>
+      <c r="J821" s="34"/>
       <c r="K821" s="5"/>
       <c r="L821" s="5"/>
       <c r="M821" s="5"/>
@@ -15384,7 +15402,7 @@
       <c r="G822" s="5"/>
       <c r="H822" s="4"/>
       <c r="I822" s="4"/>
-      <c r="J822" s="35"/>
+      <c r="J822" s="34"/>
       <c r="K822" s="5"/>
       <c r="L822" s="5"/>
       <c r="M822" s="5"/>
@@ -15400,7 +15418,7 @@
       <c r="G823" s="5"/>
       <c r="H823" s="4"/>
       <c r="I823" s="4"/>
-      <c r="J823" s="35"/>
+      <c r="J823" s="34"/>
       <c r="K823" s="5"/>
       <c r="L823" s="5"/>
       <c r="M823" s="5"/>
@@ -15416,7 +15434,7 @@
       <c r="G824" s="5"/>
       <c r="H824" s="4"/>
       <c r="I824" s="4"/>
-      <c r="J824" s="35"/>
+      <c r="J824" s="34"/>
       <c r="K824" s="5"/>
       <c r="L824" s="5"/>
       <c r="M824" s="5"/>
@@ -15432,7 +15450,7 @@
       <c r="G825" s="5"/>
       <c r="H825" s="4"/>
       <c r="I825" s="4"/>
-      <c r="J825" s="35"/>
+      <c r="J825" s="34"/>
       <c r="K825" s="5"/>
       <c r="L825" s="5"/>
       <c r="M825" s="5"/>
@@ -15448,7 +15466,7 @@
       <c r="G826" s="5"/>
       <c r="H826" s="4"/>
       <c r="I826" s="4"/>
-      <c r="J826" s="35"/>
+      <c r="J826" s="34"/>
       <c r="K826" s="5"/>
       <c r="L826" s="5"/>
       <c r="M826" s="5"/>
@@ -15464,7 +15482,7 @@
       <c r="G827" s="5"/>
       <c r="H827" s="4"/>
       <c r="I827" s="4"/>
-      <c r="J827" s="35"/>
+      <c r="J827" s="34"/>
       <c r="K827" s="5"/>
       <c r="L827" s="5"/>
       <c r="M827" s="5"/>
@@ -15480,7 +15498,7 @@
       <c r="G828" s="5"/>
       <c r="H828" s="4"/>
       <c r="I828" s="4"/>
-      <c r="J828" s="35"/>
+      <c r="J828" s="34"/>
       <c r="K828" s="5"/>
       <c r="L828" s="5"/>
       <c r="M828" s="5"/>
@@ -15496,7 +15514,7 @@
       <c r="G829" s="5"/>
       <c r="H829" s="4"/>
       <c r="I829" s="4"/>
-      <c r="J829" s="35"/>
+      <c r="J829" s="34"/>
       <c r="K829" s="5"/>
       <c r="L829" s="5"/>
       <c r="M829" s="5"/>
@@ -15512,7 +15530,7 @@
       <c r="G830" s="5"/>
       <c r="H830" s="4"/>
       <c r="I830" s="4"/>
-      <c r="J830" s="35"/>
+      <c r="J830" s="34"/>
       <c r="K830" s="5"/>
       <c r="L830" s="5"/>
       <c r="M830" s="5"/>
@@ -15528,7 +15546,7 @@
       <c r="G831" s="5"/>
       <c r="H831" s="4"/>
       <c r="I831" s="4"/>
-      <c r="J831" s="35"/>
+      <c r="J831" s="34"/>
       <c r="K831" s="5"/>
       <c r="L831" s="5"/>
       <c r="M831" s="5"/>
@@ -15544,7 +15562,7 @@
       <c r="G832" s="5"/>
       <c r="H832" s="4"/>
       <c r="I832" s="4"/>
-      <c r="J832" s="35"/>
+      <c r="J832" s="34"/>
       <c r="K832" s="5"/>
       <c r="L832" s="5"/>
       <c r="M832" s="5"/>
@@ -15560,7 +15578,7 @@
       <c r="G833" s="5"/>
       <c r="H833" s="4"/>
       <c r="I833" s="4"/>
-      <c r="J833" s="35"/>
+      <c r="J833" s="34"/>
       <c r="K833" s="5"/>
       <c r="L833" s="5"/>
       <c r="M833" s="5"/>
@@ -15576,7 +15594,7 @@
       <c r="G834" s="5"/>
       <c r="H834" s="4"/>
       <c r="I834" s="4"/>
-      <c r="J834" s="35"/>
+      <c r="J834" s="34"/>
       <c r="K834" s="5"/>
       <c r="L834" s="5"/>
       <c r="M834" s="5"/>
@@ -15592,7 +15610,7 @@
       <c r="G835" s="5"/>
       <c r="H835" s="4"/>
       <c r="I835" s="4"/>
-      <c r="J835" s="35"/>
+      <c r="J835" s="34"/>
       <c r="K835" s="5"/>
       <c r="L835" s="5"/>
       <c r="M835" s="5"/>
@@ -15608,7 +15626,7 @@
       <c r="G836" s="5"/>
       <c r="H836" s="4"/>
       <c r="I836" s="4"/>
-      <c r="J836" s="35"/>
+      <c r="J836" s="34"/>
       <c r="K836" s="5"/>
       <c r="L836" s="5"/>
       <c r="M836" s="5"/>
@@ -15624,7 +15642,7 @@
       <c r="G837" s="5"/>
       <c r="H837" s="4"/>
       <c r="I837" s="4"/>
-      <c r="J837" s="35"/>
+      <c r="J837" s="34"/>
       <c r="K837" s="5"/>
       <c r="L837" s="5"/>
       <c r="M837" s="5"/>
@@ -15640,7 +15658,7 @@
       <c r="G838" s="5"/>
       <c r="H838" s="4"/>
       <c r="I838" s="4"/>
-      <c r="J838" s="35"/>
+      <c r="J838" s="34"/>
       <c r="K838" s="5"/>
       <c r="L838" s="5"/>
       <c r="M838" s="5"/>
@@ -15656,7 +15674,7 @@
       <c r="G839" s="5"/>
       <c r="H839" s="4"/>
       <c r="I839" s="4"/>
-      <c r="J839" s="35"/>
+      <c r="J839" s="34"/>
       <c r="K839" s="5"/>
       <c r="L839" s="5"/>
       <c r="M839" s="5"/>
@@ -15672,7 +15690,7 @@
       <c r="G840" s="5"/>
       <c r="H840" s="4"/>
       <c r="I840" s="4"/>
-      <c r="J840" s="35"/>
+      <c r="J840" s="34"/>
       <c r="K840" s="5"/>
       <c r="L840" s="5"/>
       <c r="M840" s="5"/>
@@ -15688,7 +15706,7 @@
       <c r="G841" s="5"/>
       <c r="H841" s="4"/>
       <c r="I841" s="4"/>
-      <c r="J841" s="35"/>
+      <c r="J841" s="34"/>
       <c r="K841" s="5"/>
       <c r="L841" s="5"/>
       <c r="M841" s="5"/>
@@ -15704,7 +15722,7 @@
       <c r="G842" s="5"/>
       <c r="H842" s="4"/>
       <c r="I842" s="4"/>
-      <c r="J842" s="35"/>
+      <c r="J842" s="34"/>
       <c r="K842" s="5"/>
       <c r="L842" s="5"/>
       <c r="M842" s="5"/>
@@ -15720,7 +15738,7 @@
       <c r="G843" s="5"/>
       <c r="H843" s="4"/>
       <c r="I843" s="4"/>
-      <c r="J843" s="35"/>
+      <c r="J843" s="34"/>
       <c r="K843" s="5"/>
       <c r="L843" s="5"/>
       <c r="M843" s="5"/>
@@ -15736,7 +15754,7 @@
       <c r="G844" s="5"/>
       <c r="H844" s="4"/>
       <c r="I844" s="4"/>
-      <c r="J844" s="35"/>
+      <c r="J844" s="34"/>
       <c r="K844" s="5"/>
       <c r="L844" s="5"/>
       <c r="M844" s="5"/>
@@ -15752,7 +15770,7 @@
       <c r="G845" s="5"/>
       <c r="H845" s="4"/>
       <c r="I845" s="4"/>
-      <c r="J845" s="35"/>
+      <c r="J845" s="34"/>
       <c r="K845" s="5"/>
       <c r="L845" s="5"/>
       <c r="M845" s="5"/>
@@ -15768,7 +15786,7 @@
       <c r="G846" s="5"/>
       <c r="H846" s="4"/>
       <c r="I846" s="4"/>
-      <c r="J846" s="35"/>
+      <c r="J846" s="34"/>
       <c r="K846" s="5"/>
       <c r="L846" s="5"/>
       <c r="M846" s="5"/>
@@ -15784,7 +15802,7 @@
       <c r="G847" s="5"/>
       <c r="H847" s="4"/>
       <c r="I847" s="4"/>
-      <c r="J847" s="35"/>
+      <c r="J847" s="34"/>
       <c r="K847" s="5"/>
       <c r="L847" s="5"/>
       <c r="M847" s="5"/>
@@ -15800,7 +15818,7 @@
       <c r="G848" s="5"/>
       <c r="H848" s="4"/>
       <c r="I848" s="4"/>
-      <c r="J848" s="35"/>
+      <c r="J848" s="34"/>
       <c r="K848" s="5"/>
       <c r="L848" s="5"/>
       <c r="M848" s="5"/>
@@ -15816,7 +15834,7 @@
       <c r="G849" s="5"/>
       <c r="H849" s="4"/>
       <c r="I849" s="4"/>
-      <c r="J849" s="35"/>
+      <c r="J849" s="34"/>
       <c r="K849" s="5"/>
       <c r="L849" s="5"/>
       <c r="M849" s="5"/>
@@ -15832,7 +15850,7 @@
       <c r="G850" s="5"/>
       <c r="H850" s="4"/>
       <c r="I850" s="4"/>
-      <c r="J850" s="35"/>
+      <c r="J850" s="34"/>
       <c r="K850" s="5"/>
       <c r="L850" s="5"/>
       <c r="M850" s="5"/>
@@ -15848,7 +15866,7 @@
       <c r="G851" s="5"/>
       <c r="H851" s="4"/>
       <c r="I851" s="4"/>
-      <c r="J851" s="35"/>
+      <c r="J851" s="34"/>
       <c r="K851" s="5"/>
       <c r="L851" s="5"/>
       <c r="M851" s="5"/>
@@ -15864,7 +15882,7 @@
       <c r="G852" s="5"/>
       <c r="H852" s="4"/>
       <c r="I852" s="4"/>
-      <c r="J852" s="35"/>
+      <c r="J852" s="34"/>
       <c r="K852" s="5"/>
       <c r="L852" s="5"/>
       <c r="M852" s="5"/>
@@ -15880,7 +15898,7 @@
       <c r="G853" s="5"/>
       <c r="H853" s="4"/>
       <c r="I853" s="4"/>
-      <c r="J853" s="35"/>
+      <c r="J853" s="34"/>
       <c r="K853" s="5"/>
       <c r="L853" s="5"/>
       <c r="M853" s="5"/>
@@ -15896,7 +15914,7 @@
       <c r="G854" s="5"/>
       <c r="H854" s="4"/>
       <c r="I854" s="4"/>
-      <c r="J854" s="35"/>
+      <c r="J854" s="34"/>
       <c r="K854" s="5"/>
       <c r="L854" s="5"/>
       <c r="M854" s="5"/>
@@ -15912,7 +15930,7 @@
       <c r="G855" s="5"/>
       <c r="H855" s="4"/>
       <c r="I855" s="4"/>
-      <c r="J855" s="35"/>
+      <c r="J855" s="34"/>
       <c r="K855" s="5"/>
       <c r="L855" s="5"/>
       <c r="M855" s="5"/>
@@ -15928,7 +15946,7 @@
       <c r="G856" s="5"/>
       <c r="H856" s="4"/>
       <c r="I856" s="4"/>
-      <c r="J856" s="35"/>
+      <c r="J856" s="34"/>
       <c r="K856" s="5"/>
       <c r="L856" s="5"/>
       <c r="M856" s="5"/>
@@ -15944,7 +15962,7 @@
       <c r="G857" s="5"/>
       <c r="H857" s="4"/>
       <c r="I857" s="4"/>
-      <c r="J857" s="35"/>
+      <c r="J857" s="34"/>
       <c r="K857" s="5"/>
       <c r="L857" s="5"/>
       <c r="M857" s="5"/>
@@ -15960,7 +15978,7 @@
       <c r="G858" s="5"/>
       <c r="H858" s="4"/>
       <c r="I858" s="4"/>
-      <c r="J858" s="35"/>
+      <c r="J858" s="34"/>
       <c r="K858" s="5"/>
       <c r="L858" s="5"/>
       <c r="M858" s="5"/>
@@ -15976,7 +15994,7 @@
       <c r="G859" s="5"/>
       <c r="H859" s="4"/>
       <c r="I859" s="4"/>
-      <c r="J859" s="35"/>
+      <c r="J859" s="34"/>
       <c r="K859" s="5"/>
       <c r="L859" s="5"/>
       <c r="M859" s="5"/>
@@ -15992,7 +16010,7 @@
       <c r="G860" s="5"/>
       <c r="H860" s="4"/>
       <c r="I860" s="4"/>
-      <c r="J860" s="35"/>
+      <c r="J860" s="34"/>
       <c r="K860" s="5"/>
       <c r="L860" s="5"/>
       <c r="M860" s="5"/>
@@ -16008,7 +16026,7 @@
       <c r="G861" s="5"/>
       <c r="H861" s="4"/>
       <c r="I861" s="4"/>
-      <c r="J861" s="35"/>
+      <c r="J861" s="34"/>
       <c r="K861" s="5"/>
       <c r="L861" s="5"/>
       <c r="M861" s="5"/>
@@ -16024,7 +16042,7 @@
       <c r="G862" s="5"/>
       <c r="H862" s="4"/>
       <c r="I862" s="4"/>
-      <c r="J862" s="35"/>
+      <c r="J862" s="34"/>
       <c r="K862" s="5"/>
       <c r="L862" s="5"/>
       <c r="M862" s="5"/>
@@ -16040,7 +16058,7 @@
       <c r="G863" s="5"/>
       <c r="H863" s="4"/>
       <c r="I863" s="4"/>
-      <c r="J863" s="35"/>
+      <c r="J863" s="34"/>
       <c r="K863" s="5"/>
       <c r="L863" s="5"/>
       <c r="M863" s="5"/>
@@ -16056,7 +16074,7 @@
       <c r="G864" s="5"/>
       <c r="H864" s="4"/>
       <c r="I864" s="4"/>
-      <c r="J864" s="35"/>
+      <c r="J864" s="34"/>
       <c r="K864" s="5"/>
       <c r="L864" s="5"/>
       <c r="M864" s="5"/>
@@ -16072,7 +16090,7 @@
       <c r="G865" s="5"/>
       <c r="H865" s="4"/>
       <c r="I865" s="4"/>
-      <c r="J865" s="35"/>
+      <c r="J865" s="34"/>
       <c r="K865" s="5"/>
       <c r="L865" s="5"/>
       <c r="M865" s="5"/>
@@ -16088,7 +16106,7 @@
       <c r="G866" s="5"/>
       <c r="H866" s="4"/>
       <c r="I866" s="4"/>
-      <c r="J866" s="35"/>
+      <c r="J866" s="34"/>
       <c r="K866" s="5"/>
       <c r="L866" s="5"/>
       <c r="M866" s="5"/>
@@ -16104,7 +16122,7 @@
       <c r="G867" s="5"/>
       <c r="H867" s="4"/>
       <c r="I867" s="4"/>
-      <c r="J867" s="35"/>
+      <c r="J867" s="34"/>
       <c r="K867" s="5"/>
       <c r="L867" s="5"/>
       <c r="M867" s="5"/>
@@ -16120,7 +16138,7 @@
       <c r="G868" s="5"/>
       <c r="H868" s="4"/>
       <c r="I868" s="4"/>
-      <c r="J868" s="35"/>
+      <c r="J868" s="34"/>
       <c r="K868" s="5"/>
       <c r="L868" s="5"/>
       <c r="M868" s="5"/>
@@ -16136,7 +16154,7 @@
       <c r="G869" s="5"/>
       <c r="H869" s="4"/>
       <c r="I869" s="4"/>
-      <c r="J869" s="35"/>
+      <c r="J869" s="34"/>
       <c r="K869" s="5"/>
       <c r="L869" s="5"/>
       <c r="M869" s="5"/>
@@ -16152,7 +16170,7 @@
       <c r="G870" s="5"/>
       <c r="H870" s="4"/>
       <c r="I870" s="4"/>
-      <c r="J870" s="35"/>
+      <c r="J870" s="34"/>
       <c r="K870" s="5"/>
       <c r="L870" s="5"/>
       <c r="M870" s="5"/>
@@ -16168,7 +16186,7 @@
       <c r="G871" s="5"/>
       <c r="H871" s="4"/>
       <c r="I871" s="4"/>
-      <c r="J871" s="35"/>
+      <c r="J871" s="34"/>
       <c r="K871" s="5"/>
       <c r="L871" s="5"/>
       <c r="M871" s="5"/>
@@ -16184,7 +16202,7 @@
       <c r="G872" s="5"/>
       <c r="H872" s="4"/>
       <c r="I872" s="4"/>
-      <c r="J872" s="35"/>
+      <c r="J872" s="34"/>
       <c r="K872" s="5"/>
       <c r="L872" s="5"/>
       <c r="M872" s="5"/>
@@ -16200,7 +16218,7 @@
       <c r="G873" s="5"/>
       <c r="H873" s="4"/>
       <c r="I873" s="4"/>
-      <c r="J873" s="35"/>
+      <c r="J873" s="34"/>
       <c r="K873" s="5"/>
       <c r="L873" s="5"/>
       <c r="M873" s="5"/>
@@ -16216,7 +16234,7 @@
       <c r="G874" s="5"/>
       <c r="H874" s="4"/>
       <c r="I874" s="4"/>
-      <c r="J874" s="35"/>
+      <c r="J874" s="34"/>
       <c r="K874" s="5"/>
       <c r="L874" s="5"/>
       <c r="M874" s="5"/>
@@ -16232,7 +16250,7 @@
       <c r="G875" s="5"/>
       <c r="H875" s="4"/>
       <c r="I875" s="4"/>
-      <c r="J875" s="35"/>
+      <c r="J875" s="34"/>
       <c r="K875" s="5"/>
       <c r="L875" s="5"/>
       <c r="M875" s="5"/>
@@ -16248,7 +16266,7 @@
       <c r="G876" s="5"/>
       <c r="H876" s="4"/>
       <c r="I876" s="4"/>
-      <c r="J876" s="35"/>
+      <c r="J876" s="34"/>
       <c r="K876" s="5"/>
       <c r="L876" s="5"/>
       <c r="M876" s="5"/>
@@ -16264,7 +16282,7 @@
       <c r="G877" s="5"/>
       <c r="H877" s="4"/>
       <c r="I877" s="4"/>
-      <c r="J877" s="35"/>
+      <c r="J877" s="34"/>
       <c r="K877" s="5"/>
       <c r="L877" s="5"/>
       <c r="M877" s="5"/>
@@ -16280,7 +16298,7 @@
       <c r="G878" s="5"/>
       <c r="H878" s="4"/>
       <c r="I878" s="4"/>
-      <c r="J878" s="35"/>
+      <c r="J878" s="34"/>
       <c r="K878" s="5"/>
       <c r="L878" s="5"/>
       <c r="M878" s="5"/>
@@ -16296,7 +16314,7 @@
       <c r="G879" s="5"/>
       <c r="H879" s="4"/>
       <c r="I879" s="4"/>
-      <c r="J879" s="35"/>
+      <c r="J879" s="34"/>
       <c r="K879" s="5"/>
       <c r="L879" s="5"/>
       <c r="M879" s="5"/>
@@ -16312,7 +16330,7 @@
       <c r="G880" s="5"/>
       <c r="H880" s="4"/>
       <c r="I880" s="4"/>
-      <c r="J880" s="35"/>
+      <c r="J880" s="34"/>
       <c r="K880" s="5"/>
       <c r="L880" s="5"/>
       <c r="M880" s="5"/>
@@ -16328,7 +16346,7 @@
       <c r="G881" s="5"/>
       <c r="H881" s="4"/>
       <c r="I881" s="4"/>
-      <c r="J881" s="35"/>
+      <c r="J881" s="34"/>
       <c r="K881" s="5"/>
       <c r="L881" s="5"/>
       <c r="M881" s="5"/>
@@ -16344,7 +16362,7 @@
       <c r="G882" s="5"/>
       <c r="H882" s="4"/>
       <c r="I882" s="4"/>
-      <c r="J882" s="35"/>
+      <c r="J882" s="34"/>
       <c r="K882" s="5"/>
       <c r="L882" s="5"/>
       <c r="M882" s="5"/>
@@ -16360,7 +16378,7 @@
       <c r="G883" s="5"/>
       <c r="H883" s="4"/>
       <c r="I883" s="4"/>
-      <c r="J883" s="35"/>
+      <c r="J883" s="34"/>
       <c r="K883" s="5"/>
       <c r="L883" s="5"/>
       <c r="M883" s="5"/>
@@ -16376,7 +16394,7 @@
       <c r="G884" s="5"/>
       <c r="H884" s="4"/>
       <c r="I884" s="4"/>
-      <c r="J884" s="35"/>
+      <c r="J884" s="34"/>
       <c r="K884" s="5"/>
       <c r="L884" s="5"/>
       <c r="M884" s="5"/>
@@ -16392,7 +16410,7 @@
       <c r="G885" s="5"/>
       <c r="H885" s="4"/>
       <c r="I885" s="4"/>
-      <c r="J885" s="35"/>
+      <c r="J885" s="34"/>
       <c r="K885" s="5"/>
       <c r="L885" s="5"/>
       <c r="M885" s="5"/>
@@ -16408,7 +16426,7 @@
       <c r="G886" s="5"/>
       <c r="H886" s="4"/>
       <c r="I886" s="4"/>
-      <c r="J886" s="35"/>
+      <c r="J886" s="34"/>
       <c r="K886" s="5"/>
       <c r="L886" s="5"/>
       <c r="M886" s="5"/>
@@ -16424,7 +16442,7 @@
       <c r="G887" s="5"/>
       <c r="H887" s="4"/>
       <c r="I887" s="4"/>
-      <c r="J887" s="35"/>
+      <c r="J887" s="34"/>
       <c r="K887" s="5"/>
       <c r="L887" s="5"/>
       <c r="M887" s="5"/>
@@ -16440,7 +16458,7 @@
       <c r="G888" s="5"/>
       <c r="H888" s="4"/>
       <c r="I888" s="4"/>
-      <c r="J888" s="35"/>
+      <c r="J888" s="34"/>
       <c r="K888" s="5"/>
       <c r="L888" s="5"/>
       <c r="M888" s="5"/>
@@ -16456,7 +16474,7 @@
       <c r="G889" s="5"/>
       <c r="H889" s="4"/>
       <c r="I889" s="4"/>
-      <c r="J889" s="35"/>
+      <c r="J889" s="34"/>
       <c r="K889" s="5"/>
       <c r="L889" s="5"/>
       <c r="M889" s="5"/>
@@ -16472,7 +16490,7 @@
       <c r="G890" s="5"/>
       <c r="H890" s="4"/>
       <c r="I890" s="4"/>
-      <c r="J890" s="35"/>
+      <c r="J890" s="34"/>
       <c r="K890" s="5"/>
       <c r="L890" s="5"/>
       <c r="M890" s="5"/>
@@ -16488,7 +16506,7 @@
       <c r="G891" s="5"/>
       <c r="H891" s="4"/>
       <c r="I891" s="4"/>
-      <c r="J891" s="35"/>
+      <c r="J891" s="34"/>
       <c r="K891" s="5"/>
       <c r="L891" s="5"/>
       <c r="M891" s="5"/>
@@ -16504,7 +16522,7 @@
       <c r="G892" s="5"/>
       <c r="H892" s="4"/>
       <c r="I892" s="4"/>
-      <c r="J892" s="35"/>
+      <c r="J892" s="34"/>
       <c r="K892" s="5"/>
       <c r="L892" s="5"/>
       <c r="M892" s="5"/>
@@ -16520,7 +16538,7 @@
       <c r="G893" s="5"/>
       <c r="H893" s="4"/>
       <c r="I893" s="4"/>
-      <c r="J893" s="35"/>
+      <c r="J893" s="34"/>
       <c r="K893" s="5"/>
       <c r="L893" s="5"/>
       <c r="M893" s="5"/>
@@ -16536,7 +16554,7 @@
       <c r="G894" s="5"/>
       <c r="H894" s="4"/>
       <c r="I894" s="4"/>
-      <c r="J894" s="35"/>
+      <c r="J894" s="34"/>
       <c r="K894" s="5"/>
       <c r="L894" s="5"/>
       <c r="M894" s="5"/>
@@ -16552,7 +16570,7 @@
       <c r="G895" s="5"/>
       <c r="H895" s="4"/>
       <c r="I895" s="4"/>
-      <c r="J895" s="35"/>
+      <c r="J895" s="34"/>
       <c r="K895" s="5"/>
       <c r="L895" s="5"/>
       <c r="M895" s="5"/>
@@ -16568,7 +16586,7 @@
       <c r="G896" s="5"/>
       <c r="H896" s="4"/>
       <c r="I896" s="4"/>
-      <c r="J896" s="35"/>
+      <c r="J896" s="34"/>
       <c r="K896" s="5"/>
       <c r="L896" s="5"/>
       <c r="M896" s="5"/>
@@ -16584,7 +16602,7 @@
       <c r="G897" s="5"/>
       <c r="H897" s="4"/>
       <c r="I897" s="4"/>
-      <c r="J897" s="35"/>
+      <c r="J897" s="34"/>
       <c r="K897" s="5"/>
       <c r="L897" s="5"/>
       <c r="M897" s="5"/>
@@ -16600,7 +16618,7 @@
       <c r="G898" s="5"/>
       <c r="H898" s="4"/>
       <c r="I898" s="4"/>
-      <c r="J898" s="35"/>
+      <c r="J898" s="34"/>
       <c r="K898" s="5"/>
       <c r="L898" s="5"/>
       <c r="M898" s="5"/>
@@ -16616,7 +16634,7 @@
       <c r="G899" s="5"/>
       <c r="H899" s="4"/>
       <c r="I899" s="4"/>
-      <c r="J899" s="35"/>
+      <c r="J899" s="34"/>
       <c r="K899" s="5"/>
       <c r="L899" s="5"/>
       <c r="M899" s="5"/>
@@ -16632,7 +16650,7 @@
       <c r="G900" s="5"/>
       <c r="H900" s="4"/>
       <c r="I900" s="4"/>
-      <c r="J900" s="35"/>
+      <c r="J900" s="34"/>
       <c r="K900" s="5"/>
       <c r="L900" s="5"/>
       <c r="M900" s="5"/>
@@ -16648,7 +16666,7 @@
       <c r="G901" s="5"/>
       <c r="H901" s="4"/>
       <c r="I901" s="4"/>
-      <c r="J901" s="35"/>
+      <c r="J901" s="34"/>
       <c r="K901" s="5"/>
       <c r="L901" s="5"/>
       <c r="M901" s="5"/>
@@ -16664,7 +16682,7 @@
       <c r="G902" s="5"/>
       <c r="H902" s="4"/>
       <c r="I902" s="4"/>
-      <c r="J902" s="35"/>
+      <c r="J902" s="34"/>
       <c r="K902" s="5"/>
       <c r="L902" s="5"/>
       <c r="M902" s="5"/>
@@ -16680,7 +16698,7 @@
       <c r="G903" s="5"/>
       <c r="H903" s="4"/>
       <c r="I903" s="4"/>
-      <c r="J903" s="35"/>
+      <c r="J903" s="34"/>
       <c r="K903" s="5"/>
       <c r="L903" s="5"/>
       <c r="M903" s="5"/>
@@ -16696,7 +16714,7 @@
       <c r="G904" s="5"/>
       <c r="H904" s="4"/>
       <c r="I904" s="4"/>
-      <c r="J904" s="35"/>
+      <c r="J904" s="34"/>
       <c r="K904" s="5"/>
       <c r="L904" s="5"/>
       <c r="M904" s="5"/>
@@ -16712,7 +16730,7 @@
       <c r="G905" s="5"/>
       <c r="H905" s="4"/>
       <c r="I905" s="4"/>
-      <c r="J905" s="35"/>
+      <c r="J905" s="34"/>
       <c r="K905" s="5"/>
       <c r="L905" s="5"/>
       <c r="M905" s="5"/>
@@ -16728,7 +16746,7 @@
       <c r="G906" s="5"/>
       <c r="H906" s="4"/>
       <c r="I906" s="4"/>
-      <c r="J906" s="35"/>
+      <c r="J906" s="34"/>
       <c r="K906" s="5"/>
       <c r="L906" s="5"/>
       <c r="M906" s="5"/>
@@ -16744,7 +16762,7 @@
       <c r="G907" s="5"/>
       <c r="H907" s="4"/>
       <c r="I907" s="4"/>
-      <c r="J907" s="35"/>
+      <c r="J907" s="34"/>
       <c r="K907" s="5"/>
       <c r="L907" s="5"/>
       <c r="M907" s="5"/>
@@ -16760,7 +16778,7 @@
       <c r="G908" s="5"/>
       <c r="H908" s="4"/>
       <c r="I908" s="4"/>
-      <c r="J908" s="35"/>
+      <c r="J908" s="34"/>
       <c r="K908" s="5"/>
       <c r="L908" s="5"/>
       <c r="M908" s="5"/>
@@ -16776,7 +16794,7 @@
       <c r="G909" s="5"/>
       <c r="H909" s="4"/>
       <c r="I909" s="4"/>
-      <c r="J909" s="35"/>
+      <c r="J909" s="34"/>
       <c r="K909" s="5"/>
       <c r="L909" s="5"/>
       <c r="M909" s="5"/>
@@ -16792,7 +16810,7 @@
       <c r="G910" s="5"/>
       <c r="H910" s="4"/>
       <c r="I910" s="4"/>
-      <c r="J910" s="35"/>
+      <c r="J910" s="34"/>
       <c r="K910" s="5"/>
       <c r="L910" s="5"/>
       <c r="M910" s="5"/>
@@ -16808,7 +16826,7 @@
       <c r="G911" s="5"/>
       <c r="H911" s="4"/>
       <c r="I911" s="4"/>
-      <c r="J911" s="35"/>
+      <c r="J911" s="34"/>
       <c r="K911" s="5"/>
       <c r="L911" s="5"/>
       <c r="M911" s="5"/>
@@ -16824,7 +16842,7 @@
       <c r="G912" s="5"/>
       <c r="H912" s="4"/>
       <c r="I912" s="4"/>
-      <c r="J912" s="35"/>
+      <c r="J912" s="34"/>
       <c r="K912" s="5"/>
       <c r="L912" s="5"/>
       <c r="M912" s="5"/>
@@ -16840,7 +16858,7 @@
       <c r="G913" s="5"/>
       <c r="H913" s="4"/>
       <c r="I913" s="4"/>
-      <c r="J913" s="35"/>
+      <c r="J913" s="34"/>
       <c r="K913" s="5"/>
       <c r="L913" s="5"/>
       <c r="M913" s="5"/>
@@ -16856,7 +16874,7 @@
       <c r="G914" s="5"/>
       <c r="H914" s="4"/>
       <c r="I914" s="4"/>
-      <c r="J914" s="35"/>
+      <c r="J914" s="34"/>
       <c r="K914" s="5"/>
       <c r="L914" s="5"/>
       <c r="M914" s="5"/>
@@ -16872,7 +16890,7 @@
       <c r="G915" s="5"/>
       <c r="H915" s="4"/>
       <c r="I915" s="4"/>
-      <c r="J915" s="35"/>
+      <c r="J915" s="34"/>
       <c r="K915" s="5"/>
       <c r="L915" s="5"/>
       <c r="M915" s="5"/>
@@ -16888,7 +16906,7 @@
       <c r="G916" s="5"/>
       <c r="H916" s="4"/>
       <c r="I916" s="4"/>
-      <c r="J916" s="35"/>
+      <c r="J916" s="34"/>
       <c r="K916" s="5"/>
       <c r="L916" s="5"/>
       <c r="M916" s="5"/>
@@ -16904,7 +16922,7 @@
       <c r="G917" s="5"/>
       <c r="H917" s="4"/>
       <c r="I917" s="4"/>
-      <c r="J917" s="35"/>
+      <c r="J917" s="34"/>
       <c r="K917" s="5"/>
       <c r="L917" s="5"/>
       <c r="M917" s="5"/>
@@ -16920,7 +16938,7 @@
       <c r="G918" s="5"/>
       <c r="H918" s="4"/>
       <c r="I918" s="4"/>
-      <c r="J918" s="35"/>
+      <c r="J918" s="34"/>
       <c r="K918" s="5"/>
       <c r="L918" s="5"/>
       <c r="M918" s="5"/>
@@ -16936,7 +16954,7 @@
       <c r="G919" s="5"/>
       <c r="H919" s="4"/>
       <c r="I919" s="4"/>
-      <c r="J919" s="35"/>
+      <c r="J919" s="34"/>
       <c r="K919" s="5"/>
       <c r="L919" s="5"/>
       <c r="M919" s="5"/>
@@ -16952,7 +16970,7 @@
       <c r="G920" s="5"/>
       <c r="H920" s="4"/>
       <c r="I920" s="4"/>
-      <c r="J920" s="35"/>
+      <c r="J920" s="34"/>
       <c r="K920" s="5"/>
       <c r="L920" s="5"/>
       <c r="M920" s="5"/>
@@ -16968,7 +16986,7 @@
       <c r="G921" s="5"/>
       <c r="H921" s="4"/>
       <c r="I921" s="4"/>
-      <c r="J921" s="35"/>
+      <c r="J921" s="34"/>
       <c r="K921" s="5"/>
       <c r="L921" s="5"/>
       <c r="M921" s="5"/>
@@ -16984,7 +17002,7 @@
       <c r="G922" s="5"/>
       <c r="H922" s="4"/>
       <c r="I922" s="4"/>
-      <c r="J922" s="35"/>
+      <c r="J922" s="34"/>
       <c r="K922" s="5"/>
       <c r="L922" s="5"/>
       <c r="M922" s="5"/>
@@ -17000,7 +17018,7 @@
       <c r="G923" s="5"/>
       <c r="H923" s="4"/>
       <c r="I923" s="4"/>
-      <c r="J923" s="35"/>
+      <c r="J923" s="34"/>
       <c r="K923" s="5"/>
       <c r="L923" s="5"/>
       <c r="M923" s="5"/>
@@ -17016,7 +17034,7 @@
       <c r="G924" s="5"/>
       <c r="H924" s="4"/>
       <c r="I924" s="4"/>
-      <c r="J924" s="35"/>
+      <c r="J924" s="34"/>
       <c r="K924" s="5"/>
       <c r="L924" s="5"/>
       <c r="M924" s="5"/>
@@ -17032,7 +17050,7 @@
       <c r="G925" s="5"/>
       <c r="H925" s="4"/>
       <c r="I925" s="4"/>
-      <c r="J925" s="35"/>
+      <c r="J925" s="34"/>
       <c r="K925" s="5"/>
       <c r="L925" s="5"/>
       <c r="M925" s="5"/>
@@ -17048,7 +17066,7 @@
       <c r="G926" s="5"/>
       <c r="H926" s="4"/>
       <c r="I926" s="4"/>
-      <c r="J926" s="35"/>
+      <c r="J926" s="34"/>
       <c r="K926" s="5"/>
       <c r="L926" s="5"/>
       <c r="M926" s="5"/>
@@ -17064,7 +17082,7 @@
       <c r="G927" s="5"/>
       <c r="H927" s="4"/>
       <c r="I927" s="4"/>
-      <c r="J927" s="35"/>
+      <c r="J927" s="34"/>
       <c r="K927" s="5"/>
       <c r="L927" s="5"/>
       <c r="M927" s="5"/>
@@ -17080,7 +17098,7 @@
       <c r="G928" s="5"/>
       <c r="H928" s="4"/>
       <c r="I928" s="4"/>
-      <c r="J928" s="35"/>
+      <c r="J928" s="34"/>
       <c r="K928" s="5"/>
       <c r="L928" s="5"/>
       <c r="M928" s="5"/>
@@ -17096,7 +17114,7 @@
       <c r="G929" s="5"/>
       <c r="H929" s="4"/>
       <c r="I929" s="4"/>
-      <c r="J929" s="35"/>
+      <c r="J929" s="34"/>
       <c r="K929" s="5"/>
       <c r="L929" s="5"/>
       <c r="M929" s="5"/>
@@ -17112,7 +17130,7 @@
       <c r="G930" s="5"/>
       <c r="H930" s="4"/>
       <c r="I930" s="4"/>
-      <c r="J930" s="35"/>
+      <c r="J930" s="34"/>
       <c r="K930" s="5"/>
       <c r="L930" s="5"/>
       <c r="M930" s="5"/>
@@ -17128,7 +17146,7 @@
       <c r="G931" s="5"/>
       <c r="H931" s="4"/>
       <c r="I931" s="4"/>
-      <c r="J931" s="35"/>
+      <c r="J931" s="34"/>
       <c r="K931" s="5"/>
       <c r="L931" s="5"/>
       <c r="M931" s="5"/>
@@ -17144,7 +17162,7 @@
       <c r="G932" s="5"/>
       <c r="H932" s="4"/>
       <c r="I932" s="4"/>
-      <c r="J932" s="35"/>
+      <c r="J932" s="34"/>
       <c r="K932" s="5"/>
       <c r="L932" s="5"/>
       <c r="M932" s="5"/>
@@ -17160,7 +17178,7 @@
       <c r="G933" s="5"/>
       <c r="H933" s="4"/>
       <c r="I933" s="4"/>
-      <c r="J933" s="35"/>
+      <c r="J933" s="34"/>
       <c r="K933" s="5"/>
       <c r="L933" s="5"/>
       <c r="M933" s="5"/>
@@ -17176,7 +17194,7 @@
       <c r="G934" s="5"/>
       <c r="H934" s="4"/>
       <c r="I934" s="4"/>
-      <c r="J934" s="35"/>
+      <c r="J934" s="34"/>
       <c r="K934" s="5"/>
       <c r="L934" s="5"/>
       <c r="M934" s="5"/>
@@ -17192,7 +17210,7 @@
       <c r="G935" s="5"/>
       <c r="H935" s="4"/>
       <c r="I935" s="4"/>
-      <c r="J935" s="35"/>
+      <c r="J935" s="34"/>
       <c r="K935" s="5"/>
       <c r="L935" s="5"/>
       <c r="M935" s="5"/>
@@ -17208,7 +17226,7 @@
       <c r="G936" s="5"/>
       <c r="H936" s="4"/>
       <c r="I936" s="4"/>
-      <c r="J936" s="35"/>
+      <c r="J936" s="34"/>
       <c r="K936" s="5"/>
       <c r="L936" s="5"/>
       <c r="M936" s="5"/>
@@ -17224,7 +17242,7 @@
       <c r="G937" s="5"/>
       <c r="H937" s="4"/>
       <c r="I937" s="4"/>
-      <c r="J937" s="35"/>
+      <c r="J937" s="34"/>
       <c r="K937" s="5"/>
       <c r="L937" s="5"/>
       <c r="M937" s="5"/>
@@ -17240,7 +17258,7 @@
       <c r="G938" s="5"/>
       <c r="H938" s="4"/>
       <c r="I938" s="4"/>
-      <c r="J938" s="35"/>
+      <c r="J938" s="34"/>
       <c r="K938" s="5"/>
       <c r="L938" s="5"/>
       <c r="M938" s="5"/>
@@ -17256,7 +17274,7 @@
       <c r="G939" s="5"/>
       <c r="H939" s="4"/>
       <c r="I939" s="4"/>
-      <c r="J939" s="35"/>
+      <c r="J939" s="34"/>
       <c r="K939" s="5"/>
       <c r="L939" s="5"/>
       <c r="M939" s="5"/>
@@ -17272,7 +17290,7 @@
       <c r="G940" s="5"/>
       <c r="H940" s="4"/>
       <c r="I940" s="4"/>
-      <c r="J940" s="35"/>
+      <c r="J940" s="34"/>
       <c r="K940" s="5"/>
       <c r="L940" s="5"/>
       <c r="M940" s="5"/>
@@ -17288,7 +17306,7 @@
       <c r="G941" s="5"/>
       <c r="H941" s="4"/>
       <c r="I941" s="4"/>
-      <c r="J941" s="35"/>
+      <c r="J941" s="34"/>
       <c r="K941" s="5"/>
       <c r="L941" s="5"/>
       <c r="M941" s="5"/>
@@ -17304,7 +17322,7 @@
       <c r="G942" s="5"/>
       <c r="H942" s="4"/>
       <c r="I942" s="4"/>
-      <c r="J942" s="35"/>
+      <c r="J942" s="34"/>
       <c r="K942" s="5"/>
       <c r="L942" s="5"/>
       <c r="M942" s="5"/>
@@ -17320,7 +17338,7 @@
       <c r="G943" s="5"/>
       <c r="H943" s="4"/>
       <c r="I943" s="4"/>
-      <c r="J943" s="35"/>
+      <c r="J943" s="34"/>
       <c r="K943" s="5"/>
       <c r="L943" s="5"/>
       <c r="M943" s="5"/>
@@ -17336,7 +17354,7 @@
       <c r="G944" s="5"/>
       <c r="H944" s="4"/>
       <c r="I944" s="4"/>
-      <c r="J944" s="35"/>
+      <c r="J944" s="34"/>
       <c r="K944" s="5"/>
       <c r="L944" s="5"/>
       <c r="M944" s="5"/>
@@ -17352,7 +17370,7 @@
       <c r="G945" s="5"/>
       <c r="H945" s="4"/>
       <c r="I945" s="4"/>
-      <c r="J945" s="35"/>
+      <c r="J945" s="34"/>
       <c r="K945" s="5"/>
       <c r="L945" s="5"/>
       <c r="M945" s="5"/>
@@ -17368,7 +17386,7 @@
       <c r="G946" s="5"/>
       <c r="H946" s="4"/>
       <c r="I946" s="4"/>
-      <c r="J946" s="35"/>
+      <c r="J946" s="34"/>
       <c r="K946" s="5"/>
       <c r="L946" s="5"/>
       <c r="M946" s="5"/>
@@ -17384,7 +17402,7 @@
       <c r="G947" s="5"/>
       <c r="H947" s="4"/>
       <c r="I947" s="4"/>
-      <c r="J947" s="35"/>
+      <c r="J947" s="34"/>
       <c r="K947" s="5"/>
       <c r="L947" s="5"/>
       <c r="M947" s="5"/>
@@ -17400,7 +17418,7 @@
       <c r="G948" s="5"/>
       <c r="H948" s="4"/>
       <c r="I948" s="4"/>
-      <c r="J948" s="35"/>
+      <c r="J948" s="34"/>
       <c r="K948" s="5"/>
       <c r="L948" s="5"/>
       <c r="M948" s="5"/>
@@ -17416,7 +17434,7 @@
       <c r="G949" s="5"/>
       <c r="H949" s="4"/>
       <c r="I949" s="4"/>
-      <c r="J949" s="35"/>
+      <c r="J949" s="34"/>
       <c r="K949" s="5"/>
       <c r="L949" s="5"/>
       <c r="M949" s="5"/>
@@ -17432,7 +17450,7 @@
       <c r="G950" s="5"/>
       <c r="H950" s="4"/>
       <c r="I950" s="4"/>
-      <c r="J950" s="35"/>
+      <c r="J950" s="34"/>
       <c r="K950" s="5"/>
       <c r="L950" s="5"/>
       <c r="M950" s="5"/>
@@ -17448,7 +17466,7 @@
       <c r="G951" s="5"/>
       <c r="H951" s="4"/>
       <c r="I951" s="4"/>
-      <c r="J951" s="35"/>
+      <c r="J951" s="34"/>
       <c r="K951" s="5"/>
       <c r="L951" s="5"/>
       <c r="M951" s="5"/>
@@ -17464,7 +17482,7 @@
       <c r="G952" s="5"/>
       <c r="H952" s="4"/>
       <c r="I952" s="4"/>
-      <c r="J952" s="35"/>
+      <c r="J952" s="34"/>
       <c r="K952" s="5"/>
       <c r="L952" s="5"/>
       <c r="M952" s="5"/>
@@ -17480,7 +17498,7 @@
       <c r="G953" s="5"/>
       <c r="H953" s="4"/>
       <c r="I953" s="4"/>
-      <c r="J953" s="35"/>
+      <c r="J953" s="34"/>
       <c r="K953" s="5"/>
       <c r="L953" s="5"/>
       <c r="M953" s="5"/>
@@ -17496,7 +17514,7 @@
       <c r="G954" s="5"/>
       <c r="H954" s="4"/>
       <c r="I954" s="4"/>
-      <c r="J954" s="35"/>
+      <c r="J954" s="34"/>
       <c r="K954" s="5"/>
       <c r="L954" s="5"/>
       <c r="M954" s="5"/>
@@ -17512,7 +17530,7 @@
       <c r="G955" s="5"/>
       <c r="H955" s="4"/>
       <c r="I955" s="4"/>
-      <c r="J955" s="35"/>
+      <c r="J955" s="34"/>
       <c r="K955" s="5"/>
       <c r="L955" s="5"/>
       <c r="M955" s="5"/>
@@ -17528,7 +17546,7 @@
       <c r="G956" s="5"/>
       <c r="H956" s="4"/>
       <c r="I956" s="4"/>
-      <c r="J956" s="35"/>
+      <c r="J956" s="34"/>
       <c r="K956" s="5"/>
       <c r="L956" s="5"/>
       <c r="M956" s="5"/>
@@ -17544,7 +17562,7 @@
       <c r="G957" s="5"/>
       <c r="H957" s="4"/>
       <c r="I957" s="4"/>
-      <c r="J957" s="35"/>
+      <c r="J957" s="34"/>
       <c r="K957" s="5"/>
       <c r="L957" s="5"/>
       <c r="M957" s="5"/>
@@ -17560,7 +17578,7 @@
       <c r="G958" s="5"/>
       <c r="H958" s="4"/>
       <c r="I958" s="4"/>
-      <c r="J958" s="35"/>
+      <c r="J958" s="34"/>
       <c r="K958" s="5"/>
       <c r="L958" s="5"/>
       <c r="M958" s="5"/>
@@ -17576,7 +17594,7 @@
       <c r="G959" s="5"/>
       <c r="H959" s="4"/>
       <c r="I959" s="4"/>
-      <c r="J959" s="35"/>
+      <c r="J959" s="34"/>
       <c r="K959" s="5"/>
       <c r="L959" s="5"/>
       <c r="M959" s="5"/>
@@ -17592,7 +17610,7 @@
       <c r="G960" s="5"/>
       <c r="H960" s="4"/>
       <c r="I960" s="4"/>
-      <c r="J960" s="35"/>
+      <c r="J960" s="34"/>
       <c r="K960" s="5"/>
       <c r="L960" s="5"/>
       <c r="M960" s="5"/>
@@ -17608,7 +17626,7 @@
       <c r="G961" s="5"/>
       <c r="H961" s="4"/>
       <c r="I961" s="4"/>
-      <c r="J961" s="35"/>
+      <c r="J961" s="34"/>
       <c r="K961" s="5"/>
       <c r="L961" s="5"/>
       <c r="M961" s="5"/>
@@ -17624,7 +17642,7 @@
       <c r="G962" s="5"/>
       <c r="H962" s="4"/>
       <c r="I962" s="4"/>
-      <c r="J962" s="35"/>
+      <c r="J962" s="34"/>
       <c r="K962" s="5"/>
       <c r="L962" s="5"/>
       <c r="M962" s="5"/>
@@ -17640,7 +17658,7 @@
       <c r="G963" s="5"/>
       <c r="H963" s="4"/>
       <c r="I963" s="4"/>
-      <c r="J963" s="35"/>
+      <c r="J963" s="34"/>
       <c r="K963" s="5"/>
       <c r="L963" s="5"/>
       <c r="M963" s="5"/>
@@ -17656,7 +17674,7 @@
       <c r="G964" s="5"/>
       <c r="H964" s="4"/>
       <c r="I964" s="4"/>
-      <c r="J964" s="35"/>
+      <c r="J964" s="34"/>
       <c r="K964" s="5"/>
       <c r="L964" s="5"/>
       <c r="M964" s="5"/>
@@ -17672,7 +17690,7 @@
       <c r="G965" s="5"/>
       <c r="H965" s="4"/>
       <c r="I965" s="4"/>
-      <c r="J965" s="35"/>
+      <c r="J965" s="34"/>
       <c r="K965" s="5"/>
       <c r="L965" s="5"/>
       <c r="M965" s="5"/>
@@ -17688,7 +17706,7 @@
       <c r="G966" s="5"/>
       <c r="H966" s="4"/>
       <c r="I966" s="4"/>
-      <c r="J966" s="35"/>
+      <c r="J966" s="34"/>
       <c r="K966" s="5"/>
       <c r="L966" s="5"/>
       <c r="M966" s="5"/>
@@ -17704,7 +17722,7 @@
       <c r="G967" s="5"/>
       <c r="H967" s="4"/>
       <c r="I967" s="4"/>
-      <c r="J967" s="35"/>
+      <c r="J967" s="34"/>
       <c r="K967" s="5"/>
       <c r="L967" s="5"/>
       <c r="M967" s="5"/>
@@ -17720,7 +17738,7 @@
       <c r="G968" s="5"/>
       <c r="H968" s="4"/>
       <c r="I968" s="4"/>
-      <c r="J968" s="35"/>
+      <c r="J968" s="34"/>
       <c r="K968" s="5"/>
       <c r="L968" s="5"/>
       <c r="M968" s="5"/>
@@ -17736,7 +17754,7 @@
       <c r="G969" s="5"/>
       <c r="H969" s="4"/>
       <c r="I969" s="4"/>
-      <c r="J969" s="35"/>
+      <c r="J969" s="34"/>
       <c r="K969" s="5"/>
       <c r="L969" s="5"/>
       <c r="M969" s="5"/>
@@ -17752,7 +17770,7 @@
       <c r="G970" s="5"/>
       <c r="H970" s="4"/>
       <c r="I970" s="4"/>
-      <c r="J970" s="35"/>
+      <c r="J970" s="34"/>
       <c r="K970" s="5"/>
       <c r="L970" s="5"/>
       <c r="M970" s="5"/>
@@ -17768,7 +17786,7 @@
       <c r="G971" s="5"/>
       <c r="H971" s="4"/>
       <c r="I971" s="4"/>
-      <c r="J971" s="35"/>
+      <c r="J971" s="34"/>
       <c r="K971" s="5"/>
       <c r="L971" s="5"/>
       <c r="M971" s="5"/>
@@ -17784,7 +17802,7 @@
       <c r="G972" s="5"/>
       <c r="H972" s="4"/>
       <c r="I972" s="4"/>
-      <c r="J972" s="35"/>
+      <c r="J972" s="34"/>
       <c r="K972" s="5"/>
       <c r="L972" s="5"/>
       <c r="M972" s="5"/>
@@ -17800,7 +17818,7 @@
       <c r="G973" s="5"/>
       <c r="H973" s="4"/>
       <c r="I973" s="4"/>
-      <c r="J973" s="35"/>
+      <c r="J973" s="34"/>
       <c r="K973" s="5"/>
       <c r="L973" s="5"/>
       <c r="M973" s="5"/>
@@ -17816,7 +17834,7 @@
       <c r="G974" s="5"/>
       <c r="H974" s="4"/>
       <c r="I974" s="4"/>
-      <c r="J974" s="35"/>
+      <c r="J974" s="34"/>
       <c r="K974" s="5"/>
       <c r="L974" s="5"/>
       <c r="M974" s="5"/>
@@ -17832,7 +17850,7 @@
       <c r="G975" s="5"/>
       <c r="H975" s="4"/>
       <c r="I975" s="4"/>
-      <c r="J975" s="35"/>
+      <c r="J975" s="34"/>
       <c r="K975" s="5"/>
       <c r="L975" s="5"/>
       <c r="M975" s="5"/>
@@ -17848,7 +17866,7 @@
       <c r="G976" s="5"/>
       <c r="H976" s="4"/>
       <c r="I976" s="4"/>
-      <c r="J976" s="35"/>
+      <c r="J976" s="34"/>
       <c r="K976" s="5"/>
       <c r="L976" s="5"/>
       <c r="M976" s="5"/>
@@ -17864,7 +17882,7 @@
       <c r="G977" s="5"/>
       <c r="H977" s="4"/>
       <c r="I977" s="4"/>
-      <c r="J977" s="35"/>
+      <c r="J977" s="34"/>
       <c r="K977" s="5"/>
       <c r="L977" s="5"/>
       <c r="M977" s="5"/>
@@ -17880,7 +17898,7 @@
       <c r="G978" s="5"/>
       <c r="H978" s="4"/>
       <c r="I978" s="4"/>
-      <c r="J978" s="35"/>
+      <c r="J978" s="34"/>
       <c r="K978" s="5"/>
       <c r="L978" s="5"/>
       <c r="M978" s="5"/>
@@ -17896,7 +17914,7 @@
       <c r="G979" s="5"/>
       <c r="H979" s="4"/>
       <c r="I979" s="4"/>
-      <c r="J979" s="35"/>
+      <c r="J979" s="34"/>
       <c r="K979" s="5"/>
       <c r="L979" s="5"/>
       <c r="M979" s="5"/>
@@ -17912,7 +17930,7 @@
       <c r="G980" s="5"/>
       <c r="H980" s="4"/>
       <c r="I980" s="4"/>
-      <c r="J980" s="35"/>
+      <c r="J980" s="34"/>
       <c r="K980" s="5"/>
       <c r="L980" s="5"/>
       <c r="M980" s="5"/>
@@ -17928,7 +17946,7 @@
       <c r="G981" s="5"/>
       <c r="H981" s="4"/>
       <c r="I981" s="4"/>
-      <c r="J981" s="35"/>
+      <c r="J981" s="34"/>
       <c r="K981" s="5"/>
       <c r="L981" s="5"/>
       <c r="M981" s="5"/>
@@ -17944,7 +17962,7 @@
       <c r="G982" s="5"/>
       <c r="H982" s="4"/>
       <c r="I982" s="4"/>
-      <c r="J982" s="35"/>
+      <c r="J982" s="34"/>
       <c r="K982" s="5"/>
       <c r="L982" s="5"/>
       <c r="M982" s="5"/>
@@ -17960,7 +17978,7 @@
       <c r="G983" s="5"/>
       <c r="H983" s="4"/>
       <c r="I983" s="4"/>
-      <c r="J983" s="35"/>
+      <c r="J983" s="34"/>
       <c r="K983" s="5"/>
       <c r="L983" s="5"/>
       <c r="M983" s="5"/>
@@ -17976,7 +17994,7 @@
       <c r="G984" s="5"/>
       <c r="H984" s="4"/>
       <c r="I984" s="4"/>
-      <c r="J984" s="35"/>
+      <c r="J984" s="34"/>
       <c r="K984" s="5"/>
       <c r="L984" s="5"/>
       <c r="M984" s="5"/>
@@ -17992,7 +18010,7 @@
       <c r="G985" s="5"/>
       <c r="H985" s="4"/>
       <c r="I985" s="4"/>
-      <c r="J985" s="35"/>
+      <c r="J985" s="34"/>
       <c r="K985" s="5"/>
       <c r="L985" s="5"/>
       <c r="M985" s="5"/>
@@ -18008,7 +18026,7 @@
       <c r="G986" s="5"/>
       <c r="H986" s="4"/>
       <c r="I986" s="4"/>
-      <c r="J986" s="35"/>
+      <c r="J986" s="34"/>
       <c r="K986" s="5"/>
       <c r="L986" s="5"/>
       <c r="M986" s="5"/>
@@ -18024,7 +18042,7 @@
       <c r="G987" s="5"/>
       <c r="H987" s="4"/>
       <c r="I987" s="4"/>
-      <c r="J987" s="35"/>
+      <c r="J987" s="34"/>
       <c r="K987" s="5"/>
       <c r="L987" s="5"/>
       <c r="M987" s="5"/>
@@ -18040,7 +18058,7 @@
       <c r="G988" s="5"/>
       <c r="H988" s="4"/>
       <c r="I988" s="4"/>
-      <c r="J988" s="35"/>
+      <c r="J988" s="34"/>
       <c r="K988" s="5"/>
       <c r="L988" s="5"/>
       <c r="M988" s="5"/>
@@ -18056,7 +18074,7 @@
       <c r="G989" s="5"/>
       <c r="H989" s="4"/>
       <c r="I989" s="4"/>
-      <c r="J989" s="35"/>
+      <c r="J989" s="34"/>
       <c r="K989" s="5"/>
       <c r="L989" s="5"/>
       <c r="M989" s="5"/>
@@ -18072,7 +18090,7 @@
       <c r="G990" s="5"/>
       <c r="H990" s="4"/>
       <c r="I990" s="4"/>
-      <c r="J990" s="35"/>
+      <c r="J990" s="34"/>
       <c r="K990" s="5"/>
       <c r="L990" s="5"/>
       <c r="M990" s="5"/>
@@ -18088,7 +18106,7 @@
       <c r="G991" s="5"/>
       <c r="H991" s="4"/>
       <c r="I991" s="4"/>
-      <c r="J991" s="35"/>
+      <c r="J991" s="34"/>
       <c r="K991" s="5"/>
       <c r="L991" s="5"/>
       <c r="M991" s="5"/>
@@ -18104,7 +18122,7 @@
       <c r="G992" s="5"/>
       <c r="H992" s="4"/>
       <c r="I992" s="4"/>
-      <c r="J992" s="35"/>
+      <c r="J992" s="34"/>
       <c r="K992" s="5"/>
       <c r="L992" s="5"/>
       <c r="M992" s="5"/>
@@ -18120,7 +18138,7 @@
       <c r="G993" s="5"/>
       <c r="H993" s="4"/>
       <c r="I993" s="4"/>
-      <c r="J993" s="35"/>
+      <c r="J993" s="34"/>
       <c r="K993" s="5"/>
       <c r="L993" s="5"/>
       <c r="M993" s="5"/>
@@ -18136,7 +18154,7 @@
       <c r="G994" s="5"/>
       <c r="H994" s="4"/>
       <c r="I994" s="4"/>
-      <c r="J994" s="35"/>
+      <c r="J994" s="34"/>
       <c r="K994" s="5"/>
       <c r="L994" s="5"/>
       <c r="M994" s="5"/>
@@ -18152,7 +18170,7 @@
       <c r="G995" s="5"/>
       <c r="H995" s="4"/>
       <c r="I995" s="4"/>
-      <c r="J995" s="35"/>
+      <c r="J995" s="34"/>
       <c r="K995" s="5"/>
       <c r="L995" s="5"/>
       <c r="M995" s="5"/>
@@ -18168,7 +18186,7 @@
       <c r="G996" s="5"/>
       <c r="H996" s="4"/>
       <c r="I996" s="4"/>
-      <c r="J996" s="35"/>
+      <c r="J996" s="34"/>
       <c r="K996" s="5"/>
       <c r="L996" s="5"/>
       <c r="M996" s="5"/>
@@ -18184,7 +18202,7 @@
       <c r="G997" s="5"/>
       <c r="H997" s="4"/>
       <c r="I997" s="4"/>
-      <c r="J997" s="35"/>
+      <c r="J997" s="34"/>
       <c r="K997" s="5"/>
       <c r="L997" s="5"/>
       <c r="M997" s="5"/>
@@ -18200,7 +18218,7 @@
       <c r="G998" s="5"/>
       <c r="H998" s="4"/>
       <c r="I998" s="4"/>
-      <c r="J998" s="35"/>
+      <c r="J998" s="34"/>
       <c r="K998" s="5"/>
       <c r="L998" s="5"/>
       <c r="M998" s="5"/>
@@ -18216,7 +18234,7 @@
       <c r="G999" s="5"/>
       <c r="H999" s="4"/>
       <c r="I999" s="4"/>
-      <c r="J999" s="35"/>
+      <c r="J999" s="34"/>
       <c r="K999" s="5"/>
       <c r="L999" s="5"/>
       <c r="M999" s="5"/>
@@ -18232,7 +18250,7 @@
       <c r="G1000" s="5"/>
       <c r="H1000" s="4"/>
       <c r="I1000" s="4"/>
-      <c r="J1000" s="35"/>
+      <c r="J1000" s="34"/>
       <c r="K1000" s="5"/>
       <c r="L1000" s="5"/>
       <c r="M1000" s="5"/>
@@ -18247,7 +18265,7 @@
     <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <dataValidations xWindow="258" yWindow="507" count="14">
+  <dataValidations xWindow="258" yWindow="507" count="15">
     <dataValidation type="list" showErrorMessage="1" sqref="H8:H1000" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$O$1:$O$2</formula1>
     </dataValidation>
@@ -18297,84 +18315,12 @@
     <dataValidation type="list" showErrorMessage="1" error="Escoja una opción de la lista desplegable" sqref="C7:C1000" xr:uid="{D546EE98-3D58-4477-BFE3-E5E0632EB234}">
       <formula1>$S$1:$S$112</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" error="Debe poner el nombre de una bodega existente_x000a_" sqref="J7:J1000" xr:uid="{96669A3E-691A-4779-BD4B-9941F88F378A}">
+      <formula1>$T$1:$T$9</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="258" yWindow="507" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" error="Debe poner el nombre de unabodega existente_x000a_" xr:uid="{2DAC5833-DBAB-44F8-9B20-37362BED02DE}">
-          <x14:formula1>
-            <xm:f>'-'!$A$1:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>J7:J1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA956BD8-7583-4075-9720-CAA361AACEA4}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" style="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>